--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D14EB8-ECED-479D-8650-33F189392DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00CD2E-5971-4106-A513-D7B36C34A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3330" yWindow="2235" windowWidth="22740" windowHeight="11580" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1567">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5188,6 +5188,34 @@
   </si>
   <si>
     <t>(41, 6)</t>
+  </si>
+  <si>
+    <t>Muí</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>mui2</t>
+  </si>
+  <si>
+    <t>mui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan1</t>
+  </si>
+  <si>
+    <t>tan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbnǔi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dān</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6978,7 +7006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE0382-E727-4C12-B382-F9FBAE5EDCB7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -7001,10 +7031,10 @@
         <v>1237</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>1559</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>1561</v>
       </c>
       <c r="D2" t="s">
         <v>1164</v>
@@ -7015,10 +7045,10 @@
         <v>1268</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>1560</v>
       </c>
       <c r="C3" t="s">
-        <v>499</v>
+        <v>1563</v>
       </c>
       <c r="D3" t="s">
         <v>1558</v>
@@ -7032,9 +7062,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326F3E27-07A3-4F38-ACFE-854E649133FB}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -8912,6 +8944,34 @@
       </c>
       <c r="D134" t="s">
         <v>1037</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C135" t="s">
+        <v>499</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -8952,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -9731,7 +9791,9 @@
         <v>1355</v>
       </c>
       <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+      <c r="H20" s="58" t="s">
+        <v>1562</v>
+      </c>
       <c r="I20" s="58" t="s">
         <v>411</v>
       </c>
@@ -9826,7 +9888,9 @@
         <v>1356</v>
       </c>
       <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="H22" s="60" t="s">
+        <v>1565</v>
+      </c>
       <c r="I22" s="60" t="s">
         <v>1328</v>
       </c>
@@ -10558,7 +10622,9 @@
         <v>1425</v>
       </c>
       <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
+      <c r="F40" s="58" t="s">
+        <v>1564</v>
+      </c>
       <c r="G40" s="58" t="s">
         <v>1427</v>
       </c>
@@ -10653,7 +10719,9 @@
         <v>1426</v>
       </c>
       <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="F42" s="60" t="s">
+        <v>1566</v>
+      </c>
       <c r="G42" s="60" t="s">
         <v>1428</v>
       </c>
@@ -27344,43 +27412,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="41" priority="37">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="37">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="39" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="47">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -27392,19 +27460,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -27416,19 +27484,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -27440,35 +27508,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -27480,11 +27548,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00CD2E-5971-4106-A513-D7B36C34A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2E27D9-0D16-4638-9390-7E5E9ECA0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="缺字表" sheetId="376" r:id="rId2"/>
-    <sheet name="標音字庫" sheetId="375" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="374" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="374" r:id="rId3"/>
+    <sheet name="標音字庫" sheetId="375" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId6"/>
     <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
@@ -7006,7 +7006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE0382-E727-4C12-B382-F9FBAE5EDCB7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -7061,1926 +7061,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326F3E27-07A3-4F38-ACFE-854E649133FB}">
-  <dimension ref="A1:D136"/>
-  <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D7" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C10" t="s">
-        <v>499</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>499</v>
-      </c>
-      <c r="D12" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C14" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C15" t="s">
-        <v>499</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B17" t="s">
-        <v>434</v>
-      </c>
-      <c r="C17" t="s">
-        <v>499</v>
-      </c>
-      <c r="D17" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>499</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B20" t="s">
-        <v>468</v>
-      </c>
-      <c r="C20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C21" t="s">
-        <v>499</v>
-      </c>
-      <c r="D21" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C22" t="s">
-        <v>499</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>411</v>
-      </c>
-      <c r="C23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C24" t="s">
-        <v>499</v>
-      </c>
-      <c r="D24" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>499</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" t="s">
-        <v>352</v>
-      </c>
-      <c r="C28" t="s">
-        <v>499</v>
-      </c>
-      <c r="D28" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B29" t="s">
-        <v>443</v>
-      </c>
-      <c r="C29" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C30" t="s">
-        <v>499</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>243</v>
-      </c>
-      <c r="B31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C31" t="s">
-        <v>499</v>
-      </c>
-      <c r="D31" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D32" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C33" t="s">
-        <v>499</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B34" t="s">
-        <v>405</v>
-      </c>
-      <c r="C34" t="s">
-        <v>499</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C35" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C36" t="s">
-        <v>499</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C37" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>499</v>
-      </c>
-      <c r="D39" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" t="s">
-        <v>466</v>
-      </c>
-      <c r="C40" t="s">
-        <v>499</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C41" t="s">
-        <v>499</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C42" t="s">
-        <v>499</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" t="s">
-        <v>377</v>
-      </c>
-      <c r="C43" t="s">
-        <v>499</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C44" t="s">
-        <v>499</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C45" t="s">
-        <v>499</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C46" t="s">
-        <v>499</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" t="s">
-        <v>368</v>
-      </c>
-      <c r="C47" t="s">
-        <v>499</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" t="s">
-        <v>458</v>
-      </c>
-      <c r="C48" t="s">
-        <v>499</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C49" t="s">
-        <v>499</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>499</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>499</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" t="s">
-        <v>460</v>
-      </c>
-      <c r="C52" t="s">
-        <v>499</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C53" t="s">
-        <v>499</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C54" t="s">
-        <v>499</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B56" t="s">
-        <v>465</v>
-      </c>
-      <c r="C56" t="s">
-        <v>499</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" t="s">
-        <v>499</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C58" t="s">
-        <v>499</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C59" t="s">
-        <v>499</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C60" t="s">
-        <v>499</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" t="s">
-        <v>362</v>
-      </c>
-      <c r="C61" t="s">
-        <v>499</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B62" t="s">
-        <v>442</v>
-      </c>
-      <c r="C62" t="s">
-        <v>499</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C63" t="s">
-        <v>499</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" t="s">
-        <v>421</v>
-      </c>
-      <c r="C64" t="s">
-        <v>499</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C65" t="s">
-        <v>499</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" t="s">
-        <v>338</v>
-      </c>
-      <c r="C66" t="s">
-        <v>499</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C67" t="s">
-        <v>499</v>
-      </c>
-      <c r="D67" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C68" t="s">
-        <v>499</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C69" t="s">
-        <v>499</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C70" t="s">
-        <v>499</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" t="s">
-        <v>499</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C72" t="s">
-        <v>499</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>287</v>
-      </c>
-      <c r="B73" t="s">
-        <v>479</v>
-      </c>
-      <c r="C73" t="s">
-        <v>499</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C74" t="s">
-        <v>499</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B75" t="s">
-        <v>337</v>
-      </c>
-      <c r="C75" t="s">
-        <v>499</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>284</v>
-      </c>
-      <c r="B76" t="s">
-        <v>476</v>
-      </c>
-      <c r="C76" t="s">
-        <v>499</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B77" t="s">
-        <v>324</v>
-      </c>
-      <c r="C77" t="s">
-        <v>499</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C78" t="s">
-        <v>499</v>
-      </c>
-      <c r="D78" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>380</v>
-      </c>
-      <c r="C79" t="s">
-        <v>499</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" t="s">
-        <v>412</v>
-      </c>
-      <c r="C80" t="s">
-        <v>499</v>
-      </c>
-      <c r="D80" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B81" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" t="s">
-        <v>499</v>
-      </c>
-      <c r="D81" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C82" t="s">
-        <v>499</v>
-      </c>
-      <c r="D82" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C83" t="s">
-        <v>499</v>
-      </c>
-      <c r="D83" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" t="s">
-        <v>372</v>
-      </c>
-      <c r="C84" t="s">
-        <v>499</v>
-      </c>
-      <c r="D84" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C85" t="s">
-        <v>499</v>
-      </c>
-      <c r="D85" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" t="s">
-        <v>389</v>
-      </c>
-      <c r="C86" t="s">
-        <v>499</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" t="s">
-        <v>395</v>
-      </c>
-      <c r="C87" t="s">
-        <v>499</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C88" t="s">
-        <v>499</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C89" t="s">
-        <v>499</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C90" t="s">
-        <v>499</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C91" t="s">
-        <v>499</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C92" t="s">
-        <v>499</v>
-      </c>
-      <c r="D92" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C93" t="s">
-        <v>499</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" t="s">
-        <v>394</v>
-      </c>
-      <c r="C94" t="s">
-        <v>499</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C95" t="s">
-        <v>499</v>
-      </c>
-      <c r="D95" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C96" t="s">
-        <v>499</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" t="s">
-        <v>499</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C98" t="s">
-        <v>499</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C99" t="s">
-        <v>499</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B100" t="s">
-        <v>448</v>
-      </c>
-      <c r="C100" t="s">
-        <v>499</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C101" t="s">
-        <v>499</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B102" t="s">
-        <v>53</v>
-      </c>
-      <c r="C102" t="s">
-        <v>499</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>275</v>
-      </c>
-      <c r="B103" t="s">
-        <v>470</v>
-      </c>
-      <c r="C103" t="s">
-        <v>499</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B104" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" t="s">
-        <v>499</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>201</v>
-      </c>
-      <c r="B105" t="s">
-        <v>414</v>
-      </c>
-      <c r="C105" t="s">
-        <v>499</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C106" t="s">
-        <v>499</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C107" t="s">
-        <v>499</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C108" t="s">
-        <v>499</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>288</v>
-      </c>
-      <c r="B109" t="s">
-        <v>311</v>
-      </c>
-      <c r="C109" t="s">
-        <v>499</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C110" t="s">
-        <v>499</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C111" t="s">
-        <v>499</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C112" t="s">
-        <v>499</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C113" t="s">
-        <v>499</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>102</v>
-      </c>
-      <c r="B114" t="s">
-        <v>455</v>
-      </c>
-      <c r="C114" t="s">
-        <v>499</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C115" t="s">
-        <v>499</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C116" t="s">
-        <v>499</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B117" t="s">
-        <v>332</v>
-      </c>
-      <c r="C117" t="s">
-        <v>499</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C118" t="s">
-        <v>499</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" t="s">
-        <v>54</v>
-      </c>
-      <c r="C119" t="s">
-        <v>499</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C120" t="s">
-        <v>499</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>162</v>
-      </c>
-      <c r="B121" t="s">
-        <v>383</v>
-      </c>
-      <c r="C121" t="s">
-        <v>499</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C122" t="s">
-        <v>499</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>160</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C123" t="s">
-        <v>499</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C124" t="s">
-        <v>499</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C125" t="s">
-        <v>499</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>101</v>
-      </c>
-      <c r="B126" t="s">
-        <v>332</v>
-      </c>
-      <c r="C126" t="s">
-        <v>499</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" t="s">
-        <v>331</v>
-      </c>
-      <c r="C127" t="s">
-        <v>499</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>251</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C128" t="s">
-        <v>499</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>26</v>
-      </c>
-      <c r="B129" t="s">
-        <v>354</v>
-      </c>
-      <c r="C129" t="s">
-        <v>499</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B130" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" t="s">
-        <v>499</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>279</v>
-      </c>
-      <c r="B131" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" t="s">
-        <v>499</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>294</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C132" t="s">
-        <v>499</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C133" t="s">
-        <v>499</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>218</v>
-      </c>
-      <c r="B134" t="s">
-        <v>428</v>
-      </c>
-      <c r="C134" t="s">
-        <v>499</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C135" t="s">
-        <v>499</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C136" t="s">
-        <v>499</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BFBF7E-0D01-45E7-854F-3249F489555C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -9000,6 +7080,1926 @@
       </c>
       <c r="D1" t="s">
         <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326F3E27-07A3-4F38-ACFE-854E649133FB}">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D21" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" t="s">
+        <v>466</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C41" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C42" t="s">
+        <v>499</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>458</v>
+      </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C49" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" t="s">
+        <v>460</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C53" t="s">
+        <v>499</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B56" t="s">
+        <v>465</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" t="s">
+        <v>442</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D67" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C69" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C70" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" t="s">
+        <v>479</v>
+      </c>
+      <c r="C73" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C74" t="s">
+        <v>499</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>284</v>
+      </c>
+      <c r="B76" t="s">
+        <v>476</v>
+      </c>
+      <c r="C76" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B77" t="s">
+        <v>324</v>
+      </c>
+      <c r="C77" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D78" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" t="s">
+        <v>499</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" t="s">
+        <v>412</v>
+      </c>
+      <c r="C80" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C82" t="s">
+        <v>499</v>
+      </c>
+      <c r="D82" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>372</v>
+      </c>
+      <c r="C84" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C85" t="s">
+        <v>499</v>
+      </c>
+      <c r="D85" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" t="s">
+        <v>499</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C88" t="s">
+        <v>499</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C89" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C90" t="s">
+        <v>499</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C91" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C92" t="s">
+        <v>499</v>
+      </c>
+      <c r="D92" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" t="s">
+        <v>394</v>
+      </c>
+      <c r="C94" t="s">
+        <v>499</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C96" t="s">
+        <v>499</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C99" t="s">
+        <v>499</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B100" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" t="s">
+        <v>499</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>499</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>275</v>
+      </c>
+      <c r="B103" t="s">
+        <v>470</v>
+      </c>
+      <c r="C103" t="s">
+        <v>499</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>499</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" t="s">
+        <v>414</v>
+      </c>
+      <c r="C105" t="s">
+        <v>499</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C107" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C108" t="s">
+        <v>499</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109" t="s">
+        <v>499</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C110" t="s">
+        <v>499</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C112" t="s">
+        <v>499</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C113" t="s">
+        <v>499</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>455</v>
+      </c>
+      <c r="C114" t="s">
+        <v>499</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C115" t="s">
+        <v>499</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C116" t="s">
+        <v>499</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B117" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" t="s">
+        <v>499</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C118" t="s">
+        <v>499</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>499</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C120" t="s">
+        <v>499</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" t="s">
+        <v>383</v>
+      </c>
+      <c r="C121" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C122" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C123" t="s">
+        <v>499</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C124" t="s">
+        <v>499</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C125" t="s">
+        <v>499</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" t="s">
+        <v>499</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" t="s">
+        <v>331</v>
+      </c>
+      <c r="C127" t="s">
+        <v>499</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C128" t="s">
+        <v>499</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B130" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>279</v>
+      </c>
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" t="s">
+        <v>499</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C132" t="s">
+        <v>499</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C133" t="s">
+        <v>499</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" t="s">
+        <v>428</v>
+      </c>
+      <c r="C134" t="s">
+        <v>499</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C135" t="s">
+        <v>499</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1558</v>
       </c>
     </row>
   </sheetData>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2E27D9-0D16-4638-9390-7E5E9ECA0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67175F26-4036-43D6-8449-FC7FA67688A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1571">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5188,6 +5188,22 @@
   </si>
   <si>
     <t>(41, 6)</t>
+  </si>
+  <si>
+    <t>漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Muí</t>
@@ -7014,16 +7030,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>1559</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>1560</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>1561</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7031,10 +7047,10 @@
         <v>1237</v>
       </c>
       <c r="B2" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="C2" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="D2" t="s">
         <v>1164</v>
@@ -7045,10 +7061,10 @@
         <v>1268</v>
       </c>
       <c r="B3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="C3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="D3" t="s">
         <v>1558</v>
@@ -7070,16 +7086,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>1559</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>1560</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>1561</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -7092,7 +7108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326F3E27-07A3-4F38-ACFE-854E649133FB}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
@@ -7100,16 +7116,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>1559</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>1560</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>1561</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8979,7 +8995,7 @@
         <v>1237</v>
       </c>
       <c r="B135" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="C135" t="s">
         <v>499</v>
@@ -8993,7 +9009,7 @@
         <v>1268</v>
       </c>
       <c r="B136" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="C136" t="s">
         <v>499</v>
@@ -9012,7 +9028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -9792,7 +9808,7 @@
       </c>
       <c r="G20" s="58"/>
       <c r="H20" s="58" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="I20" s="58" t="s">
         <v>411</v>
@@ -9889,7 +9905,7 @@
       </c>
       <c r="G22" s="60"/>
       <c r="H22" s="60" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="I22" s="60" t="s">
         <v>1328</v>
@@ -10623,7 +10639,7 @@
       </c>
       <c r="E40" s="58"/>
       <c r="F40" s="58" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="G40" s="58" t="s">
         <v>1427</v>
@@ -10720,7 +10736,7 @@
       </c>
       <c r="E42" s="60"/>
       <c r="F42" s="60" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="G42" s="60" t="s">
         <v>1428</v>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC778EEA-03F3-4FFA-92EC-0C1391B645DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F131A26-3377-402D-8854-8DF6339F5921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-105" windowWidth="16440" windowHeight="28320" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="1830" yWindow="1980" windowWidth="26550" windowHeight="12765" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="358" r:id="rId2"/>
-    <sheet name="人工標音字庫" sheetId="357" r:id="rId3"/>
-    <sheet name="缺字表" sheetId="356" r:id="rId4"/>
+    <sheet name="缺字表" sheetId="361" r:id="rId2"/>
+    <sheet name="標音字庫" sheetId="360" r:id="rId3"/>
+    <sheet name="人工標音字庫" sheetId="359" r:id="rId4"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
     <sheet name="標音字庫 (bak)" sheetId="297" r:id="rId6"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId7"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6180" uniqueCount="2028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6054" uniqueCount="2016">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6897,9 +6897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ni5</t>
-  </si>
-  <si>
     <t>khik1</t>
   </si>
   <si>
@@ -6907,21 +6904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cai7</t>
-  </si>
-  <si>
-    <t>tua7</t>
-  </si>
-  <si>
-    <t>kue3</t>
-  </si>
-  <si>
-    <t>tit4</t>
-  </si>
-  <si>
-    <t>na7</t>
-  </si>
-  <si>
     <t>kāi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6946,9 +6928,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iah8</t>
-  </si>
-  <si>
     <t>yān</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6962,22 +6941,6 @@
   </si>
   <si>
     <t>jin55</t>
-  </si>
-  <si>
-    <t>jin55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>ki7</t>
-  </si>
-  <si>
-    <t>ku1</t>
-  </si>
-  <si>
-    <t>hio7</t>
   </si>
   <si>
     <t>ggnóo</t>
@@ -14383,10 +14346,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA054869-4895-4708-9148-139AA7C50681}">
-  <dimension ref="A1:D248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87A35A-88DA-4B4D-88D9-331B912129B3}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -14402,3464 +14365,6 @@
       </c>
       <c r="D1" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D4" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C10" t="s">
-        <v>499</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" t="s">
-        <v>499</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D13" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" t="s">
-        <v>499</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" t="s">
-        <v>499</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" t="s">
-        <v>499</v>
-      </c>
-      <c r="D18" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>499</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C22" t="s">
-        <v>499</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>499</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>315</v>
-      </c>
-      <c r="C26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D26" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C27" t="s">
-        <v>499</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C28" t="s">
-        <v>499</v>
-      </c>
-      <c r="D28" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>317</v>
-      </c>
-      <c r="C29" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>318</v>
-      </c>
-      <c r="C30" t="s">
-        <v>499</v>
-      </c>
-      <c r="D30" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" t="s">
-        <v>499</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" t="s">
-        <v>320</v>
-      </c>
-      <c r="C33" t="s">
-        <v>499</v>
-      </c>
-      <c r="D33" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" t="s">
-        <v>499</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" t="s">
-        <v>499</v>
-      </c>
-      <c r="D36" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C37" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" t="s">
-        <v>499</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C40" t="s">
-        <v>499</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>331</v>
-      </c>
-      <c r="C41" t="s">
-        <v>499</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s">
-        <v>332</v>
-      </c>
-      <c r="C42" t="s">
-        <v>499</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" t="s">
-        <v>499</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C44" t="s">
-        <v>499</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C45" t="s">
-        <v>499</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" t="s">
-        <v>335</v>
-      </c>
-      <c r="C46" t="s">
-        <v>499</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s">
-        <v>499</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" t="s">
-        <v>336</v>
-      </c>
-      <c r="C48" t="s">
-        <v>499</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" t="s">
-        <v>338</v>
-      </c>
-      <c r="C49" t="s">
-        <v>499</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>339</v>
-      </c>
-      <c r="C50" t="s">
-        <v>499</v>
-      </c>
-      <c r="D50" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>340</v>
-      </c>
-      <c r="C51" t="s">
-        <v>499</v>
-      </c>
-      <c r="D51" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C52" t="s">
-        <v>499</v>
-      </c>
-      <c r="D52" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>499</v>
-      </c>
-      <c r="D53" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>499</v>
-      </c>
-      <c r="D54" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>341</v>
-      </c>
-      <c r="C55" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>342</v>
-      </c>
-      <c r="C56" t="s">
-        <v>499</v>
-      </c>
-      <c r="D56" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C57" t="s">
-        <v>499</v>
-      </c>
-      <c r="D57" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>343</v>
-      </c>
-      <c r="C58" t="s">
-        <v>499</v>
-      </c>
-      <c r="D58" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>304</v>
-      </c>
-      <c r="C59" t="s">
-        <v>499</v>
-      </c>
-      <c r="D59" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" t="s">
-        <v>345</v>
-      </c>
-      <c r="C60" t="s">
-        <v>499</v>
-      </c>
-      <c r="D60" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" t="s">
-        <v>346</v>
-      </c>
-      <c r="C61" t="s">
-        <v>499</v>
-      </c>
-      <c r="D61" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>485</v>
-      </c>
-      <c r="C62" t="s">
-        <v>499</v>
-      </c>
-      <c r="D62" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" t="s">
-        <v>347</v>
-      </c>
-      <c r="C63" t="s">
-        <v>499</v>
-      </c>
-      <c r="D63" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" t="s">
-        <v>348</v>
-      </c>
-      <c r="C64" t="s">
-        <v>499</v>
-      </c>
-      <c r="D64" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>349</v>
-      </c>
-      <c r="C65" t="s">
-        <v>499</v>
-      </c>
-      <c r="D65" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" t="s">
-        <v>499</v>
-      </c>
-      <c r="D66" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" t="s">
-        <v>352</v>
-      </c>
-      <c r="C67" t="s">
-        <v>499</v>
-      </c>
-      <c r="D67" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" t="s">
-        <v>353</v>
-      </c>
-      <c r="C68" t="s">
-        <v>499</v>
-      </c>
-      <c r="D68" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" t="s">
-        <v>354</v>
-      </c>
-      <c r="C69" t="s">
-        <v>499</v>
-      </c>
-      <c r="D69" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" t="s">
-        <v>326</v>
-      </c>
-      <c r="C70" t="s">
-        <v>499</v>
-      </c>
-      <c r="D70" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" t="s">
-        <v>355</v>
-      </c>
-      <c r="C71" t="s">
-        <v>499</v>
-      </c>
-      <c r="D71" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" t="s">
-        <v>356</v>
-      </c>
-      <c r="C72" t="s">
-        <v>499</v>
-      </c>
-      <c r="D72" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" t="s">
-        <v>384</v>
-      </c>
-      <c r="C73" t="s">
-        <v>499</v>
-      </c>
-      <c r="D73" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C74" t="s">
-        <v>499</v>
-      </c>
-      <c r="D74" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" t="s">
-        <v>359</v>
-      </c>
-      <c r="C75" t="s">
-        <v>499</v>
-      </c>
-      <c r="D75" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" t="s">
-        <v>499</v>
-      </c>
-      <c r="D76" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" t="s">
-        <v>499</v>
-      </c>
-      <c r="D77" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" t="s">
-        <v>361</v>
-      </c>
-      <c r="C78" t="s">
-        <v>499</v>
-      </c>
-      <c r="D78" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" t="s">
-        <v>362</v>
-      </c>
-      <c r="C79" t="s">
-        <v>499</v>
-      </c>
-      <c r="D79" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" t="s">
-        <v>464</v>
-      </c>
-      <c r="C80" t="s">
-        <v>499</v>
-      </c>
-      <c r="D80" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" t="s">
-        <v>363</v>
-      </c>
-      <c r="C81" t="s">
-        <v>499</v>
-      </c>
-      <c r="D81" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C82" t="s">
-        <v>499</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>499</v>
-      </c>
-      <c r="D83" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C84" t="s">
-        <v>499</v>
-      </c>
-      <c r="D84" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" t="s">
-        <v>365</v>
-      </c>
-      <c r="C85" t="s">
-        <v>499</v>
-      </c>
-      <c r="D85" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>140</v>
-      </c>
-      <c r="B86" t="s">
-        <v>366</v>
-      </c>
-      <c r="C86" t="s">
-        <v>499</v>
-      </c>
-      <c r="D86" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>141</v>
-      </c>
-      <c r="B87" t="s">
-        <v>367</v>
-      </c>
-      <c r="C87" t="s">
-        <v>499</v>
-      </c>
-      <c r="D87" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88" t="s">
-        <v>336</v>
-      </c>
-      <c r="C88" t="s">
-        <v>499</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" t="s">
-        <v>368</v>
-      </c>
-      <c r="C89" t="s">
-        <v>499</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" t="s">
-        <v>302</v>
-      </c>
-      <c r="C90" t="s">
-        <v>499</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" t="s">
-        <v>369</v>
-      </c>
-      <c r="C91" t="s">
-        <v>499</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" t="s">
-        <v>354</v>
-      </c>
-      <c r="C92" t="s">
-        <v>499</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" t="s">
-        <v>370</v>
-      </c>
-      <c r="C93" t="s">
-        <v>499</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" t="s">
-        <v>371</v>
-      </c>
-      <c r="C94" t="s">
-        <v>499</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" t="s">
-        <v>54</v>
-      </c>
-      <c r="C95" t="s">
-        <v>499</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>148</v>
-      </c>
-      <c r="B96" t="s">
-        <v>372</v>
-      </c>
-      <c r="C96" t="s">
-        <v>499</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" t="s">
-        <v>361</v>
-      </c>
-      <c r="C97" t="s">
-        <v>499</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" t="s">
-        <v>375</v>
-      </c>
-      <c r="C98" t="s">
-        <v>499</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>153</v>
-      </c>
-      <c r="B99" t="s">
-        <v>376</v>
-      </c>
-      <c r="C99" t="s">
-        <v>499</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" t="s">
-        <v>377</v>
-      </c>
-      <c r="C100" t="s">
-        <v>499</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1977</v>
-      </c>
-      <c r="C101" t="s">
-        <v>499</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" t="s">
-        <v>378</v>
-      </c>
-      <c r="C102" t="s">
-        <v>499</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" t="s">
-        <v>379</v>
-      </c>
-      <c r="C103" t="s">
-        <v>499</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" t="s">
-        <v>380</v>
-      </c>
-      <c r="C104" t="s">
-        <v>499</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>158</v>
-      </c>
-      <c r="B105" t="s">
-        <v>307</v>
-      </c>
-      <c r="C105" t="s">
-        <v>499</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>158</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C106" t="s">
-        <v>499</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>159</v>
-      </c>
-      <c r="B107" t="s">
-        <v>381</v>
-      </c>
-      <c r="C107" t="s">
-        <v>499</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" t="s">
-        <v>383</v>
-      </c>
-      <c r="C108" t="s">
-        <v>499</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C109" t="s">
-        <v>499</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110" t="s">
-        <v>486</v>
-      </c>
-      <c r="C110" t="s">
-        <v>499</v>
-      </c>
-      <c r="D110" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" t="s">
-        <v>334</v>
-      </c>
-      <c r="C111" t="s">
-        <v>499</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>165</v>
-      </c>
-      <c r="B112" t="s">
-        <v>384</v>
-      </c>
-      <c r="C112" t="s">
-        <v>499</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113" t="s">
-        <v>385</v>
-      </c>
-      <c r="C113" t="s">
-        <v>499</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C114" t="s">
-        <v>499</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>170</v>
-      </c>
-      <c r="B115" t="s">
-        <v>389</v>
-      </c>
-      <c r="C115" t="s">
-        <v>499</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>171</v>
-      </c>
-      <c r="B116" t="s">
-        <v>390</v>
-      </c>
-      <c r="C116" t="s">
-        <v>499</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>172</v>
-      </c>
-      <c r="B117" t="s">
-        <v>352</v>
-      </c>
-      <c r="C117" t="s">
-        <v>499</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>174</v>
-      </c>
-      <c r="B118" t="s">
-        <v>392</v>
-      </c>
-      <c r="C118" t="s">
-        <v>499</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>175</v>
-      </c>
-      <c r="B119" t="s">
-        <v>393</v>
-      </c>
-      <c r="C119" t="s">
-        <v>499</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>176</v>
-      </c>
-      <c r="B120" t="s">
-        <v>394</v>
-      </c>
-      <c r="C120" t="s">
-        <v>499</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" t="s">
-        <v>395</v>
-      </c>
-      <c r="C121" t="s">
-        <v>499</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C122" t="s">
-        <v>499</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>177</v>
-      </c>
-      <c r="B123" t="s">
-        <v>62</v>
-      </c>
-      <c r="C123" t="s">
-        <v>499</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>177</v>
-      </c>
-      <c r="B124" t="s">
-        <v>441</v>
-      </c>
-      <c r="C124" t="s">
-        <v>499</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>178</v>
-      </c>
-      <c r="B125" t="s">
-        <v>396</v>
-      </c>
-      <c r="C125" t="s">
-        <v>499</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" t="s">
-        <v>397</v>
-      </c>
-      <c r="C126" t="s">
-        <v>499</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>180</v>
-      </c>
-      <c r="B127" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" t="s">
-        <v>499</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>181</v>
-      </c>
-      <c r="B128" t="s">
-        <v>398</v>
-      </c>
-      <c r="C128" t="s">
-        <v>499</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>182</v>
-      </c>
-      <c r="B129" t="s">
-        <v>353</v>
-      </c>
-      <c r="C129" t="s">
-        <v>499</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>183</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C130" t="s">
-        <v>499</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>186</v>
-      </c>
-      <c r="B131" t="s">
-        <v>488</v>
-      </c>
-      <c r="C131" t="s">
-        <v>499</v>
-      </c>
-      <c r="D131" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>187</v>
-      </c>
-      <c r="B132" t="s">
-        <v>401</v>
-      </c>
-      <c r="C132" t="s">
-        <v>499</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>188</v>
-      </c>
-      <c r="B133" t="s">
-        <v>402</v>
-      </c>
-      <c r="C133" t="s">
-        <v>499</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>190</v>
-      </c>
-      <c r="B134" t="s">
-        <v>404</v>
-      </c>
-      <c r="C134" t="s">
-        <v>499</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>191</v>
-      </c>
-      <c r="B135" t="s">
-        <v>405</v>
-      </c>
-      <c r="C135" t="s">
-        <v>499</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>192</v>
-      </c>
-      <c r="B136" t="s">
-        <v>312</v>
-      </c>
-      <c r="C136" t="s">
-        <v>499</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>193</v>
-      </c>
-      <c r="B137" t="s">
-        <v>406</v>
-      </c>
-      <c r="C137" t="s">
-        <v>499</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>194</v>
-      </c>
-      <c r="B138" t="s">
-        <v>407</v>
-      </c>
-      <c r="C138" t="s">
-        <v>499</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>195</v>
-      </c>
-      <c r="B139" t="s">
-        <v>408</v>
-      </c>
-      <c r="C139" t="s">
-        <v>499</v>
-      </c>
-      <c r="D139" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>196</v>
-      </c>
-      <c r="B140" t="s">
-        <v>409</v>
-      </c>
-      <c r="C140" t="s">
-        <v>499</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>197</v>
-      </c>
-      <c r="B141" t="s">
-        <v>410</v>
-      </c>
-      <c r="C141" t="s">
-        <v>499</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>198</v>
-      </c>
-      <c r="B142" t="s">
-        <v>331</v>
-      </c>
-      <c r="C142" t="s">
-        <v>499</v>
-      </c>
-      <c r="D142" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>198</v>
-      </c>
-      <c r="B143" t="s">
-        <v>56</v>
-      </c>
-      <c r="C143" t="s">
-        <v>499</v>
-      </c>
-      <c r="D143" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>91</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C144" t="s">
-        <v>499</v>
-      </c>
-      <c r="D144" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>19</v>
-      </c>
-      <c r="B145" t="s">
-        <v>411</v>
-      </c>
-      <c r="C145" t="s">
-        <v>499</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>200</v>
-      </c>
-      <c r="B146" t="s">
-        <v>413</v>
-      </c>
-      <c r="C146" t="s">
-        <v>499</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>201</v>
-      </c>
-      <c r="B147" t="s">
-        <v>414</v>
-      </c>
-      <c r="C147" t="s">
-        <v>499</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>203</v>
-      </c>
-      <c r="B148" t="s">
-        <v>416</v>
-      </c>
-      <c r="C148" t="s">
-        <v>499</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>204</v>
-      </c>
-      <c r="B149" t="s">
-        <v>490</v>
-      </c>
-      <c r="C149" t="s">
-        <v>499</v>
-      </c>
-      <c r="D149" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>205</v>
-      </c>
-      <c r="B150" t="s">
-        <v>417</v>
-      </c>
-      <c r="C150" t="s">
-        <v>499</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>206</v>
-      </c>
-      <c r="B151" t="s">
-        <v>418</v>
-      </c>
-      <c r="C151" t="s">
-        <v>499</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>207</v>
-      </c>
-      <c r="B152" t="s">
-        <v>419</v>
-      </c>
-      <c r="C152" t="s">
-        <v>499</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>209</v>
-      </c>
-      <c r="B153" t="s">
-        <v>372</v>
-      </c>
-      <c r="C153" t="s">
-        <v>499</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>22</v>
-      </c>
-      <c r="B154" t="s">
-        <v>47</v>
-      </c>
-      <c r="C154" t="s">
-        <v>499</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>210</v>
-      </c>
-      <c r="B155" t="s">
-        <v>421</v>
-      </c>
-      <c r="C155" t="s">
-        <v>499</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>211</v>
-      </c>
-      <c r="B156" t="s">
-        <v>46</v>
-      </c>
-      <c r="C156" t="s">
-        <v>499</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>212</v>
-      </c>
-      <c r="B157" t="s">
-        <v>422</v>
-      </c>
-      <c r="C157" t="s">
-        <v>499</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" t="s">
-        <v>49</v>
-      </c>
-      <c r="C158" t="s">
-        <v>499</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>213</v>
-      </c>
-      <c r="B159" t="s">
-        <v>423</v>
-      </c>
-      <c r="C159" t="s">
-        <v>499</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>214</v>
-      </c>
-      <c r="B160" t="s">
-        <v>424</v>
-      </c>
-      <c r="C160" t="s">
-        <v>499</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>215</v>
-      </c>
-      <c r="B161" t="s">
-        <v>425</v>
-      </c>
-      <c r="C161" t="s">
-        <v>499</v>
-      </c>
-      <c r="D161" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>216</v>
-      </c>
-      <c r="B162" t="s">
-        <v>426</v>
-      </c>
-      <c r="C162" t="s">
-        <v>499</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>218</v>
-      </c>
-      <c r="B163" t="s">
-        <v>428</v>
-      </c>
-      <c r="C163" t="s">
-        <v>499</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>219</v>
-      </c>
-      <c r="B164" t="s">
-        <v>429</v>
-      </c>
-      <c r="C164" t="s">
-        <v>499</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>220</v>
-      </c>
-      <c r="B165" t="s">
-        <v>430</v>
-      </c>
-      <c r="C165" t="s">
-        <v>499</v>
-      </c>
-      <c r="D165" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>221</v>
-      </c>
-      <c r="B166" t="s">
-        <v>431</v>
-      </c>
-      <c r="C166" t="s">
-        <v>499</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" t="s">
-        <v>432</v>
-      </c>
-      <c r="C167" t="s">
-        <v>499</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>225</v>
-      </c>
-      <c r="B168" t="s">
-        <v>435</v>
-      </c>
-      <c r="C168" t="s">
-        <v>499</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>226</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C169" t="s">
-        <v>499</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>228</v>
-      </c>
-      <c r="B170" t="s">
-        <v>437</v>
-      </c>
-      <c r="C170" t="s">
-        <v>499</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>229</v>
-      </c>
-      <c r="B171" t="s">
-        <v>438</v>
-      </c>
-      <c r="C171" t="s">
-        <v>499</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>230</v>
-      </c>
-      <c r="B172" t="s">
-        <v>439</v>
-      </c>
-      <c r="C172" t="s">
-        <v>499</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>231</v>
-      </c>
-      <c r="B173" t="s">
-        <v>440</v>
-      </c>
-      <c r="C173" t="s">
-        <v>499</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>232</v>
-      </c>
-      <c r="B174" t="s">
-        <v>492</v>
-      </c>
-      <c r="C174" t="s">
-        <v>499</v>
-      </c>
-      <c r="D174" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>233</v>
-      </c>
-      <c r="B175" t="s">
-        <v>425</v>
-      </c>
-      <c r="C175" t="s">
-        <v>499</v>
-      </c>
-      <c r="D175" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>234</v>
-      </c>
-      <c r="B176" t="s">
-        <v>494</v>
-      </c>
-      <c r="C176" t="s">
-        <v>499</v>
-      </c>
-      <c r="D176" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>235</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C177" t="s">
-        <v>499</v>
-      </c>
-      <c r="D177" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>236</v>
-      </c>
-      <c r="B178" t="s">
-        <v>442</v>
-      </c>
-      <c r="C178" t="s">
-        <v>499</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>236</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C179" t="s">
-        <v>499</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>238</v>
-      </c>
-      <c r="B180" t="s">
-        <v>352</v>
-      </c>
-      <c r="C180" t="s">
-        <v>499</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>239</v>
-      </c>
-      <c r="B181" t="s">
-        <v>399</v>
-      </c>
-      <c r="C181" t="s">
-        <v>499</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>240</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C182" t="s">
-        <v>499</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>241</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C183" t="s">
-        <v>499</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>242</v>
-      </c>
-      <c r="B184" t="s">
-        <v>330</v>
-      </c>
-      <c r="C184" t="s">
-        <v>499</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>243</v>
-      </c>
-      <c r="B185" t="s">
-        <v>446</v>
-      </c>
-      <c r="C185" t="s">
-        <v>499</v>
-      </c>
-      <c r="D185" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>246</v>
-      </c>
-      <c r="B186" t="s">
-        <v>430</v>
-      </c>
-      <c r="C186" t="s">
-        <v>499</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>247</v>
-      </c>
-      <c r="B187" t="s">
-        <v>448</v>
-      </c>
-      <c r="C187" t="s">
-        <v>499</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>249</v>
-      </c>
-      <c r="B188" t="s">
-        <v>57</v>
-      </c>
-      <c r="C188" t="s">
-        <v>499</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>250</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C189" t="s">
-        <v>499</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>252</v>
-      </c>
-      <c r="B190" t="s">
-        <v>40</v>
-      </c>
-      <c r="C190" t="s">
-        <v>499</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>253</v>
-      </c>
-      <c r="B191" t="s">
-        <v>452</v>
-      </c>
-      <c r="C191" t="s">
-        <v>499</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>254</v>
-      </c>
-      <c r="B192" t="s">
-        <v>453</v>
-      </c>
-      <c r="C192" t="s">
-        <v>499</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>255</v>
-      </c>
-      <c r="B193" t="s">
-        <v>454</v>
-      </c>
-      <c r="C193" t="s">
-        <v>499</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>256</v>
-      </c>
-      <c r="B194" t="s">
-        <v>455</v>
-      </c>
-      <c r="C194" t="s">
-        <v>499</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>257</v>
-      </c>
-      <c r="B195" t="s">
-        <v>456</v>
-      </c>
-      <c r="C195" t="s">
-        <v>499</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>258</v>
-      </c>
-      <c r="B196" t="s">
-        <v>383</v>
-      </c>
-      <c r="C196" t="s">
-        <v>499</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>259</v>
-      </c>
-      <c r="B197" t="s">
-        <v>457</v>
-      </c>
-      <c r="C197" t="s">
-        <v>499</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>260</v>
-      </c>
-      <c r="B198" t="s">
-        <v>458</v>
-      </c>
-      <c r="C198" t="s">
-        <v>499</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>262</v>
-      </c>
-      <c r="B199" t="s">
-        <v>460</v>
-      </c>
-      <c r="C199" t="s">
-        <v>499</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>263</v>
-      </c>
-      <c r="B200" t="s">
-        <v>461</v>
-      </c>
-      <c r="C200" t="s">
-        <v>499</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>264</v>
-      </c>
-      <c r="B201" t="s">
-        <v>462</v>
-      </c>
-      <c r="C201" t="s">
-        <v>499</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>265</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C202" t="s">
-        <v>499</v>
-      </c>
-      <c r="D202" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>266</v>
-      </c>
-      <c r="B203" t="s">
-        <v>464</v>
-      </c>
-      <c r="C203" t="s">
-        <v>499</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>268</v>
-      </c>
-      <c r="B204" t="s">
-        <v>465</v>
-      </c>
-      <c r="C204" t="s">
-        <v>499</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>269</v>
-      </c>
-      <c r="B205" t="s">
-        <v>466</v>
-      </c>
-      <c r="C205" t="s">
-        <v>499</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>270</v>
-      </c>
-      <c r="B206" t="s">
-        <v>467</v>
-      </c>
-      <c r="C206" t="s">
-        <v>499</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>271</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C207" t="s">
-        <v>499</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>272</v>
-      </c>
-      <c r="B208" t="s">
-        <v>468</v>
-      </c>
-      <c r="C208" t="s">
-        <v>499</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>273</v>
-      </c>
-      <c r="B209" t="s">
-        <v>52</v>
-      </c>
-      <c r="C209" t="s">
-        <v>499</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>273</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1992</v>
-      </c>
-      <c r="C210" t="s">
-        <v>499</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>274</v>
-      </c>
-      <c r="B211" t="s">
-        <v>469</v>
-      </c>
-      <c r="C211" t="s">
-        <v>499</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
-        <v>275</v>
-      </c>
-      <c r="B212" t="s">
-        <v>470</v>
-      </c>
-      <c r="C212" t="s">
-        <v>499</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
-        <v>275</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C213" t="s">
-        <v>499</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>276</v>
-      </c>
-      <c r="B214" t="s">
-        <v>418</v>
-      </c>
-      <c r="C214" t="s">
-        <v>499</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>276</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C215" t="s">
-        <v>499</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>277</v>
-      </c>
-      <c r="B216" t="s">
-        <v>471</v>
-      </c>
-      <c r="C216" t="s">
-        <v>499</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>278</v>
-      </c>
-      <c r="B217" t="s">
-        <v>472</v>
-      </c>
-      <c r="C217" t="s">
-        <v>499</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>25</v>
-      </c>
-      <c r="B218" t="s">
-        <v>50</v>
-      </c>
-      <c r="C218" t="s">
-        <v>499</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
-        <v>279</v>
-      </c>
-      <c r="B219" t="s">
-        <v>55</v>
-      </c>
-      <c r="C219" t="s">
-        <v>499</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>280</v>
-      </c>
-      <c r="B220" t="s">
-        <v>362</v>
-      </c>
-      <c r="C220" t="s">
-        <v>499</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
-        <v>280</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C221" t="s">
-        <v>499</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>281</v>
-      </c>
-      <c r="B222" t="s">
-        <v>473</v>
-      </c>
-      <c r="C222" t="s">
-        <v>499</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>33</v>
-      </c>
-      <c r="B223" t="s">
-        <v>53</v>
-      </c>
-      <c r="C223" t="s">
-        <v>499</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>282</v>
-      </c>
-      <c r="B224" t="s">
-        <v>474</v>
-      </c>
-      <c r="C224" t="s">
-        <v>499</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>283</v>
-      </c>
-      <c r="B225" t="s">
-        <v>364</v>
-      </c>
-      <c r="C225" t="s">
-        <v>499</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>283</v>
-      </c>
-      <c r="B226" t="s">
-        <v>475</v>
-      </c>
-      <c r="C226" t="s">
-        <v>499</v>
-      </c>
-      <c r="D226" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>284</v>
-      </c>
-      <c r="B227" t="s">
-        <v>476</v>
-      </c>
-      <c r="C227" t="s">
-        <v>499</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>285</v>
-      </c>
-      <c r="B228" t="s">
-        <v>477</v>
-      </c>
-      <c r="C228" t="s">
-        <v>499</v>
-      </c>
-      <c r="D228" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>251</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C229" t="s">
-        <v>499</v>
-      </c>
-      <c r="D229" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>251</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C230" t="s">
-        <v>499</v>
-      </c>
-      <c r="D230" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
-        <v>251</v>
-      </c>
-      <c r="B231" t="s">
-        <v>451</v>
-      </c>
-      <c r="C231" t="s">
-        <v>499</v>
-      </c>
-      <c r="D231" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>251</v>
-      </c>
-      <c r="B232" t="s">
-        <v>321</v>
-      </c>
-      <c r="C232" t="s">
-        <v>499</v>
-      </c>
-      <c r="D232" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
-        <v>286</v>
-      </c>
-      <c r="B233" t="s">
-        <v>478</v>
-      </c>
-      <c r="C233" t="s">
-        <v>499</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
-        <v>287</v>
-      </c>
-      <c r="B234" t="s">
-        <v>479</v>
-      </c>
-      <c r="C234" t="s">
-        <v>499</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
-        <v>288</v>
-      </c>
-      <c r="B235" t="s">
-        <v>311</v>
-      </c>
-      <c r="C235" t="s">
-        <v>499</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
-        <v>291</v>
-      </c>
-      <c r="B236" t="s">
-        <v>480</v>
-      </c>
-      <c r="C236" t="s">
-        <v>499</v>
-      </c>
-      <c r="D236" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
-        <v>292</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C237" t="s">
-        <v>499</v>
-      </c>
-      <c r="D237" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
-        <v>292</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C238" t="s">
-        <v>499</v>
-      </c>
-      <c r="D238" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>292</v>
-      </c>
-      <c r="B239" t="s">
-        <v>57</v>
-      </c>
-      <c r="C239" t="s">
-        <v>499</v>
-      </c>
-      <c r="D239" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>294</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C240" t="s">
-        <v>499</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>295</v>
-      </c>
-      <c r="B241" t="s">
-        <v>496</v>
-      </c>
-      <c r="C241" t="s">
-        <v>499</v>
-      </c>
-      <c r="D241" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>295</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C242" t="s">
-        <v>499</v>
-      </c>
-      <c r="D242" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>296</v>
-      </c>
-      <c r="B243" t="s">
-        <v>481</v>
-      </c>
-      <c r="C243" t="s">
-        <v>499</v>
-      </c>
-      <c r="D243" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>298</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C244" t="s">
-        <v>499</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
-        <v>299</v>
-      </c>
-      <c r="B245" t="s">
-        <v>483</v>
-      </c>
-      <c r="C245" t="s">
-        <v>499</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C246" t="s">
-        <v>499</v>
-      </c>
-      <c r="D246" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C247" t="s">
-        <v>499</v>
-      </c>
-      <c r="D247" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C248" t="s">
-        <v>499</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1939</v>
       </c>
     </row>
   </sheetData>
@@ -17869,7 +14374,3047 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5AB932-43CF-4114-9B12-B91F93555DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071A665-FE78-4FA7-83DC-4856CFF9C439}">
+  <dimension ref="A1:D216"/>
+  <sheetViews>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D21" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>338</v>
+      </c>
+      <c r="C41" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>499</v>
+      </c>
+      <c r="D42" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D48" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>346</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>485</v>
+      </c>
+      <c r="C51" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>499</v>
+      </c>
+      <c r="D53" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
+      <c r="D55" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D56" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
+      <c r="D57" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>357</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D64" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D65" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D66" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>361</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D67" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>362</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C70" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>365</v>
+      </c>
+      <c r="C72" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>366</v>
+      </c>
+      <c r="C73" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" t="s">
+        <v>499</v>
+      </c>
+      <c r="D74" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>370</v>
+      </c>
+      <c r="C79" t="s">
+        <v>499</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>371</v>
+      </c>
+      <c r="C80" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" t="s">
+        <v>499</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
+        <v>375</v>
+      </c>
+      <c r="C84" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" t="s">
+        <v>499</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>378</v>
+      </c>
+      <c r="C87" t="s">
+        <v>499</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" t="s">
+        <v>499</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C90" t="s">
+        <v>499</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>381</v>
+      </c>
+      <c r="C91" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" t="s">
+        <v>499</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" t="s">
+        <v>486</v>
+      </c>
+      <c r="C93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D93" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" t="s">
+        <v>499</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" t="s">
+        <v>384</v>
+      </c>
+      <c r="C95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" t="s">
+        <v>385</v>
+      </c>
+      <c r="C96" t="s">
+        <v>499</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C97" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" t="s">
+        <v>389</v>
+      </c>
+      <c r="C98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99" t="s">
+        <v>499</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" t="s">
+        <v>499</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" t="s">
+        <v>499</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" t="s">
+        <v>394</v>
+      </c>
+      <c r="C103" t="s">
+        <v>499</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" t="s">
+        <v>499</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" t="s">
+        <v>499</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" t="s">
+        <v>396</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" t="s">
+        <v>499</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>181</v>
+      </c>
+      <c r="B109" t="s">
+        <v>398</v>
+      </c>
+      <c r="C109" t="s">
+        <v>499</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" t="s">
+        <v>499</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" t="s">
+        <v>488</v>
+      </c>
+      <c r="C112" t="s">
+        <v>499</v>
+      </c>
+      <c r="D112" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" t="s">
+        <v>499</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" t="s">
+        <v>499</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>404</v>
+      </c>
+      <c r="C115" t="s">
+        <v>499</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
+        <v>405</v>
+      </c>
+      <c r="C116" t="s">
+        <v>499</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" t="s">
+        <v>499</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" t="s">
+        <v>406</v>
+      </c>
+      <c r="C118" t="s">
+        <v>499</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" t="s">
+        <v>407</v>
+      </c>
+      <c r="C119" t="s">
+        <v>499</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C120" t="s">
+        <v>499</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="s">
+        <v>409</v>
+      </c>
+      <c r="C121" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>410</v>
+      </c>
+      <c r="C122" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>331</v>
+      </c>
+      <c r="C123" t="s">
+        <v>499</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C124" t="s">
+        <v>499</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>411</v>
+      </c>
+      <c r="C125" t="s">
+        <v>499</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" t="s">
+        <v>499</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>201</v>
+      </c>
+      <c r="B127" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" t="s">
+        <v>499</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" t="s">
+        <v>499</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" t="s">
+        <v>490</v>
+      </c>
+      <c r="C129" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" t="s">
+        <v>417</v>
+      </c>
+      <c r="C130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" t="s">
+        <v>418</v>
+      </c>
+      <c r="C131" t="s">
+        <v>499</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" t="s">
+        <v>499</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" t="s">
+        <v>499</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>499</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" t="s">
+        <v>421</v>
+      </c>
+      <c r="C135" t="s">
+        <v>499</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" t="s">
+        <v>422</v>
+      </c>
+      <c r="C137" t="s">
+        <v>499</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="s">
+        <v>499</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" t="s">
+        <v>423</v>
+      </c>
+      <c r="C139" t="s">
+        <v>499</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" t="s">
+        <v>424</v>
+      </c>
+      <c r="C140" t="s">
+        <v>499</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" t="s">
+        <v>425</v>
+      </c>
+      <c r="C141" t="s">
+        <v>499</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" t="s">
+        <v>426</v>
+      </c>
+      <c r="C142" t="s">
+        <v>499</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>218</v>
+      </c>
+      <c r="B143" t="s">
+        <v>428</v>
+      </c>
+      <c r="C143" t="s">
+        <v>499</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>219</v>
+      </c>
+      <c r="B144" t="s">
+        <v>429</v>
+      </c>
+      <c r="C144" t="s">
+        <v>499</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" t="s">
+        <v>430</v>
+      </c>
+      <c r="C145" t="s">
+        <v>499</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" t="s">
+        <v>431</v>
+      </c>
+      <c r="C146" t="s">
+        <v>499</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" t="s">
+        <v>499</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" t="s">
+        <v>499</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C149" t="s">
+        <v>499</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+      <c r="B150" t="s">
+        <v>437</v>
+      </c>
+      <c r="C150" t="s">
+        <v>499</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>229</v>
+      </c>
+      <c r="B151" t="s">
+        <v>438</v>
+      </c>
+      <c r="C151" t="s">
+        <v>499</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>230</v>
+      </c>
+      <c r="B152" t="s">
+        <v>439</v>
+      </c>
+      <c r="C152" t="s">
+        <v>499</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>231</v>
+      </c>
+      <c r="B153" t="s">
+        <v>440</v>
+      </c>
+      <c r="C153" t="s">
+        <v>499</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>232</v>
+      </c>
+      <c r="B154" t="s">
+        <v>492</v>
+      </c>
+      <c r="C154" t="s">
+        <v>499</v>
+      </c>
+      <c r="D154" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>233</v>
+      </c>
+      <c r="B155" t="s">
+        <v>425</v>
+      </c>
+      <c r="C155" t="s">
+        <v>499</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>234</v>
+      </c>
+      <c r="B156" t="s">
+        <v>494</v>
+      </c>
+      <c r="C156" t="s">
+        <v>499</v>
+      </c>
+      <c r="D156" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>235</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C157" t="s">
+        <v>499</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>236</v>
+      </c>
+      <c r="B158" t="s">
+        <v>442</v>
+      </c>
+      <c r="C158" t="s">
+        <v>499</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>238</v>
+      </c>
+      <c r="B159" t="s">
+        <v>352</v>
+      </c>
+      <c r="C159" t="s">
+        <v>499</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>239</v>
+      </c>
+      <c r="B160" t="s">
+        <v>399</v>
+      </c>
+      <c r="C160" t="s">
+        <v>499</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C161" t="s">
+        <v>499</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>241</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C162" t="s">
+        <v>499</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>242</v>
+      </c>
+      <c r="B163" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" t="s">
+        <v>499</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" t="s">
+        <v>446</v>
+      </c>
+      <c r="C164" t="s">
+        <v>499</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>246</v>
+      </c>
+      <c r="B165" t="s">
+        <v>430</v>
+      </c>
+      <c r="C165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>247</v>
+      </c>
+      <c r="B166" t="s">
+        <v>448</v>
+      </c>
+      <c r="C166" t="s">
+        <v>499</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>249</v>
+      </c>
+      <c r="B167" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" t="s">
+        <v>499</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>250</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>252</v>
+      </c>
+      <c r="B169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C169" t="s">
+        <v>499</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>253</v>
+      </c>
+      <c r="B170" t="s">
+        <v>452</v>
+      </c>
+      <c r="C170" t="s">
+        <v>499</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" t="s">
+        <v>453</v>
+      </c>
+      <c r="C171" t="s">
+        <v>499</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>255</v>
+      </c>
+      <c r="B172" t="s">
+        <v>454</v>
+      </c>
+      <c r="C172" t="s">
+        <v>499</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" t="s">
+        <v>455</v>
+      </c>
+      <c r="C173" t="s">
+        <v>499</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="s">
+        <v>456</v>
+      </c>
+      <c r="C174" t="s">
+        <v>499</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175" t="s">
+        <v>383</v>
+      </c>
+      <c r="C175" t="s">
+        <v>499</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176" t="s">
+        <v>457</v>
+      </c>
+      <c r="C176" t="s">
+        <v>499</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" t="s">
+        <v>458</v>
+      </c>
+      <c r="C177" t="s">
+        <v>499</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>262</v>
+      </c>
+      <c r="B178" t="s">
+        <v>460</v>
+      </c>
+      <c r="C178" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>263</v>
+      </c>
+      <c r="B179" t="s">
+        <v>461</v>
+      </c>
+      <c r="C179" t="s">
+        <v>499</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>264</v>
+      </c>
+      <c r="B180" t="s">
+        <v>462</v>
+      </c>
+      <c r="C180" t="s">
+        <v>499</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>265</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C181" t="s">
+        <v>499</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>266</v>
+      </c>
+      <c r="B182" t="s">
+        <v>464</v>
+      </c>
+      <c r="C182" t="s">
+        <v>499</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>268</v>
+      </c>
+      <c r="B183" t="s">
+        <v>465</v>
+      </c>
+      <c r="C183" t="s">
+        <v>499</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>269</v>
+      </c>
+      <c r="B184" t="s">
+        <v>466</v>
+      </c>
+      <c r="C184" t="s">
+        <v>499</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>270</v>
+      </c>
+      <c r="B185" t="s">
+        <v>467</v>
+      </c>
+      <c r="C185" t="s">
+        <v>499</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>271</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C186" t="s">
+        <v>499</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>272</v>
+      </c>
+      <c r="B187" t="s">
+        <v>468</v>
+      </c>
+      <c r="C187" t="s">
+        <v>499</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>273</v>
+      </c>
+      <c r="B188" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188" t="s">
+        <v>499</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>274</v>
+      </c>
+      <c r="B189" t="s">
+        <v>469</v>
+      </c>
+      <c r="C189" t="s">
+        <v>499</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>275</v>
+      </c>
+      <c r="B190" t="s">
+        <v>470</v>
+      </c>
+      <c r="C190" t="s">
+        <v>499</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>276</v>
+      </c>
+      <c r="B191" t="s">
+        <v>418</v>
+      </c>
+      <c r="C191" t="s">
+        <v>499</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>277</v>
+      </c>
+      <c r="B192" t="s">
+        <v>471</v>
+      </c>
+      <c r="C192" t="s">
+        <v>499</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>278</v>
+      </c>
+      <c r="B193" t="s">
+        <v>472</v>
+      </c>
+      <c r="C193" t="s">
+        <v>499</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" t="s">
+        <v>499</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>279</v>
+      </c>
+      <c r="B195" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" t="s">
+        <v>499</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>280</v>
+      </c>
+      <c r="B196" t="s">
+        <v>362</v>
+      </c>
+      <c r="C196" t="s">
+        <v>499</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>281</v>
+      </c>
+      <c r="B197" t="s">
+        <v>473</v>
+      </c>
+      <c r="C197" t="s">
+        <v>499</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>33</v>
+      </c>
+      <c r="B198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198" t="s">
+        <v>499</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>282</v>
+      </c>
+      <c r="B199" t="s">
+        <v>474</v>
+      </c>
+      <c r="C199" t="s">
+        <v>499</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>283</v>
+      </c>
+      <c r="B200" t="s">
+        <v>364</v>
+      </c>
+      <c r="C200" t="s">
+        <v>499</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>284</v>
+      </c>
+      <c r="B201" t="s">
+        <v>476</v>
+      </c>
+      <c r="C201" t="s">
+        <v>499</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>285</v>
+      </c>
+      <c r="B202" t="s">
+        <v>477</v>
+      </c>
+      <c r="C202" t="s">
+        <v>499</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C203" t="s">
+        <v>499</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>286</v>
+      </c>
+      <c r="B204" t="s">
+        <v>478</v>
+      </c>
+      <c r="C204" t="s">
+        <v>499</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>287</v>
+      </c>
+      <c r="B205" t="s">
+        <v>479</v>
+      </c>
+      <c r="C205" t="s">
+        <v>499</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>288</v>
+      </c>
+      <c r="B206" t="s">
+        <v>311</v>
+      </c>
+      <c r="C206" t="s">
+        <v>499</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>291</v>
+      </c>
+      <c r="B207" t="s">
+        <v>480</v>
+      </c>
+      <c r="C207" t="s">
+        <v>499</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>292</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C208" t="s">
+        <v>499</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>294</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C209" t="s">
+        <v>499</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>295</v>
+      </c>
+      <c r="B210" t="s">
+        <v>496</v>
+      </c>
+      <c r="C210" t="s">
+        <v>499</v>
+      </c>
+      <c r="D210" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>296</v>
+      </c>
+      <c r="B211" t="s">
+        <v>481</v>
+      </c>
+      <c r="C211" t="s">
+        <v>499</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>298</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C212" t="s">
+        <v>499</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>299</v>
+      </c>
+      <c r="B213" t="s">
+        <v>483</v>
+      </c>
+      <c r="C213" t="s">
+        <v>499</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C214" t="s">
+        <v>499</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C215" t="s">
+        <v>499</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C216" t="s">
+        <v>499</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413EFAA-BCE8-4C23-ABF4-28398464EA69}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18069,7 +17614,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -18083,7 +17628,7 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1998</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -18391,7 +17936,7 @@
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1999</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -18433,7 +17978,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -18476,34 +18021,6 @@
       </c>
       <c r="D43" t="s">
         <v>1937</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C538E6-D8FF-4A10-B943-F9124AF545AB}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -18516,8 +18033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="M157" sqref="M157"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18799,7 +18316,7 @@
         <v>517</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="L8" s="63" t="s">
         <v>792</v>
@@ -18899,7 +18416,7 @@
         <v>1709</v>
       </c>
       <c r="K10" s="65" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="L10" s="65" t="s">
         <v>1832</v>
@@ -19144,7 +18661,7 @@
       </c>
       <c r="N16" s="63"/>
       <c r="O16" s="63" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="P16" s="63" t="s">
         <v>888</v>
@@ -19214,7 +18731,7 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="65" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>1731</v>
@@ -19311,7 +18828,7 @@
         <v>1689</v>
       </c>
       <c r="M20" s="63" t="s">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="N20" s="63" t="s">
         <v>595</v>
@@ -19410,7 +18927,7 @@
         <v>1742</v>
       </c>
       <c r="M22" s="65" t="s">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1743</v>
@@ -19655,7 +19172,7 @@
         <v>1746</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="65" t="s">
         <v>1713</v>
@@ -19664,14 +19181,14 @@
         <v>1714</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="J30" s="65" t="s">
         <v>1747</v>
       </c>
       <c r="K30" s="65"/>
       <c r="L30" s="65" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="M30" s="65" t="s">
         <v>1748</v>
@@ -20023,7 +19540,7 @@
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="Q38" s="65" t="s">
         <v>1768</v>
@@ -20169,7 +19686,7 @@
         <v>1745</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="H42" s="65" t="s">
         <v>1746</v>
@@ -20198,7 +19715,7 @@
       </c>
       <c r="Q42" s="65"/>
       <c r="R42" s="65" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="67"/>
@@ -20502,13 +20019,13 @@
         <v>1780</v>
       </c>
       <c r="F50" s="65" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="G50" s="65" t="s">
         <v>1742</v>
       </c>
       <c r="H50" s="65" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="I50" s="65"/>
       <c r="J50" s="65" t="s">
@@ -20846,7 +20363,7 @@
         <v>1786</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="65" t="s">
         <v>1787</v>
@@ -20871,7 +20388,7 @@
         <v>1953</v>
       </c>
       <c r="N62" s="65" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="O62" s="65"/>
       <c r="P62" s="65" t="s">
@@ -21025,7 +20542,7 @@
       </c>
       <c r="J66" s="65"/>
       <c r="K66" s="65" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="L66" s="65" t="s">
         <v>1799</v>
@@ -21184,7 +20701,7 @@
         <v>1803</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="H70" s="65" t="s">
         <v>1953</v>
@@ -21203,7 +20720,7 @@
         <v>1806</v>
       </c>
       <c r="N70" s="65" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="O70" s="65"/>
       <c r="P70" s="65" t="s">
@@ -21378,7 +20895,7 @@
         <v>1815</v>
       </c>
       <c r="R74" s="65" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="S74" s="31"/>
       <c r="V74" s="67"/>
@@ -21513,7 +21030,7 @@
         <v>1817</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="G78" s="65"/>
       <c r="H78" s="65" t="s">
@@ -21539,7 +21056,7 @@
         <v>1778</v>
       </c>
       <c r="P78" s="65" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="Q78" s="65"/>
       <c r="R78" s="65" t="s">
@@ -22069,7 +21586,7 @@
         <v>1838</v>
       </c>
       <c r="L94" s="65" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="M94" s="65" t="s">
         <v>1870</v>
@@ -22247,7 +21764,7 @@
         <v>1825</v>
       </c>
       <c r="Q98" s="65" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="R98" s="65" t="s">
         <v>1949</v>
@@ -22377,7 +21894,7 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
       <c r="D102" s="65" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>1749</v>
@@ -22549,7 +22066,7 @@
         <v>1842</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="F106" s="65" t="s">
         <v>1836</v>
@@ -22569,7 +22086,7 @@
       </c>
       <c r="L106" s="65"/>
       <c r="M106" s="65" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="N106" s="65" t="s">
         <v>1965</v>
@@ -22875,7 +22392,7 @@
       <c r="B114" s="22"/>
       <c r="D114" s="65"/>
       <c r="E114" s="65" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="F114" s="65" t="s">
         <v>1866</v>
@@ -23008,7 +22525,9 @@
       <c r="H119" s="62"/>
       <c r="I119" s="62"/>
       <c r="J119" s="62"/>
-      <c r="K119" s="62"/>
+      <c r="K119" s="62" t="s">
+        <v>1680</v>
+      </c>
       <c r="L119" s="62" t="s">
         <v>63</v>
       </c>
@@ -23042,7 +22561,7 @@
         <v>876</v>
       </c>
       <c r="K120" s="63" t="s">
-        <v>1991</v>
+        <v>1680</v>
       </c>
       <c r="L120" s="63" t="s">
         <v>541</v>
@@ -23125,7 +22644,7 @@
         <v>1869</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F122" s="65"/>
       <c r="G122" s="65" t="s">
@@ -23140,7 +22659,9 @@
       <c r="J122" s="65" t="s">
         <v>1872</v>
       </c>
-      <c r="K122" s="65"/>
+      <c r="K122" s="65" t="s">
+        <v>1722</v>
+      </c>
       <c r="L122" s="65" t="s">
         <v>1873</v>
       </c>
@@ -23152,7 +22673,7 @@
       </c>
       <c r="O122" s="65"/>
       <c r="P122" s="65" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="Q122" s="65" t="s">
         <v>1784</v>
@@ -23293,7 +22814,7 @@
         <v>1745</v>
       </c>
       <c r="F126" s="65" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="G126" s="65"/>
       <c r="H126" s="65" t="s">
@@ -23323,7 +22844,7 @@
         <v>1744</v>
       </c>
       <c r="R126" s="65" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="S126" s="31"/>
       <c r="V126" s="7"/>
@@ -23481,7 +23002,7 @@
       </c>
       <c r="P130" s="65"/>
       <c r="Q130" s="65" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="R130" s="65" t="s">
         <v>1756</v>
@@ -23695,7 +23216,7 @@
         <v>778</v>
       </c>
       <c r="L136" s="63" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="M136" s="63" t="s">
         <v>906</v>
@@ -23777,7 +23298,7 @@
       </c>
       <c r="F138" s="65"/>
       <c r="G138" s="65" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="H138" s="65" t="s">
         <v>1768</v>
@@ -23792,7 +23313,7 @@
         <v>1825</v>
       </c>
       <c r="L138" s="65" t="s">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="M138" s="65" t="s">
         <v>1886</v>
@@ -23863,7 +23384,7 @@
       </c>
       <c r="L140" s="63"/>
       <c r="M140" s="63" t="s">
-        <v>2025</v>
+        <v>2013</v>
       </c>
       <c r="N140" s="63" t="s">
         <v>796</v>
@@ -23962,7 +23483,7 @@
       </c>
       <c r="L142" s="65"/>
       <c r="M142" s="65" t="s">
-        <v>2026</v>
+        <v>2014</v>
       </c>
       <c r="N142" s="65" t="s">
         <v>1834</v>
@@ -24116,7 +23637,7 @@
       </c>
       <c r="G146" s="65"/>
       <c r="H146" s="65" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="I146" s="65"/>
       <c r="J146" s="65" t="s">
@@ -24130,7 +23651,7 @@
       </c>
       <c r="M146" s="65"/>
       <c r="N146" s="65" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="O146" s="65" t="s">
         <v>1891</v>
@@ -24444,7 +23965,7 @@
         <v>1897</v>
       </c>
       <c r="K158" s="65" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="L158" s="65"/>
       <c r="M158" s="65"/>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F131A26-3377-402D-8854-8DF6339F5921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8509C46-8D97-415D-9F69-8856EDAA64A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1980" windowWidth="26550" windowHeight="12765" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -14377,7 +14377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071A665-FE78-4FA7-83DC-4856CFF9C439}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
@@ -18033,8 +18033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8509C46-8D97-415D-9F69-8856EDAA64A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D034702-516E-4B30-9764-161E1B9EE046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1980" windowWidth="26550" windowHeight="12765" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <definedName name="顯示注音輸入">env!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6054" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="2020">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7058,6 +7059,22 @@
   </si>
   <si>
     <t>yī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7408,7 +7425,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7442,6 +7459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEFD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7537,7 +7560,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7753,11 +7776,26 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="8" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="5" applyFill="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="5" applyFill="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9574,6 +9612,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14355,16 +14398,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2016</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2017</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2018</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -14375,26 +14418,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071A665-FE78-4FA7-83DC-4856CFF9C439}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2016</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2017</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2018</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14791,2619 +14834,2605 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>1972</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>961</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>1972</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1923</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1260</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>1164</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>1164</v>
+        <v>1298</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1927</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>1298</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1264</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1930</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s">
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>485</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>974</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>485</v>
+        <v>347</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>500</v>
+        <v>975</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>986</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>501</v>
+        <v>987</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C68" t="s">
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>363</v>
+        <v>1656</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>994</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>1656</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>1970</v>
+        <v>995</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="C71" t="s">
         <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s">
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C76" t="s">
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="C83" t="s">
         <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
       </c>
       <c r="D84" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C85" t="s">
         <v>499</v>
       </c>
       <c r="D85" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C87" t="s">
         <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B88" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C88" t="s">
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="C89" t="s">
         <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="C90" t="s">
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C91" t="s">
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="C92" t="s">
         <v>499</v>
       </c>
       <c r="D92" t="s">
-        <v>1020</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>486</v>
+        <v>334</v>
       </c>
       <c r="C93" t="s">
         <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>502</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="C94" t="s">
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C95" t="s">
         <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>385</v>
+        <v>1468</v>
       </c>
       <c r="C96" t="s">
         <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>1023</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
-        <v>1468</v>
+        <v>389</v>
       </c>
       <c r="C97" t="s">
         <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>1932</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C98" t="s">
         <v>499</v>
       </c>
       <c r="D98" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C100" t="s">
         <v>499</v>
       </c>
       <c r="D100" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C101" t="s">
         <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C102" t="s">
         <v>499</v>
       </c>
       <c r="D102" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C103" t="s">
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>1033</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
         <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>1933</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="C105" t="s">
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C106" t="s">
         <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="C107" t="s">
         <v>499</v>
       </c>
       <c r="D107" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="C108" t="s">
         <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B109" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
         <v>499</v>
       </c>
       <c r="D109" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B110" t="s">
-        <v>353</v>
+        <v>1662</v>
       </c>
       <c r="C110" t="s">
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>1662</v>
+        <v>488</v>
       </c>
       <c r="C111" t="s">
         <v>499</v>
       </c>
       <c r="D111" t="s">
-        <v>1041</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="C112" t="s">
         <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>503</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
       </c>
       <c r="D113" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C114" t="s">
         <v>499</v>
       </c>
       <c r="D114" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C115" t="s">
         <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B116" t="s">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
         <v>499</v>
       </c>
       <c r="D116" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="C117" t="s">
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
       </c>
       <c r="D118" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C119" t="s">
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C120" t="s">
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B121" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C121" t="s">
         <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="C122" t="s">
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>1054</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>1658</v>
       </c>
       <c r="C123" t="s">
         <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>1658</v>
+        <v>411</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>1991</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="B125" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C125" t="s">
         <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C126" t="s">
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B127" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C127" t="s">
         <v>499</v>
       </c>
       <c r="D127" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B128" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>1061</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="C129" t="s">
         <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>504</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B130" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C130" t="s">
         <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C131" t="s">
         <v>499</v>
       </c>
       <c r="D131" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B132" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="C132" t="s">
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
         <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="C134" t="s">
         <v>499</v>
       </c>
       <c r="D134" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B135" t="s">
-        <v>421</v>
+        <v>46</v>
       </c>
       <c r="C135" t="s">
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B136" t="s">
-        <v>46</v>
+        <v>422</v>
       </c>
       <c r="C136" t="s">
         <v>499</v>
       </c>
       <c r="D136" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
         <v>499</v>
       </c>
       <c r="D137" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>423</v>
       </c>
       <c r="C138" t="s">
         <v>499</v>
       </c>
       <c r="D138" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B139" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C139" t="s">
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B140" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C140" t="s">
         <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B141" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C141" t="s">
         <v>499</v>
       </c>
       <c r="D141" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C142" t="s">
         <v>499</v>
       </c>
       <c r="D142" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C143" t="s">
         <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C144" t="s">
         <v>499</v>
       </c>
       <c r="D144" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B145" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C145" t="s">
         <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C146" t="s">
         <v>499</v>
       </c>
       <c r="D146" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B147" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C147" t="s">
         <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>435</v>
+        <v>1469</v>
       </c>
       <c r="C148" t="s">
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B149" t="s">
-        <v>1469</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
         <v>499</v>
       </c>
       <c r="D149" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B150" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s">
         <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C151" t="s">
         <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B152" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C152" t="s">
         <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B153" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="C153" t="s">
         <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>1090</v>
+        <v>505</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B154" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="C154" t="s">
         <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>505</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B155" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>1091</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>494</v>
+        <v>1681</v>
       </c>
       <c r="C156" t="s">
         <v>499</v>
       </c>
       <c r="D156" t="s">
-        <v>506</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B157" t="s">
-        <v>1681</v>
+        <v>442</v>
       </c>
       <c r="C157" t="s">
         <v>499</v>
       </c>
       <c r="D157" t="s">
-        <v>1992</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="C158" t="s">
         <v>499</v>
       </c>
       <c r="D158" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B159" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="C159" t="s">
         <v>499</v>
       </c>
       <c r="D159" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B160" t="s">
-        <v>399</v>
+        <v>1470</v>
       </c>
       <c r="C160" t="s">
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B161" t="s">
-        <v>1470</v>
+        <v>1850</v>
       </c>
       <c r="C161" t="s">
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B162" t="s">
-        <v>1850</v>
+        <v>330</v>
       </c>
       <c r="C162" t="s">
         <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B163" t="s">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="C163" t="s">
         <v>499</v>
       </c>
       <c r="D163" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B164" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C164" t="s">
         <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B165" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="C165" t="s">
         <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B166" t="s">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="C166" t="s">
         <v>499</v>
       </c>
       <c r="D166" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B167" t="s">
-        <v>57</v>
+        <v>1857</v>
       </c>
       <c r="C167" t="s">
         <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B168" t="s">
-        <v>1857</v>
+        <v>40</v>
       </c>
       <c r="C168" t="s">
         <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B169" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="C169" t="s">
         <v>499</v>
       </c>
       <c r="D169" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B170" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C170" t="s">
         <v>499</v>
       </c>
       <c r="D170" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B171" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C171" t="s">
         <v>499</v>
       </c>
       <c r="D171" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B172" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C172" t="s">
         <v>499</v>
       </c>
       <c r="D172" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B173" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C173" t="s">
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B174" t="s">
-        <v>456</v>
+        <v>383</v>
       </c>
       <c r="C174" t="s">
         <v>499</v>
       </c>
       <c r="D174" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B175" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="C175" t="s">
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B176" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C176" t="s">
         <v>499</v>
       </c>
       <c r="D176" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B177" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C177" t="s">
         <v>499</v>
       </c>
       <c r="D177" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B178" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C178" t="s">
         <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B179" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C179" t="s">
         <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B180" t="s">
-        <v>462</v>
+        <v>1656</v>
       </c>
       <c r="C180" t="s">
         <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>1121</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B181" t="s">
-        <v>1656</v>
+        <v>464</v>
       </c>
       <c r="C181" t="s">
         <v>499</v>
       </c>
       <c r="D181" t="s">
-        <v>1993</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B182" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C182" t="s">
         <v>499</v>
       </c>
       <c r="D182" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B183" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C183" t="s">
         <v>499</v>
       </c>
       <c r="D183" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B184" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C184" t="s">
         <v>499</v>
       </c>
       <c r="D184" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B185" t="s">
-        <v>467</v>
+        <v>1983</v>
       </c>
       <c r="C185" t="s">
         <v>499</v>
       </c>
       <c r="D185" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>1983</v>
+        <v>468</v>
       </c>
       <c r="C186" t="s">
         <v>499</v>
       </c>
       <c r="D186" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B187" t="s">
-        <v>468</v>
+        <v>52</v>
       </c>
       <c r="C187" t="s">
         <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>469</v>
       </c>
       <c r="C188" t="s">
         <v>499</v>
       </c>
       <c r="D188" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B189" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C189" t="s">
         <v>499</v>
       </c>
       <c r="D189" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B190" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="C190" t="s">
         <v>499</v>
       </c>
       <c r="D190" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B191" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="C191" t="s">
         <v>499</v>
       </c>
       <c r="D191" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B192" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C192" t="s">
         <v>499</v>
       </c>
       <c r="D192" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>472</v>
+        <v>50</v>
       </c>
       <c r="C193" t="s">
         <v>499</v>
       </c>
       <c r="D193" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="B194" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C194" t="s">
         <v>499</v>
       </c>
       <c r="D194" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="C195" t="s">
         <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B196" t="s">
-        <v>362</v>
+        <v>473</v>
       </c>
       <c r="C196" t="s">
         <v>499</v>
       </c>
       <c r="D196" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="B197" t="s">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="C197" t="s">
         <v>499</v>
       </c>
       <c r="D197" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>474</v>
       </c>
       <c r="C198" t="s">
         <v>499</v>
       </c>
       <c r="D198" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B199" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="C199" t="s">
         <v>499</v>
       </c>
       <c r="D199" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>364</v>
+        <v>476</v>
       </c>
       <c r="C200" t="s">
         <v>499</v>
       </c>
       <c r="D200" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C201" t="s">
         <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>1142</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B202" t="s">
-        <v>477</v>
+        <v>1885</v>
       </c>
       <c r="C202" t="s">
         <v>499</v>
       </c>
       <c r="D202" t="s">
-        <v>1935</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>1885</v>
+        <v>478</v>
       </c>
       <c r="C203" t="s">
         <v>499</v>
       </c>
       <c r="D203" t="s">
-        <v>1994</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B204" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C204" t="s">
         <v>499</v>
       </c>
       <c r="D204" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B205" t="s">
-        <v>479</v>
+        <v>311</v>
       </c>
       <c r="C205" t="s">
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B206" t="s">
-        <v>311</v>
+        <v>480</v>
       </c>
       <c r="C206" t="s">
         <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B207" t="s">
-        <v>480</v>
+        <v>1889</v>
       </c>
       <c r="C207" t="s">
         <v>499</v>
       </c>
       <c r="D207" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B208" t="s">
-        <v>1889</v>
+        <v>1164</v>
       </c>
       <c r="C208" t="s">
         <v>499</v>
       </c>
       <c r="D208" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B209" t="s">
-        <v>1164</v>
+        <v>496</v>
       </c>
       <c r="C209" t="s">
         <v>499</v>
       </c>
       <c r="D209" t="s">
-        <v>1149</v>
+        <v>507</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B210" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C210" t="s">
         <v>499</v>
       </c>
       <c r="D210" t="s">
-        <v>507</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B211" t="s">
-        <v>481</v>
+        <v>1231</v>
       </c>
       <c r="C211" t="s">
         <v>499</v>
       </c>
       <c r="D211" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B212" t="s">
-        <v>1231</v>
+        <v>483</v>
       </c>
       <c r="C212" t="s">
         <v>499</v>
       </c>
       <c r="D212" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>299</v>
+        <v>1465</v>
       </c>
       <c r="B213" t="s">
-        <v>483</v>
+        <v>1471</v>
       </c>
       <c r="C213" t="s">
         <v>499</v>
       </c>
       <c r="D213" t="s">
-        <v>1154</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B214" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C214" t="s">
         <v>499</v>
       </c>
       <c r="D214" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B215" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C215" t="s">
         <v>499</v>
       </c>
       <c r="D215" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C216" t="s">
-        <v>499</v>
-      </c>
-      <c r="D216" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -17415,24 +17444,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413EFAA-BCE8-4C23-ABF4-28398464EA69}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2016</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2017</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2018</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -18021,6 +18052,20 @@
       </c>
       <c r="D43" t="s">
         <v>1937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" t="s">
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -18033,8 +18078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18206,25 +18252,25 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="64" t="s">
         <v>1701</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="64" t="s">
         <v>1702</v>
       </c>
-      <c r="J5" s="71" t="str">
+      <c r="J5" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -18345,52 +18391,52 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="71" t="s">
+      <c r="M9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="71" t="s">
+      <c r="P9" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="71" t="s">
+      <c r="Q9" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="71" t="s">
+      <c r="R9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="72"/>
+      <c r="S9" s="21"/>
       <c r="T9" s="16"/>
       <c r="V9" s="67"/>
     </row>
@@ -18509,52 +18555,52 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="71" t="s">
+      <c r="N13" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="71" t="s">
+      <c r="O13" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="71" t="s">
+      <c r="Q13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="71" t="s">
+      <c r="R13" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="S13" s="72"/>
+      <c r="S13" s="21"/>
       <c r="V13" s="67"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -18616,10 +18662,12 @@
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="76" t="s">
         <v>1635</v>
       </c>
-      <c r="M15" s="62"/>
+      <c r="M15" s="76" t="s">
+        <v>571</v>
+      </c>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
       <c r="P15" s="62" t="s">
@@ -18653,10 +18701,10 @@
       <c r="K16" s="63" t="s">
         <v>567</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="74" t="s">
         <v>1661</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="74" t="s">
         <v>571</v>
       </c>
       <c r="N16" s="63"/>
@@ -18680,52 +18728,52 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="71" t="s">
+      <c r="P17" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="71" t="s">
+      <c r="Q17" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="S17" s="72"/>
+      <c r="S17" s="21"/>
       <c r="V17" s="67"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -18752,10 +18800,10 @@
       <c r="K18" s="65" t="s">
         <v>1733</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="73" t="s">
         <v>1951</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="73" t="s">
         <v>1734</v>
       </c>
       <c r="N18" s="65"/>
@@ -18851,52 +18899,52 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="71" t="s">
+      <c r="O21" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="71" t="s">
+      <c r="P21" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="71" t="s">
+      <c r="Q21" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="R21" s="71" t="s">
+      <c r="R21" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="S21" s="72"/>
+      <c r="S21" s="21"/>
       <c r="V21" s="67"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -18957,7 +19005,7 @@
       <c r="J23" s="62"/>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
+      <c r="M23" s="75"/>
       <c r="N23" s="62"/>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
@@ -18967,7 +19015,7 @@
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="63"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
       <c r="G24" s="63"/>
@@ -18976,7 +19024,7 @@
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
+      <c r="M24" s="74"/>
       <c r="N24" s="63"/>
       <c r="O24" s="63"/>
       <c r="P24" s="63"/>
@@ -18990,7 +19038,7 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="71" t="str">
+      <c r="D25" s="72" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19003,7 +19051,7 @@
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
       <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
+      <c r="M25" s="72"/>
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
       <c r="P25" s="64"/>
@@ -19014,7 +19062,7 @@
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
@@ -19023,7 +19071,7 @@
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
       <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
+      <c r="M26" s="73"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
       <c r="P26" s="65"/>
@@ -19043,8 +19091,8 @@
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
       <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="62"/>
       <c r="O27" s="62"/>
       <c r="P27" s="62"/>
@@ -19058,7 +19106,7 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="74" t="s">
         <v>1689</v>
       </c>
       <c r="E28" s="63" t="s">
@@ -19070,7 +19118,7 @@
       <c r="G28" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="74" t="s">
         <v>529</v>
       </c>
       <c r="I28" s="63" t="s">
@@ -19080,7 +19128,7 @@
         <v>609</v>
       </c>
       <c r="K28" s="63"/>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="74" t="s">
         <v>611</v>
       </c>
       <c r="M28" s="63" t="s">
@@ -19111,52 +19159,52 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="72" t="s">
         <v>1482</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="64" t="s">
         <v>1428</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="64" t="s">
         <v>1474</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="72" t="s">
         <v>1475</v>
       </c>
-      <c r="I29" s="71" t="s">
+      <c r="I29" s="64" t="s">
         <v>1483</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="64" t="s">
         <v>1484</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="L29" s="71" t="s">
+      <c r="L29" s="72" t="s">
         <v>1393</v>
       </c>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="64" t="s">
         <v>1485</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="64" t="s">
         <v>1486</v>
       </c>
-      <c r="O29" s="71" t="s">
+      <c r="O29" s="64" t="s">
         <v>1414</v>
       </c>
-      <c r="P29" s="71" t="s">
+      <c r="P29" s="64" t="s">
         <v>1487</v>
       </c>
-      <c r="Q29" s="71" t="s">
+      <c r="Q29" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="R29" s="71" t="s">
+      <c r="R29" s="64" t="s">
         <v>1155</v>
       </c>
-      <c r="S29" s="72"/>
+      <c r="S29" s="21"/>
       <c r="U29" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -19165,7 +19213,7 @@
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="73" t="s">
         <v>1742</v>
       </c>
       <c r="E30" s="65" t="s">
@@ -19177,7 +19225,7 @@
       <c r="G30" s="65" t="s">
         <v>1713</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="73" t="s">
         <v>1714</v>
       </c>
       <c r="I30" s="65" t="s">
@@ -19187,7 +19235,7 @@
         <v>1747</v>
       </c>
       <c r="K30" s="65"/>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="73" t="s">
         <v>2002</v>
       </c>
       <c r="M30" s="65" t="s">
@@ -19225,7 +19273,7 @@
       </c>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="K31" s="76"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62" t="s">
         <v>539</v>
@@ -19255,14 +19303,14 @@
       <c r="G32" s="63" t="s">
         <v>625</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="74" t="s">
         <v>1948</v>
       </c>
       <c r="I32" s="63" t="s">
         <v>629</v>
       </c>
       <c r="J32" s="63"/>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="74" t="s">
         <v>631</v>
       </c>
       <c r="L32" s="63" t="s">
@@ -19296,52 +19344,52 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="64" t="s">
         <v>1488</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="64" t="s">
         <v>1399</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="64" t="s">
         <v>1489</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="72" t="s">
         <v>1405</v>
       </c>
-      <c r="I33" s="71" t="s">
+      <c r="I33" s="64" t="s">
         <v>1490</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="72" t="s">
         <v>1491</v>
       </c>
-      <c r="L33" s="71" t="s">
+      <c r="L33" s="64" t="s">
         <v>1491</v>
       </c>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="64" t="s">
         <v>1492</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="64" t="s">
         <v>1492</v>
       </c>
-      <c r="O33" s="71" t="s">
+      <c r="O33" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P33" s="71" t="s">
+      <c r="P33" s="64" t="s">
         <v>1493</v>
       </c>
-      <c r="Q33" s="71" t="s">
+      <c r="Q33" s="64" t="s">
         <v>1413</v>
       </c>
-      <c r="R33" s="71" t="s">
+      <c r="R33" s="64" t="s">
         <v>1494</v>
       </c>
-      <c r="S33" s="72"/>
+      <c r="S33" s="21"/>
       <c r="V33" s="67"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19356,14 +19404,14 @@
       <c r="G34" s="65" t="s">
         <v>1754</v>
       </c>
-      <c r="H34" s="65" t="s">
+      <c r="H34" s="73" t="s">
         <v>1949</v>
       </c>
       <c r="I34" s="65" t="s">
         <v>1756</v>
       </c>
       <c r="J34" s="65"/>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="73" t="s">
         <v>1757</v>
       </c>
       <c r="L34" s="65" t="s">
@@ -19459,52 +19507,52 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="64" t="s">
         <v>1495</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="64" t="s">
         <v>1496</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="64" t="s">
         <v>1497</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="64" t="s">
         <v>1498</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="64" t="s">
         <v>1400</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="64" t="s">
         <v>1420</v>
       </c>
-      <c r="L37" s="71" t="s">
+      <c r="L37" s="64" t="s">
         <v>1499</v>
       </c>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="64" t="s">
         <v>1434</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="64" t="s">
         <v>1500</v>
       </c>
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="P37" s="71" t="s">
+      <c r="P37" s="64" t="s">
         <v>1407</v>
       </c>
-      <c r="Q37" s="71" t="s">
+      <c r="Q37" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="R37" s="71" t="s">
+      <c r="R37" s="64" t="s">
         <v>1478</v>
       </c>
-      <c r="S37" s="72"/>
+      <c r="S37" s="21"/>
       <c r="V37" s="67"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19626,52 +19674,52 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="64" t="s">
         <v>1479</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="64" t="s">
         <v>1423</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="I41" s="71" t="s">
+      <c r="I41" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K41" s="71" t="s">
+      <c r="K41" s="64" t="s">
         <v>1502</v>
       </c>
-      <c r="L41" s="71" t="s">
+      <c r="L41" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="M41" s="71" t="s">
+      <c r="M41" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="N41" s="71" t="s">
+      <c r="N41" s="64" t="s">
         <v>1457</v>
       </c>
-      <c r="O41" s="71" t="s">
+      <c r="O41" s="64" t="s">
         <v>1503</v>
       </c>
-      <c r="P41" s="71" t="s">
+      <c r="P41" s="64" t="s">
         <v>1442</v>
       </c>
-      <c r="Q41" s="71" t="s">
+      <c r="Q41" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="R41" s="71" t="s">
+      <c r="R41" s="64" t="s">
         <v>1439</v>
       </c>
-      <c r="S41" s="72"/>
+      <c r="S41" s="21"/>
       <c r="V41" s="67"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19701,7 +19749,7 @@
       <c r="L42" s="65" t="s">
         <v>1873</v>
       </c>
-      <c r="M42" s="65" t="s">
+      <c r="M42" s="73" t="s">
         <v>1745</v>
       </c>
       <c r="N42" s="65" t="s">
@@ -19710,7 +19758,7 @@
       <c r="O42" s="65" t="s">
         <v>1773</v>
       </c>
-      <c r="P42" s="65" t="s">
+      <c r="P42" s="73" t="s">
         <v>1744</v>
       </c>
       <c r="Q42" s="65"/>
@@ -19773,14 +19821,14 @@
       <c r="L44" s="63" t="s">
         <v>675</v>
       </c>
-      <c r="M44" s="63" t="s">
+      <c r="M44" s="74" t="s">
         <v>1663</v>
       </c>
       <c r="N44" s="63"/>
       <c r="O44" s="63" t="s">
         <v>649</v>
       </c>
-      <c r="P44" s="63" t="s">
+      <c r="P44" s="74" t="s">
         <v>573</v>
       </c>
       <c r="Q44" s="63" t="s">
@@ -19797,52 +19845,52 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="64" t="s">
         <v>1504</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="64" t="s">
         <v>1477</v>
       </c>
-      <c r="G45" s="71" t="s">
+      <c r="G45" s="64" t="s">
         <v>1505</v>
       </c>
-      <c r="H45" s="71" t="s">
+      <c r="H45" s="64" t="s">
         <v>1506</v>
       </c>
-      <c r="I45" s="71" t="s">
+      <c r="I45" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="64" t="s">
         <v>1507</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="64" t="s">
         <v>1426</v>
       </c>
-      <c r="L45" s="71" t="s">
+      <c r="L45" s="64" t="s">
         <v>1508</v>
       </c>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="72" t="s">
         <v>1509</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="O45" s="71" t="s">
+      <c r="O45" s="64" t="s">
         <v>1440</v>
       </c>
-      <c r="P45" s="71" t="s">
+      <c r="P45" s="72" t="s">
         <v>1510</v>
       </c>
-      <c r="Q45" s="71" t="s">
+      <c r="Q45" s="64" t="s">
         <v>1511</v>
       </c>
-      <c r="R45" s="71" t="s">
+      <c r="R45" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="S45" s="72"/>
+      <c r="S45" s="21"/>
       <c r="V45" s="67"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19872,7 +19920,7 @@
       <c r="L46" s="65" t="s">
         <v>1778</v>
       </c>
-      <c r="M46" s="65" t="s">
+      <c r="M46" s="73" t="s">
         <v>1803</v>
       </c>
       <c r="N46" s="65"/>
@@ -19964,52 +20012,52 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="64" t="s">
         <v>1512</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="64" t="s">
         <v>1397</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="64" t="s">
         <v>1398</v>
       </c>
-      <c r="H49" s="71" t="s">
+      <c r="H49" s="64" t="s">
         <v>1407</v>
       </c>
-      <c r="I49" s="71" t="s">
+      <c r="I49" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="64" t="s">
         <v>1449</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="64" t="s">
         <v>1513</v>
       </c>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="64" t="s">
         <v>1416</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="O49" s="71" t="s">
+      <c r="O49" s="64" t="s">
         <v>1437</v>
       </c>
-      <c r="P49" s="71" t="s">
+      <c r="P49" s="64" t="s">
         <v>1413</v>
       </c>
-      <c r="Q49" s="71" t="s">
+      <c r="Q49" s="64" t="s">
         <v>1458</v>
       </c>
-      <c r="R49" s="71" t="s">
+      <c r="R49" s="64" t="s">
         <v>1514</v>
       </c>
-      <c r="S49" s="72"/>
+      <c r="S49" s="21"/>
       <c r="V49" s="67"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20101,10 +20149,10 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="E53" s="71" t="str">
+      <c r="E53" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -20190,7 +20238,7 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="71" t="str">
+      <c r="D57" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -20309,52 +20357,52 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="64" t="s">
         <v>1450</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="64" t="s">
         <v>1428</v>
       </c>
-      <c r="F61" s="71" t="s">
+      <c r="F61" s="64" t="s">
         <v>1516</v>
       </c>
-      <c r="G61" s="71" t="s">
+      <c r="G61" s="64" t="s">
         <v>1517</v>
       </c>
-      <c r="H61" s="71" t="s">
+      <c r="H61" s="64" t="s">
         <v>1518</v>
       </c>
-      <c r="I61" s="71" t="s">
+      <c r="I61" s="64" t="s">
         <v>1518</v>
       </c>
-      <c r="J61" s="71" t="s">
+      <c r="J61" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K61" s="71" t="s">
+      <c r="K61" s="64" t="s">
         <v>1519</v>
       </c>
-      <c r="L61" s="71" t="s">
+      <c r="L61" s="64" t="s">
         <v>1520</v>
       </c>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="N61" s="71" t="s">
+      <c r="N61" s="64" t="s">
         <v>1521</v>
       </c>
-      <c r="O61" s="71" t="s">
+      <c r="O61" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="P61" s="71" t="s">
+      <c r="P61" s="64" t="s">
         <v>1400</v>
       </c>
-      <c r="Q61" s="71" t="s">
+      <c r="Q61" s="64" t="s">
         <v>1421</v>
       </c>
-      <c r="R61" s="71" t="s">
+      <c r="R61" s="64" t="s">
         <v>1522</v>
       </c>
-      <c r="S61" s="72"/>
+      <c r="S61" s="21"/>
       <c r="V61" s="67"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20474,52 +20522,52 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="64" t="s">
         <v>1523</v>
       </c>
-      <c r="E65" s="71" t="s">
+      <c r="E65" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="64" t="s">
         <v>1524</v>
       </c>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="64" t="s">
         <v>1432</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="64" t="s">
         <v>1525</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I65" s="64" t="s">
         <v>1526</v>
       </c>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="64" t="s">
         <v>1418</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="64" t="s">
         <v>1527</v>
       </c>
-      <c r="M65" s="71" t="s">
+      <c r="M65" s="64" t="s">
         <v>1528</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="64" t="s">
         <v>1529</v>
       </c>
-      <c r="O65" s="71" t="s">
+      <c r="O65" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P65" s="71" t="s">
+      <c r="P65" s="64" t="s">
         <v>1399</v>
       </c>
-      <c r="Q65" s="71" t="s">
+      <c r="Q65" s="64" t="s">
         <v>1530</v>
       </c>
-      <c r="R65" s="71" t="s">
+      <c r="R65" s="64" t="s">
         <v>1531</v>
       </c>
-      <c r="S65" s="72"/>
+      <c r="S65" s="21"/>
       <c r="V65" s="67"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20643,52 +20691,52 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="64" t="s">
         <v>1433</v>
       </c>
-      <c r="E69" s="71" t="s">
+      <c r="E69" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="F69" s="71" t="s">
+      <c r="F69" s="64" t="s">
         <v>1532</v>
       </c>
-      <c r="G69" s="71" t="s">
+      <c r="G69" s="64" t="s">
         <v>1533</v>
       </c>
-      <c r="H69" s="71" t="s">
+      <c r="H69" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="I69" s="71" t="s">
+      <c r="I69" s="64" t="s">
         <v>1534</v>
       </c>
-      <c r="J69" s="71" t="s">
+      <c r="J69" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K69" s="71" t="s">
+      <c r="K69" s="64" t="s">
         <v>1535</v>
       </c>
-      <c r="L69" s="71" t="s">
+      <c r="L69" s="64" t="s">
         <v>1536</v>
       </c>
-      <c r="M69" s="71" t="s">
+      <c r="M69" s="64" t="s">
         <v>1537</v>
       </c>
-      <c r="N69" s="71" t="s">
+      <c r="N69" s="64" t="s">
         <v>1538</v>
       </c>
-      <c r="O69" s="71" t="s">
+      <c r="O69" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="P69" s="71" t="s">
+      <c r="P69" s="64" t="s">
         <v>1539</v>
       </c>
-      <c r="Q69" s="71" t="s">
+      <c r="Q69" s="64" t="s">
         <v>1394</v>
       </c>
-      <c r="R69" s="71" t="s">
+      <c r="R69" s="64" t="s">
         <v>1540</v>
       </c>
-      <c r="S69" s="72"/>
+      <c r="S69" s="21"/>
       <c r="V69" s="67"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20808,52 +20856,52 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="64" t="s">
         <v>1540</v>
       </c>
-      <c r="E73" s="71" t="s">
+      <c r="E73" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F73" s="71" t="s">
+      <c r="F73" s="64" t="s">
         <v>1541</v>
       </c>
-      <c r="G73" s="71" t="s">
+      <c r="G73" s="64" t="s">
         <v>1542</v>
       </c>
-      <c r="H73" s="71" t="s">
+      <c r="H73" s="64" t="s">
         <v>1543</v>
       </c>
-      <c r="I73" s="71" t="s">
+      <c r="I73" s="64" t="s">
         <v>1544</v>
       </c>
-      <c r="J73" s="71" t="s">
+      <c r="J73" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="K73" s="71" t="s">
+      <c r="K73" s="64" t="s">
         <v>1545</v>
       </c>
-      <c r="L73" s="71" t="s">
+      <c r="L73" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="M73" s="71" t="s">
+      <c r="M73" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="N73" s="71" t="s">
+      <c r="N73" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O73" s="71" t="s">
+      <c r="O73" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P73" s="71" t="s">
+      <c r="P73" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="Q73" s="71" t="s">
+      <c r="Q73" s="64" t="s">
         <v>1408</v>
       </c>
-      <c r="R73" s="71" t="s">
+      <c r="R73" s="64" t="s">
         <v>1546</v>
       </c>
-      <c r="S73" s="72"/>
+      <c r="S73" s="21"/>
       <c r="V73" s="67"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20973,52 +21021,52 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="64" t="s">
         <v>1547</v>
       </c>
-      <c r="E77" s="71" t="s">
+      <c r="E77" s="64" t="s">
         <v>1425</v>
       </c>
-      <c r="F77" s="71" t="s">
+      <c r="F77" s="64" t="s">
         <v>1548</v>
       </c>
-      <c r="G77" s="71" t="s">
+      <c r="G77" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H77" s="71" t="s">
+      <c r="H77" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="I77" s="71" t="s">
+      <c r="I77" s="64" t="s">
         <v>1550</v>
       </c>
-      <c r="J77" s="71" t="s">
+      <c r="J77" s="64" t="s">
         <v>1551</v>
       </c>
-      <c r="K77" s="71" t="s">
+      <c r="K77" s="64" t="s">
         <v>1552</v>
       </c>
-      <c r="L77" s="71" t="s">
+      <c r="L77" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M77" s="71" t="s">
+      <c r="M77" s="64" t="s">
         <v>1553</v>
       </c>
-      <c r="N77" s="71" t="s">
+      <c r="N77" s="64" t="s">
         <v>1424</v>
       </c>
-      <c r="O77" s="71" t="s">
+      <c r="O77" s="64" t="s">
         <v>1554</v>
       </c>
-      <c r="P77" s="71" t="s">
+      <c r="P77" s="64" t="s">
         <v>1439</v>
       </c>
-      <c r="Q77" s="71" t="s">
+      <c r="Q77" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="R77" s="71" t="s">
+      <c r="R77" s="64" t="s">
         <v>1441</v>
       </c>
-      <c r="S77" s="72"/>
+      <c r="S77" s="21"/>
       <c r="V77" s="67"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21120,25 +21168,25 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="64" t="s">
         <v>1426</v>
       </c>
-      <c r="E81" s="71" t="s">
+      <c r="E81" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="64" t="s">
         <v>1455</v>
       </c>
-      <c r="G81" s="71" t="s">
+      <c r="G81" s="64" t="s">
         <v>1459</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="H81" s="64" t="s">
         <v>1442</v>
       </c>
-      <c r="I81" s="71" t="s">
+      <c r="I81" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="J81" s="71" t="str">
+      <c r="J81" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21229,7 +21277,7 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="71" t="str">
+      <c r="D85" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21346,52 +21394,52 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D89" s="64" t="s">
         <v>1404</v>
       </c>
-      <c r="E89" s="71" t="s">
+      <c r="E89" s="64" t="s">
         <v>1450</v>
       </c>
-      <c r="F89" s="71" t="s">
+      <c r="F89" s="64" t="s">
         <v>1395</v>
       </c>
-      <c r="G89" s="71" t="s">
+      <c r="G89" s="64" t="s">
         <v>1389</v>
       </c>
-      <c r="H89" s="71" t="s">
+      <c r="H89" s="64" t="s">
         <v>1556</v>
       </c>
-      <c r="I89" s="71" t="s">
+      <c r="I89" s="64" t="s">
         <v>1476</v>
       </c>
-      <c r="J89" s="71" t="s">
+      <c r="J89" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K89" s="71" t="s">
+      <c r="K89" s="64" t="s">
         <v>1557</v>
       </c>
-      <c r="L89" s="71" t="s">
+      <c r="L89" s="64" t="s">
         <v>1558</v>
       </c>
-      <c r="M89" s="71" t="s">
+      <c r="M89" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="N89" s="71" t="s">
+      <c r="N89" s="64" t="s">
         <v>1559</v>
       </c>
-      <c r="O89" s="71" t="s">
+      <c r="O89" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P89" s="71" t="s">
+      <c r="P89" s="64" t="s">
         <v>1481</v>
       </c>
-      <c r="Q89" s="71" t="s">
+      <c r="Q89" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="R89" s="71" t="s">
+      <c r="R89" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="S89" s="72"/>
+      <c r="S89" s="21"/>
       <c r="V89" s="7"/>
     </row>
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21515,52 +21563,52 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="71" t="s">
+      <c r="D93" s="64" t="s">
         <v>1561</v>
       </c>
-      <c r="E93" s="71" t="s">
+      <c r="E93" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F93" s="71" t="s">
+      <c r="F93" s="64" t="s">
         <v>1414</v>
       </c>
-      <c r="G93" s="71" t="s">
+      <c r="G93" s="64" t="s">
         <v>1562</v>
       </c>
-      <c r="H93" s="71" t="s">
+      <c r="H93" s="64" t="s">
         <v>1434</v>
       </c>
-      <c r="I93" s="71" t="s">
+      <c r="I93" s="64" t="s">
         <v>1563</v>
       </c>
-      <c r="J93" s="71" t="s">
+      <c r="J93" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="K93" s="71" t="s">
+      <c r="K93" s="64" t="s">
         <v>1564</v>
       </c>
-      <c r="L93" s="71" t="s">
+      <c r="L93" s="64" t="s">
         <v>1565</v>
       </c>
-      <c r="M93" s="71" t="s">
+      <c r="M93" s="64" t="s">
         <v>1566</v>
       </c>
-      <c r="N93" s="71" t="s">
+      <c r="N93" s="64" t="s">
         <v>1406</v>
       </c>
-      <c r="O93" s="71" t="s">
+      <c r="O93" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P93" s="71" t="s">
+      <c r="P93" s="64" t="s">
         <v>1567</v>
       </c>
-      <c r="Q93" s="71" t="s">
+      <c r="Q93" s="64" t="s">
         <v>1568</v>
       </c>
-      <c r="R93" s="71" t="s">
+      <c r="R93" s="64" t="s">
         <v>1569</v>
       </c>
-      <c r="S93" s="72"/>
+      <c r="S93" s="21"/>
       <c r="V93" s="7"/>
     </row>
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21680,52 +21728,52 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="64" t="s">
         <v>1570</v>
       </c>
-      <c r="E97" s="71" t="s">
+      <c r="E97" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F97" s="71" t="s">
+      <c r="F97" s="64" t="s">
         <v>1571</v>
       </c>
-      <c r="G97" s="71" t="s">
+      <c r="G97" s="64" t="s">
         <v>1572</v>
       </c>
-      <c r="H97" s="71" t="s">
+      <c r="H97" s="64" t="s">
         <v>1573</v>
       </c>
-      <c r="I97" s="71" t="s">
+      <c r="I97" s="64" t="s">
         <v>1401</v>
       </c>
-      <c r="J97" s="71" t="s">
+      <c r="J97" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K97" s="71" t="s">
+      <c r="K97" s="64" t="s">
         <v>1574</v>
       </c>
-      <c r="L97" s="71" t="s">
+      <c r="L97" s="64" t="s">
         <v>1574</v>
       </c>
-      <c r="M97" s="71" t="s">
+      <c r="M97" s="64" t="s">
         <v>1575</v>
       </c>
-      <c r="N97" s="71" t="s">
+      <c r="N97" s="64" t="s">
         <v>1575</v>
       </c>
-      <c r="O97" s="71" t="s">
+      <c r="O97" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="P97" s="71" t="s">
+      <c r="P97" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="Q97" s="71" t="s">
+      <c r="Q97" s="64" t="s">
         <v>1431</v>
       </c>
-      <c r="R97" s="71" t="s">
+      <c r="R97" s="64" t="s">
         <v>1405</v>
       </c>
-      <c r="S97" s="72"/>
+      <c r="S97" s="21"/>
       <c r="V97" s="7"/>
     </row>
     <row r="98" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21843,52 +21891,52 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="71" t="s">
+      <c r="D101" s="64" t="s">
         <v>1576</v>
       </c>
-      <c r="E101" s="71" t="s">
+      <c r="E101" s="64" t="s">
         <v>1414</v>
       </c>
-      <c r="F101" s="71" t="s">
+      <c r="F101" s="64" t="s">
         <v>1526</v>
       </c>
-      <c r="G101" s="71" t="s">
+      <c r="G101" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H101" s="71" t="s">
+      <c r="H101" s="64" t="s">
         <v>1577</v>
       </c>
-      <c r="I101" s="71" t="s">
+      <c r="I101" s="64" t="s">
         <v>1520</v>
       </c>
-      <c r="J101" s="71" t="s">
+      <c r="J101" s="64" t="s">
         <v>1500</v>
       </c>
-      <c r="K101" s="71" t="s">
+      <c r="K101" s="64" t="s">
         <v>1578</v>
       </c>
-      <c r="L101" s="71" t="s">
+      <c r="L101" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M101" s="71" t="s">
+      <c r="M101" s="64" t="s">
         <v>1579</v>
       </c>
-      <c r="N101" s="71" t="s">
+      <c r="N101" s="64" t="s">
         <v>1561</v>
       </c>
-      <c r="O101" s="71" t="s">
+      <c r="O101" s="64" t="s">
         <v>1580</v>
       </c>
-      <c r="P101" s="71" t="s">
+      <c r="P101" s="64" t="s">
         <v>1581</v>
       </c>
-      <c r="Q101" s="71" t="s">
+      <c r="Q101" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="R101" s="71" t="s">
+      <c r="R101" s="64" t="s">
         <v>1435</v>
       </c>
-      <c r="S101" s="72"/>
+      <c r="S101" s="21"/>
       <c r="V101" s="7"/>
     </row>
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22012,52 +22060,52 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="71" t="s">
+      <c r="D105" s="64" t="s">
         <v>1582</v>
       </c>
-      <c r="E105" s="71" t="s">
+      <c r="E105" s="64" t="s">
         <v>1583</v>
       </c>
-      <c r="F105" s="71" t="s">
+      <c r="F105" s="64" t="s">
         <v>1584</v>
       </c>
-      <c r="G105" s="71" t="s">
+      <c r="G105" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H105" s="71" t="s">
+      <c r="H105" s="64" t="s">
         <v>1585</v>
       </c>
-      <c r="I105" s="71" t="s">
+      <c r="I105" s="64" t="s">
         <v>1586</v>
       </c>
-      <c r="J105" s="71" t="s">
+      <c r="J105" s="64" t="s">
         <v>1587</v>
       </c>
-      <c r="K105" s="71" t="s">
+      <c r="K105" s="64" t="s">
         <v>1588</v>
       </c>
-      <c r="L105" s="71" t="s">
+      <c r="L105" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M105" s="71" t="s">
+      <c r="M105" s="64" t="s">
         <v>1407</v>
       </c>
-      <c r="N105" s="71" t="s">
+      <c r="N105" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="O105" s="71" t="s">
+      <c r="O105" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="P105" s="71" t="s">
+      <c r="P105" s="64" t="s">
         <v>1426</v>
       </c>
-      <c r="Q105" s="71" t="s">
+      <c r="Q105" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="R105" s="71" t="s">
+      <c r="R105" s="64" t="s">
         <v>1545</v>
       </c>
-      <c r="S105" s="72"/>
+      <c r="S105" s="21"/>
       <c r="V105" s="7"/>
     </row>
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22177,52 +22225,52 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="71" t="s">
+      <c r="D109" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="E109" s="71" t="s">
+      <c r="E109" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="F109" s="71" t="s">
+      <c r="F109" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="G109" s="71" t="s">
+      <c r="G109" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H109" s="71" t="s">
+      <c r="H109" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="I109" s="71" t="s">
+      <c r="I109" s="64" t="s">
         <v>1408</v>
       </c>
-      <c r="J109" s="71" t="s">
+      <c r="J109" s="64" t="s">
         <v>1590</v>
       </c>
-      <c r="K109" s="71" t="s">
+      <c r="K109" s="64" t="s">
         <v>1591</v>
       </c>
-      <c r="L109" s="71" t="s">
+      <c r="L109" s="64" t="s">
         <v>1592</v>
       </c>
-      <c r="M109" s="71" t="s">
+      <c r="M109" s="64" t="s">
         <v>1593</v>
       </c>
-      <c r="N109" s="71" t="s">
+      <c r="N109" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="O109" s="71" t="s">
+      <c r="O109" s="64" t="s">
         <v>1594</v>
       </c>
-      <c r="P109" s="71" t="s">
+      <c r="P109" s="64" t="s">
         <v>1595</v>
       </c>
-      <c r="Q109" s="71" t="s">
+      <c r="Q109" s="64" t="s">
         <v>1596</v>
       </c>
-      <c r="R109" s="71" t="s">
+      <c r="R109" s="64" t="s">
         <v>1597</v>
       </c>
-      <c r="S109" s="72"/>
+      <c r="S109" s="21"/>
       <c r="V109" s="7"/>
     </row>
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22340,46 +22388,46 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="71" t="s">
+      <c r="D113" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="E113" s="71" t="s">
+      <c r="E113" s="64" t="s">
         <v>1598</v>
       </c>
-      <c r="F113" s="71" t="s">
+      <c r="F113" s="64" t="s">
         <v>1599</v>
       </c>
-      <c r="G113" s="71" t="s">
+      <c r="G113" s="64" t="s">
         <v>1452</v>
       </c>
-      <c r="H113" s="71" t="s">
+      <c r="H113" s="64" t="s">
         <v>1421</v>
       </c>
-      <c r="I113" s="71" t="s">
+      <c r="I113" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="J113" s="71" t="s">
+      <c r="J113" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="K113" s="71" t="s">
+      <c r="K113" s="64" t="s">
         <v>1600</v>
       </c>
-      <c r="L113" s="71" t="s">
+      <c r="L113" s="64" t="s">
         <v>1601</v>
       </c>
-      <c r="M113" s="71" t="s">
+      <c r="M113" s="64" t="s">
         <v>1601</v>
       </c>
-      <c r="N113" s="71" t="s">
+      <c r="N113" s="64" t="s">
         <v>1459</v>
       </c>
-      <c r="O113" s="71" t="s">
+      <c r="O113" s="64" t="s">
         <v>1442</v>
       </c>
-      <c r="P113" s="71" t="s">
+      <c r="P113" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="Q113" s="71" t="str">
+      <c r="Q113" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -22473,7 +22521,7 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="71" t="str">
+      <c r="D117" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -22590,52 +22638,52 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="71" t="s">
+      <c r="D121" s="64" t="s">
         <v>1453</v>
       </c>
-      <c r="E121" s="71" t="s">
+      <c r="E121" s="64" t="s">
         <v>1428</v>
       </c>
-      <c r="F121" s="71" t="s">
+      <c r="F121" s="64" t="s">
         <v>1448</v>
       </c>
-      <c r="G121" s="71" t="s">
+      <c r="G121" s="64" t="s">
         <v>1482</v>
       </c>
-      <c r="H121" s="71" t="s">
+      <c r="H121" s="64" t="s">
         <v>1451</v>
       </c>
-      <c r="I121" s="71" t="s">
+      <c r="I121" s="64" t="s">
         <v>1602</v>
       </c>
-      <c r="J121" s="71" t="s">
+      <c r="J121" s="64" t="s">
         <v>1443</v>
       </c>
-      <c r="K121" s="71" t="s">
+      <c r="K121" s="64" t="s">
         <v>1603</v>
       </c>
-      <c r="L121" s="71" t="s">
+      <c r="L121" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="M121" s="71" t="s">
+      <c r="M121" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="N121" s="71" t="s">
+      <c r="N121" s="64" t="s">
         <v>1590</v>
       </c>
-      <c r="O121" s="71" t="s">
+      <c r="O121" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P121" s="71" t="s">
+      <c r="P121" s="64" t="s">
         <v>1431</v>
       </c>
-      <c r="Q121" s="71" t="s">
+      <c r="Q121" s="64" t="s">
         <v>1458</v>
       </c>
-      <c r="R121" s="71" t="s">
+      <c r="R121" s="64" t="s">
         <v>1604</v>
       </c>
-      <c r="S121" s="72"/>
+      <c r="S121" s="21"/>
       <c r="V121" s="7"/>
     </row>
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22757,52 +22805,52 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="71" t="s">
+      <c r="D125" s="64" t="s">
         <v>1459</v>
       </c>
-      <c r="E125" s="71" t="s">
+      <c r="E125" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="F125" s="71" t="s">
+      <c r="F125" s="64" t="s">
         <v>1411</v>
       </c>
-      <c r="G125" s="71" t="s">
+      <c r="G125" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H125" s="71" t="s">
+      <c r="H125" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="I125" s="71" t="s">
+      <c r="I125" s="64" t="s">
         <v>1447</v>
       </c>
-      <c r="J125" s="71" t="s">
+      <c r="J125" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="K125" s="71" t="s">
+      <c r="K125" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="L125" s="71" t="s">
+      <c r="L125" s="64" t="s">
         <v>1410</v>
       </c>
-      <c r="M125" s="71" t="s">
+      <c r="M125" s="64" t="s">
         <v>1513</v>
       </c>
-      <c r="N125" s="71" t="s">
+      <c r="N125" s="64" t="s">
         <v>1600</v>
       </c>
-      <c r="O125" s="71" t="s">
+      <c r="O125" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P125" s="71" t="s">
+      <c r="P125" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="Q125" s="71" t="s">
+      <c r="Q125" s="64" t="s">
         <v>1410</v>
       </c>
-      <c r="R125" s="71" t="s">
+      <c r="R125" s="64" t="s">
         <v>1438</v>
       </c>
-      <c r="S125" s="72"/>
+      <c r="S125" s="21"/>
       <c r="V125" s="7"/>
     </row>
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22918,52 +22966,52 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="71" t="s">
+      <c r="D129" s="64" t="s">
         <v>1455</v>
       </c>
-      <c r="E129" s="71" t="s">
+      <c r="E129" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="F129" s="71" t="s">
+      <c r="F129" s="64" t="s">
         <v>1605</v>
       </c>
-      <c r="G129" s="71" t="s">
+      <c r="G129" s="64" t="s">
         <v>1606</v>
       </c>
-      <c r="H129" s="71" t="s">
+      <c r="H129" s="64" t="s">
         <v>1607</v>
       </c>
-      <c r="I129" s="71" t="s">
+      <c r="I129" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="J129" s="71" t="s">
+      <c r="J129" s="64" t="s">
         <v>1608</v>
       </c>
-      <c r="K129" s="71" t="s">
+      <c r="K129" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="L129" s="71" t="s">
+      <c r="L129" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="M129" s="71" t="s">
+      <c r="M129" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="N129" s="71" t="s">
+      <c r="N129" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="O129" s="71" t="s">
+      <c r="O129" s="64" t="s">
         <v>1609</v>
       </c>
-      <c r="P129" s="71" t="s">
+      <c r="P129" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="Q129" s="71" t="s">
+      <c r="Q129" s="64" t="s">
         <v>1610</v>
       </c>
-      <c r="R129" s="71" t="s">
+      <c r="R129" s="64" t="s">
         <v>1490</v>
       </c>
-      <c r="S129" s="72"/>
+      <c r="S129" s="21"/>
       <c r="V129" s="7"/>
     </row>
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23079,52 +23127,52 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="71" t="s">
+      <c r="D133" s="64" t="s">
         <v>1487</v>
       </c>
-      <c r="E133" s="71" t="s">
+      <c r="E133" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="F133" s="71" t="s">
+      <c r="F133" s="64" t="s">
         <v>1488</v>
       </c>
-      <c r="G133" s="71" t="s">
+      <c r="G133" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H133" s="71" t="s">
+      <c r="H133" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="I133" s="71" t="s">
+      <c r="I133" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="J133" s="71" t="s">
+      <c r="J133" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="K133" s="71" t="s">
+      <c r="K133" s="64" t="s">
         <v>1611</v>
       </c>
-      <c r="L133" s="71" t="s">
+      <c r="L133" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="M133" s="71" t="s">
+      <c r="M133" s="64" t="s">
         <v>1417</v>
       </c>
-      <c r="N133" s="71" t="s">
+      <c r="N133" s="64" t="s">
         <v>1612</v>
       </c>
-      <c r="O133" s="71" t="s">
+      <c r="O133" s="64" t="s">
         <v>1415</v>
       </c>
-      <c r="P133" s="71" t="s">
+      <c r="P133" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="Q133" s="71" t="s">
+      <c r="Q133" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="R133" s="71" t="s">
+      <c r="R133" s="64" t="s">
         <v>1613</v>
       </c>
-      <c r="S133" s="72"/>
+      <c r="S133" s="21"/>
       <c r="V133" s="7"/>
     </row>
     <row r="134" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23240,52 +23288,52 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="71" t="s">
+      <c r="D137" s="64" t="s">
         <v>1415</v>
       </c>
-      <c r="E137" s="71" t="s">
+      <c r="E137" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="F137" s="71" t="s">
+      <c r="F137" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="G137" s="71" t="s">
+      <c r="G137" s="64" t="s">
         <v>1439</v>
       </c>
-      <c r="H137" s="71" t="s">
+      <c r="H137" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="I137" s="71" t="s">
+      <c r="I137" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="J137" s="71" t="s">
+      <c r="J137" s="64" t="s">
         <v>1456</v>
       </c>
-      <c r="K137" s="71" t="s">
+      <c r="K137" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="L137" s="71" t="s">
+      <c r="L137" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="M137" s="71" t="s">
+      <c r="M137" s="64" t="s">
         <v>1614</v>
       </c>
-      <c r="N137" s="71" t="s">
+      <c r="N137" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="O137" s="71" t="s">
+      <c r="O137" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="P137" s="71" t="s">
+      <c r="P137" s="64" t="s">
         <v>1615</v>
       </c>
-      <c r="Q137" s="71" t="s">
+      <c r="Q137" s="64" t="s">
         <v>1616</v>
       </c>
-      <c r="R137" s="71" t="s">
+      <c r="R137" s="64" t="s">
         <v>1444</v>
       </c>
-      <c r="S137" s="72"/>
+      <c r="S137" s="21"/>
       <c r="V137" s="7"/>
     </row>
     <row r="138" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23409,52 +23457,52 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="71" t="s">
+      <c r="D141" s="64" t="s">
         <v>1445</v>
       </c>
-      <c r="E141" s="71" t="s">
+      <c r="E141" s="64" t="s">
         <v>1617</v>
       </c>
-      <c r="F141" s="71" t="s">
+      <c r="F141" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="G141" s="71" t="s">
+      <c r="G141" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="H141" s="71" t="s">
+      <c r="H141" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="I141" s="71" t="s">
+      <c r="I141" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="J141" s="71" t="s">
+      <c r="J141" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="K141" s="71" t="s">
+      <c r="K141" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="L141" s="71" t="s">
+      <c r="L141" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M141" s="71" t="s">
+      <c r="M141" s="64" t="s">
         <v>1454</v>
       </c>
-      <c r="N141" s="71" t="s">
+      <c r="N141" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="O141" s="71" t="s">
+      <c r="O141" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="P141" s="71" t="s">
+      <c r="P141" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="Q141" s="71" t="s">
+      <c r="Q141" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="R141" s="71" t="s">
+      <c r="R141" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="S141" s="72"/>
+      <c r="S141" s="21"/>
       <c r="V141" s="7"/>
     </row>
     <row r="142" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23573,60 +23621,60 @@
       <c r="S144" s="19"/>
       <c r="V144" s="7"/>
     </row>
-    <row r="145" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="145" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B145" s="20">
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="71" t="s">
+      <c r="D145" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="E145" s="71" t="s">
+      <c r="E145" s="64" t="s">
         <v>1446</v>
       </c>
-      <c r="F145" s="71" t="s">
+      <c r="F145" s="64" t="s">
         <v>1618</v>
       </c>
-      <c r="G145" s="71" t="s">
+      <c r="G145" s="64" t="s">
         <v>1448</v>
       </c>
-      <c r="H145" s="71" t="s">
+      <c r="H145" s="64" t="s">
         <v>1619</v>
       </c>
-      <c r="I145" s="71" t="s">
+      <c r="I145" s="64" t="s">
         <v>1448</v>
       </c>
-      <c r="J145" s="71" t="s">
+      <c r="J145" s="64" t="s">
         <v>1620</v>
       </c>
-      <c r="K145" s="71" t="s">
+      <c r="K145" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="L145" s="71" t="s">
+      <c r="L145" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="M145" s="71" t="s">
+      <c r="M145" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="N145" s="71" t="s">
+      <c r="N145" s="64" t="s">
         <v>1621</v>
       </c>
-      <c r="O145" s="71" t="s">
+      <c r="O145" s="64" t="s">
         <v>1622</v>
       </c>
-      <c r="P145" s="71" t="s">
+      <c r="P145" s="64" t="s">
         <v>1430</v>
       </c>
-      <c r="Q145" s="71" t="s">
+      <c r="Q145" s="64" t="s">
         <v>1623</v>
       </c>
-      <c r="R145" s="71" t="s">
+      <c r="R145" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="S145" s="72"/>
+      <c r="S145" s="21"/>
       <c r="V145" s="7"/>
     </row>
-    <row r="146" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="146" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="22"/>
       <c r="D146" s="65" t="s">
         <v>1965</v>
@@ -23666,7 +23714,7 @@
       <c r="S146" s="31"/>
       <c r="V146" s="7"/>
     </row>
-    <row r="147" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="147" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="34"/>
       <c r="D147" s="62"/>
@@ -23686,7 +23734,7 @@
       <c r="R147" s="62"/>
       <c r="V147" s="36"/>
     </row>
-    <row r="148" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="148" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="17"/>
       <c r="D148" s="63"/>
       <c r="E148" s="63"/>
@@ -23706,12 +23754,12 @@
       <c r="S148" s="19"/>
       <c r="V148" s="7"/>
     </row>
-    <row r="149" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="149" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B149" s="20">
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="71" t="str">
+      <c r="D149" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -23733,7 +23781,7 @@
       <c r="S149" s="21"/>
       <c r="V149" s="7"/>
     </row>
-    <row r="150" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="150" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="22"/>
       <c r="D150" s="65"/>
       <c r="E150" s="65"/>
@@ -23753,7 +23801,7 @@
       <c r="S150" s="31"/>
       <c r="V150" s="7"/>
     </row>
-    <row r="151" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="151" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B151" s="12"/>
       <c r="C151" s="34"/>
       <c r="D151" s="62"/>
@@ -23773,7 +23821,7 @@
       <c r="R151" s="62"/>
       <c r="V151" s="36"/>
     </row>
-    <row r="152" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="152" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="17"/>
       <c r="D152" s="63"/>
       <c r="E152" s="63"/>
@@ -23793,12 +23841,12 @@
       <c r="S152" s="19"/>
       <c r="V152" s="7"/>
     </row>
-    <row r="153" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="153" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B153" s="20">
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="71" t="str">
+      <c r="D153" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -23820,7 +23868,7 @@
       <c r="S153" s="21"/>
       <c r="V153" s="7"/>
     </row>
-    <row r="154" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="154" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="22"/>
       <c r="D154" s="65"/>
       <c r="E154" s="65"/>
@@ -23840,7 +23888,7 @@
       <c r="S154" s="31"/>
       <c r="V154" s="7"/>
     </row>
-    <row r="155" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="155" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B155" s="12"/>
       <c r="C155" s="34"/>
       <c r="D155" s="62"/>
@@ -23862,7 +23910,7 @@
       <c r="R155" s="62"/>
       <c r="V155" s="36"/>
     </row>
-    <row r="156" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="156" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="17"/>
       <c r="D156" s="63" t="s">
         <v>904</v>
@@ -23898,39 +23946,40 @@
       <c r="S156" s="19"/>
       <c r="V156" s="7"/>
     </row>
-    <row r="157" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="157" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A157" s="71"/>
       <c r="B157" s="20">
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="71" t="s">
+      <c r="D157" s="64" t="s">
         <v>1456</v>
       </c>
-      <c r="E157" s="71" t="s">
+      <c r="E157" s="64" t="s">
         <v>1624</v>
       </c>
-      <c r="F157" s="71" t="s">
+      <c r="F157" s="64" t="s">
         <v>1391</v>
       </c>
-      <c r="G157" s="71" t="s">
+      <c r="G157" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="H157" s="71" t="s">
+      <c r="H157" s="64" t="s">
         <v>1520</v>
       </c>
-      <c r="I157" s="71" t="s">
+      <c r="I157" s="64" t="s">
         <v>1625</v>
       </c>
-      <c r="J157" s="71" t="s">
+      <c r="J157" s="64" t="s">
         <v>1626</v>
       </c>
-      <c r="K157" s="71" t="s">
+      <c r="K157" s="64" t="s">
         <v>1418</v>
       </c>
-      <c r="L157" s="71" t="s">
+      <c r="L157" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="M157" s="71" t="s">
+      <c r="M157" s="64" t="s">
         <v>38</v>
       </c>
       <c r="N157" s="64"/>
@@ -23941,7 +23990,7 @@
       <c r="S157" s="21"/>
       <c r="V157" s="7"/>
     </row>
-    <row r="158" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="158" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="22"/>
       <c r="D158" s="65" t="s">
         <v>1884</v>
@@ -23977,7 +24026,7 @@
       <c r="S158" s="31"/>
       <c r="V158" s="7"/>
     </row>
-    <row r="159" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="159" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B159" s="12"/>
       <c r="C159" s="34"/>
       <c r="D159" s="62"/>
@@ -23997,7 +24046,7 @@
       <c r="R159" s="62"/>
       <c r="V159" s="36"/>
     </row>
-    <row r="160" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="160" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="17"/>
       <c r="D160" s="63"/>
       <c r="E160" s="63"/>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D034702-516E-4B30-9764-161E1B9EE046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C465178-8AC6-4B9A-8E34-9F44E23B157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="2020">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14418,7 +14418,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071A665-FE78-4FA7-83DC-4856CFF9C439}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A1:A1048576"/>
@@ -14428,16 +14428,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2016</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>2017</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>2018</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>2019</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14806,2633 +14806,2619 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>1972</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>1972</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1923</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1260</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>1164</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>1164</v>
+        <v>1298</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1927</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>1298</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1264</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1930</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>340</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>346</v>
+        <v>485</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>974</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>485</v>
+        <v>347</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>500</v>
+        <v>975</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>986</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>501</v>
+        <v>987</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>363</v>
+        <v>1656</v>
       </c>
       <c r="C68" t="s">
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>994</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>1656</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>1970</v>
+        <v>995</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C71" t="s">
         <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s">
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C83" t="s">
         <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
       </c>
       <c r="D84" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C85" t="s">
         <v>499</v>
       </c>
       <c r="D85" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C87" t="s">
         <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="C88" t="s">
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="C89" t="s">
         <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C90" t="s">
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B91" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="C91" t="s">
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>1020</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>486</v>
+        <v>334</v>
       </c>
       <c r="C92" t="s">
         <v>499</v>
       </c>
       <c r="D92" t="s">
-        <v>502</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="C93" t="s">
         <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C94" t="s">
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>385</v>
+        <v>1468</v>
       </c>
       <c r="C95" t="s">
         <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>1023</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
-        <v>1468</v>
+        <v>389</v>
       </c>
       <c r="C96" t="s">
         <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>1932</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C97" t="s">
         <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="C98" t="s">
         <v>499</v>
       </c>
       <c r="D98" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s">
         <v>499</v>
       </c>
       <c r="D100" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C101" t="s">
         <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
         <v>499</v>
       </c>
       <c r="D102" t="s">
-        <v>1033</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>1933</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="C104" t="s">
         <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B105" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C105" t="s">
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="C106" t="s">
         <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="C107" t="s">
         <v>499</v>
       </c>
       <c r="D107" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="C108" t="s">
         <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>1662</v>
       </c>
       <c r="C109" t="s">
         <v>499</v>
       </c>
       <c r="D109" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>1662</v>
+        <v>488</v>
       </c>
       <c r="C110" t="s">
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>1041</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B111" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="C111" t="s">
         <v>499</v>
       </c>
       <c r="D111" t="s">
-        <v>503</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C112" t="s">
         <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
       </c>
       <c r="D113" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s">
         <v>499</v>
       </c>
       <c r="D114" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
         <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="C116" t="s">
         <v>499</v>
       </c>
       <c r="D116" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C117" t="s">
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
       </c>
       <c r="D118" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C119" t="s">
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C120" t="s">
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="C121" t="s">
         <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>1054</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>1658</v>
       </c>
       <c r="C122" t="s">
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>1658</v>
+        <v>411</v>
       </c>
       <c r="C123" t="s">
         <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>1991</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="B124" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C125" t="s">
         <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C126" t="s">
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="C127" t="s">
         <v>499</v>
       </c>
       <c r="D127" t="s">
-        <v>1061</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>504</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C129" t="s">
         <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C130" t="s">
         <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B131" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="C131" t="s">
         <v>499</v>
       </c>
       <c r="D131" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="C133" t="s">
         <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>421</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
         <v>499</v>
       </c>
       <c r="D134" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>422</v>
       </c>
       <c r="C135" t="s">
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
         <v>499</v>
       </c>
       <c r="D136" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>423</v>
       </c>
       <c r="C137" t="s">
         <v>499</v>
       </c>
       <c r="D137" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C138" t="s">
         <v>499</v>
       </c>
       <c r="D138" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C139" t="s">
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B140" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C140" t="s">
         <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C141" t="s">
         <v>499</v>
       </c>
       <c r="D141" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B142" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C142" t="s">
         <v>499</v>
       </c>
       <c r="D142" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B143" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C143" t="s">
         <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B144" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C144" t="s">
         <v>499</v>
       </c>
       <c r="D144" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B145" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s">
         <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B146" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C146" t="s">
         <v>499</v>
       </c>
       <c r="D146" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>435</v>
+        <v>1469</v>
       </c>
       <c r="C147" t="s">
         <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B148" t="s">
-        <v>1469</v>
+        <v>437</v>
       </c>
       <c r="C148" t="s">
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C149" t="s">
         <v>499</v>
       </c>
       <c r="D149" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B150" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s">
         <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B151" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s">
         <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B152" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="C152" t="s">
         <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>1090</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B153" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="C153" t="s">
         <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>505</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B154" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="C154" t="s">
         <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>1091</v>
+        <v>506</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B155" t="s">
-        <v>494</v>
+        <v>1681</v>
       </c>
       <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>506</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B156" t="s">
-        <v>1681</v>
+        <v>442</v>
       </c>
       <c r="C156" t="s">
         <v>499</v>
       </c>
       <c r="D156" t="s">
-        <v>1992</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B157" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="C157" t="s">
         <v>499</v>
       </c>
       <c r="D157" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B158" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="C158" t="s">
         <v>499</v>
       </c>
       <c r="D158" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B159" t="s">
-        <v>399</v>
+        <v>1470</v>
       </c>
       <c r="C159" t="s">
         <v>499</v>
       </c>
       <c r="D159" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B160" t="s">
-        <v>1470</v>
+        <v>1850</v>
       </c>
       <c r="C160" t="s">
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B161" t="s">
-        <v>1850</v>
+        <v>330</v>
       </c>
       <c r="C161" t="s">
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="C162" t="s">
         <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B163" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C163" t="s">
         <v>499</v>
       </c>
       <c r="D163" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B164" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="C164" t="s">
         <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B165" t="s">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="C165" t="s">
         <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B166" t="s">
-        <v>57</v>
+        <v>1857</v>
       </c>
       <c r="C166" t="s">
         <v>499</v>
       </c>
       <c r="D166" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B167" t="s">
-        <v>1857</v>
+        <v>40</v>
       </c>
       <c r="C167" t="s">
         <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="C168" t="s">
         <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B169" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C169" t="s">
         <v>499</v>
       </c>
       <c r="D169" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B170" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C170" t="s">
         <v>499</v>
       </c>
       <c r="D170" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B171" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C171" t="s">
         <v>499</v>
       </c>
       <c r="D171" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B172" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C172" t="s">
         <v>499</v>
       </c>
       <c r="D172" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B173" t="s">
-        <v>456</v>
+        <v>383</v>
       </c>
       <c r="C173" t="s">
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B174" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="C174" t="s">
         <v>499</v>
       </c>
       <c r="D174" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B175" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C175" t="s">
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B176" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C176" t="s">
         <v>499</v>
       </c>
       <c r="D176" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B177" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C177" t="s">
         <v>499</v>
       </c>
       <c r="D177" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B178" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C178" t="s">
         <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B179" t="s">
-        <v>462</v>
+        <v>1656</v>
       </c>
       <c r="C179" t="s">
         <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>1121</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B180" t="s">
-        <v>1656</v>
+        <v>464</v>
       </c>
       <c r="C180" t="s">
         <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>1993</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B181" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C181" t="s">
         <v>499</v>
       </c>
       <c r="D181" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B182" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C182" t="s">
         <v>499</v>
       </c>
       <c r="D182" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B183" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C183" t="s">
         <v>499</v>
       </c>
       <c r="D183" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B184" t="s">
-        <v>467</v>
+        <v>1983</v>
       </c>
       <c r="C184" t="s">
         <v>499</v>
       </c>
       <c r="D184" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>1983</v>
+        <v>468</v>
       </c>
       <c r="C185" t="s">
         <v>499</v>
       </c>
       <c r="D185" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>468</v>
+        <v>52</v>
       </c>
       <c r="C186" t="s">
         <v>499</v>
       </c>
       <c r="D186" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B187" t="s">
-        <v>52</v>
+        <v>469</v>
       </c>
       <c r="C187" t="s">
         <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B188" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C188" t="s">
         <v>499</v>
       </c>
       <c r="D188" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B189" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="C189" t="s">
         <v>499</v>
       </c>
       <c r="D189" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B190" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="C190" t="s">
         <v>499</v>
       </c>
       <c r="D190" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B191" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C191" t="s">
         <v>499</v>
       </c>
       <c r="D191" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="B192" t="s">
-        <v>472</v>
+        <v>50</v>
       </c>
       <c r="C192" t="s">
         <v>499</v>
       </c>
       <c r="D192" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="B193" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C193" t="s">
         <v>499</v>
       </c>
       <c r="D193" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="C194" t="s">
         <v>499</v>
       </c>
       <c r="D194" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B195" t="s">
-        <v>362</v>
+        <v>473</v>
       </c>
       <c r="C195" t="s">
         <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="B196" t="s">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="C196" t="s">
         <v>499</v>
       </c>
       <c r="D196" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>474</v>
       </c>
       <c r="C197" t="s">
         <v>499</v>
       </c>
       <c r="D197" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B198" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="C198" t="s">
         <v>499</v>
       </c>
       <c r="D198" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B199" t="s">
-        <v>364</v>
+        <v>476</v>
       </c>
       <c r="C199" t="s">
         <v>499</v>
       </c>
       <c r="D199" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B200" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C200" t="s">
         <v>499</v>
       </c>
       <c r="D200" t="s">
-        <v>1142</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B201" t="s">
-        <v>477</v>
+        <v>1885</v>
       </c>
       <c r="C201" t="s">
         <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>1935</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>1885</v>
+        <v>478</v>
       </c>
       <c r="C202" t="s">
         <v>499</v>
       </c>
       <c r="D202" t="s">
-        <v>1994</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C203" t="s">
         <v>499</v>
       </c>
       <c r="D203" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B204" t="s">
-        <v>479</v>
+        <v>311</v>
       </c>
       <c r="C204" t="s">
         <v>499</v>
       </c>
       <c r="D204" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B205" t="s">
-        <v>311</v>
+        <v>480</v>
       </c>
       <c r="C205" t="s">
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B206" t="s">
-        <v>480</v>
+        <v>1889</v>
       </c>
       <c r="C206" t="s">
         <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B207" t="s">
-        <v>1889</v>
+        <v>1164</v>
       </c>
       <c r="C207" t="s">
         <v>499</v>
       </c>
       <c r="D207" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B208" t="s">
-        <v>1164</v>
+        <v>496</v>
       </c>
       <c r="C208" t="s">
         <v>499</v>
       </c>
       <c r="D208" t="s">
-        <v>1149</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B209" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C209" t="s">
         <v>499</v>
       </c>
       <c r="D209" t="s">
-        <v>507</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B210" t="s">
-        <v>481</v>
+        <v>1231</v>
       </c>
       <c r="C210" t="s">
         <v>499</v>
       </c>
       <c r="D210" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B211" t="s">
-        <v>1231</v>
+        <v>483</v>
       </c>
       <c r="C211" t="s">
         <v>499</v>
       </c>
       <c r="D211" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>299</v>
+        <v>1465</v>
       </c>
       <c r="B212" t="s">
-        <v>483</v>
+        <v>1471</v>
       </c>
       <c r="C212" t="s">
         <v>499</v>
       </c>
       <c r="D212" t="s">
-        <v>1154</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B213" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C213" t="s">
         <v>499</v>
       </c>
       <c r="D213" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B214" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C214" t="s">
         <v>499</v>
       </c>
       <c r="D214" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C215" t="s">
-        <v>499</v>
-      </c>
-      <c r="D215" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -17444,9 +17430,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413EFAA-BCE8-4C23-ABF4-28398464EA69}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -17454,16 +17440,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2016</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>2017</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>2018</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>2019</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -18066,6 +18052,20 @@
       </c>
       <c r="D44" t="s">
         <v>961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1919</v>
       </c>
     </row>
   </sheetData>
@@ -18080,7 +18080,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18334,7 +18334,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
       <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
+      <c r="P7" s="76"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
       <c r="S7" s="29"/>
@@ -18376,7 +18376,7 @@
       <c r="O8" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="74" t="s">
         <v>529</v>
       </c>
       <c r="Q8" s="63" t="s">
@@ -18427,7 +18427,7 @@
       <c r="O9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="64" t="s">
+      <c r="P9" s="72" t="s">
         <v>77</v>
       </c>
       <c r="Q9" s="64" t="s">
@@ -18476,7 +18476,7 @@
       <c r="O10" s="65" t="s">
         <v>1713</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="73" t="s">
         <v>1714</v>
       </c>
       <c r="Q10" s="65" t="s">
@@ -18660,7 +18660,9 @@
         <v>1944</v>
       </c>
       <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="J15" s="76" t="s">
+        <v>324</v>
+      </c>
       <c r="K15" s="62"/>
       <c r="L15" s="76" t="s">
         <v>1635</v>
@@ -18695,7 +18697,7 @@
         <v>1659</v>
       </c>
       <c r="I16" s="63"/>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="74" t="s">
         <v>565</v>
       </c>
       <c r="K16" s="63" t="s">
@@ -18746,7 +18748,7 @@
       <c r="I17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="72" t="s">
         <v>92</v>
       </c>
       <c r="K17" s="64" t="s">
@@ -18794,7 +18796,7 @@
         <v>1770</v>
       </c>
       <c r="I18" s="65"/>
-      <c r="J18" s="65" t="s">
+      <c r="J18" s="73" t="s">
         <v>1732</v>
       </c>
       <c r="K18" s="65" t="s">

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C465178-8AC6-4B9A-8E34-9F44E23B157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D202684C-5CA1-4EFB-85D0-8B3BD6D260FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="2019">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6983,10 +6983,6 @@
   </si>
   <si>
     <t>gniǎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dióng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -14398,16 +14394,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1" t="s">
         <v>2016</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2017</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2018</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -14418,10 +14414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071A665-FE78-4FA7-83DC-4856CFF9C439}">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14652,2773 +14648,2745 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>1719</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1274</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>1719</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1914</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1989</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1916</v>
+        <v>950</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>1725</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>950</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>1725</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1917</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>1972</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>955</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>1972</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1922</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1923</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1259</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>1164</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1260</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>1298</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1925</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>1164</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>1298</v>
+        <v>336</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1264</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1929</v>
+        <v>966</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1930</v>
+        <v>967</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="C42" t="s">
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>345</v>
+        <v>485</v>
       </c>
       <c r="C47" t="s">
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>973</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>500</v>
+        <v>976</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>985</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C60" t="s">
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>501</v>
+        <v>989</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>357</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C65" t="s">
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>362</v>
+        <v>1656</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>993</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>363</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>1656</v>
+        <v>365</v>
       </c>
       <c r="C68" t="s">
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>1970</v>
+        <v>997</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C70" t="s">
         <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C71" t="s">
         <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C72" t="s">
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C74" t="s">
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C75" t="s">
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C76" t="s">
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C78" t="s">
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
       </c>
       <c r="D80" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C83" t="s">
         <v>499</v>
       </c>
       <c r="D83" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
       </c>
       <c r="D84" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
         <v>499</v>
       </c>
       <c r="D85" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C87" t="s">
         <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="C88" t="s">
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="C89" t="s">
         <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>1018</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s">
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="C91" t="s">
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>502</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="C92" t="s">
         <v>499</v>
       </c>
       <c r="D92" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>384</v>
+        <v>1468</v>
       </c>
       <c r="C93" t="s">
         <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>1022</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>1468</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s">
         <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>1932</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="C96" t="s">
         <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C97" t="s">
         <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="C98" t="s">
         <v>499</v>
       </c>
       <c r="D98" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C100" t="s">
         <v>499</v>
       </c>
       <c r="D100" t="s">
-        <v>1032</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
         <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C102" t="s">
         <v>499</v>
       </c>
       <c r="D102" t="s">
-        <v>1933</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="C103" t="s">
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="C104" t="s">
         <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C106" t="s">
         <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>398</v>
+        <v>1662</v>
       </c>
       <c r="C107" t="s">
         <v>499</v>
       </c>
       <c r="D107" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B108" t="s">
-        <v>353</v>
+        <v>488</v>
       </c>
       <c r="C108" t="s">
         <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>1040</v>
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B109" t="s">
-        <v>1662</v>
+        <v>401</v>
       </c>
       <c r="C109" t="s">
         <v>499</v>
       </c>
       <c r="D109" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>488</v>
+        <v>402</v>
       </c>
       <c r="C110" t="s">
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>503</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
         <v>499</v>
       </c>
       <c r="D111" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C112" t="s">
         <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
       </c>
       <c r="D113" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C114" t="s">
         <v>499</v>
       </c>
       <c r="D114" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="C115" t="s">
         <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C116" t="s">
         <v>499</v>
       </c>
       <c r="D116" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B117" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C117" t="s">
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B118" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
       </c>
       <c r="D118" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>409</v>
+        <v>331</v>
       </c>
       <c r="C119" t="s">
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>1053</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="B120" t="s">
-        <v>410</v>
+        <v>1658</v>
       </c>
       <c r="C120" t="s">
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>1054</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="C121" t="s">
         <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>1990</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B122" t="s">
-        <v>1658</v>
+        <v>413</v>
       </c>
       <c r="C122" t="s">
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>1991</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B123" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C123" t="s">
         <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B125" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="C125" t="s">
         <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>1059</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B126" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B127" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="C127" t="s">
         <v>499</v>
       </c>
       <c r="D127" t="s">
-        <v>504</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B128" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B129" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="C129" t="s">
         <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="C130" t="s">
         <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B131" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="C131" t="s">
         <v>499</v>
       </c>
       <c r="D131" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C132" t="s">
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C133" t="s">
         <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
         <v>499</v>
       </c>
       <c r="D134" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C135" t="s">
         <v>499</v>
       </c>
       <c r="D135" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="C136" t="s">
         <v>499</v>
       </c>
       <c r="D136" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B137" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C137" t="s">
         <v>499</v>
       </c>
       <c r="D137" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B138" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C138" t="s">
         <v>499</v>
       </c>
       <c r="D138" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B139" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C139" t="s">
         <v>499</v>
       </c>
       <c r="D139" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C140" t="s">
         <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B141" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C141" t="s">
         <v>499</v>
       </c>
       <c r="D141" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B142" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C142" t="s">
         <v>499</v>
       </c>
       <c r="D142" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B143" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C143" t="s">
         <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B144" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C144" t="s">
         <v>499</v>
       </c>
       <c r="D144" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>432</v>
+        <v>1469</v>
       </c>
       <c r="C145" t="s">
         <v>499</v>
       </c>
       <c r="D145" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B146" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C146" t="s">
         <v>499</v>
       </c>
       <c r="D146" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B147" t="s">
-        <v>1469</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s">
         <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C148" t="s">
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B149" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C149" t="s">
         <v>499</v>
       </c>
       <c r="D149" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B150" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="C150" t="s">
         <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>1089</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C151" t="s">
         <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B152" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C152" t="s">
         <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B153" t="s">
-        <v>425</v>
+        <v>1681</v>
       </c>
       <c r="C153" t="s">
         <v>499</v>
       </c>
       <c r="D153" t="s">
-        <v>1091</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B154" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="C154" t="s">
         <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>506</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B155" t="s">
-        <v>1681</v>
+        <v>352</v>
       </c>
       <c r="C155" t="s">
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>1992</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="C156" t="s">
         <v>499</v>
       </c>
       <c r="D156" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
-        <v>352</v>
+        <v>1470</v>
       </c>
       <c r="C157" t="s">
         <v>499</v>
       </c>
       <c r="D157" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B158" t="s">
-        <v>399</v>
+        <v>1850</v>
       </c>
       <c r="C158" t="s">
         <v>499</v>
       </c>
       <c r="D158" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B159" t="s">
-        <v>1470</v>
+        <v>330</v>
       </c>
       <c r="C159" t="s">
         <v>499</v>
       </c>
       <c r="D159" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B160" t="s">
-        <v>1850</v>
+        <v>446</v>
       </c>
       <c r="C160" t="s">
         <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B161" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="C161" t="s">
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B162" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C162" t="s">
         <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B163" t="s">
-        <v>430</v>
+        <v>57</v>
       </c>
       <c r="C163" t="s">
         <v>499</v>
       </c>
       <c r="D163" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>448</v>
+        <v>1857</v>
       </c>
       <c r="C164" t="s">
         <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B165" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
         <v>499</v>
       </c>
       <c r="D165" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B166" t="s">
-        <v>1857</v>
+        <v>452</v>
       </c>
       <c r="C166" t="s">
         <v>499</v>
       </c>
       <c r="D166" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B167" t="s">
-        <v>40</v>
+        <v>453</v>
       </c>
       <c r="C167" t="s">
         <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B168" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C168" t="s">
         <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B169" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C169" t="s">
         <v>499</v>
       </c>
       <c r="D169" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B170" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C170" t="s">
         <v>499</v>
       </c>
       <c r="D170" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B171" t="s">
-        <v>455</v>
+        <v>383</v>
       </c>
       <c r="C171" t="s">
         <v>499</v>
       </c>
       <c r="D171" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B172" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C172" t="s">
         <v>499</v>
       </c>
       <c r="D172" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B173" t="s">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="C173" t="s">
         <v>499</v>
       </c>
       <c r="D173" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C174" t="s">
         <v>499</v>
       </c>
       <c r="D174" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C175" t="s">
         <v>499</v>
       </c>
       <c r="D175" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C176" t="s">
         <v>499</v>
       </c>
       <c r="D176" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
-        <v>461</v>
+        <v>1656</v>
       </c>
       <c r="C177" t="s">
         <v>499</v>
       </c>
       <c r="D177" t="s">
-        <v>1120</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B178" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C178" t="s">
         <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
-        <v>1656</v>
+        <v>465</v>
       </c>
       <c r="C179" t="s">
         <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>1993</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B180" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C180" t="s">
         <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B181" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C181" t="s">
         <v>499</v>
       </c>
       <c r="D181" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B182" t="s">
-        <v>466</v>
+        <v>1983</v>
       </c>
       <c r="C182" t="s">
         <v>499</v>
       </c>
       <c r="D182" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C183" t="s">
         <v>499</v>
       </c>
       <c r="D183" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B184" t="s">
-        <v>1983</v>
+        <v>52</v>
       </c>
       <c r="C184" t="s">
         <v>499</v>
       </c>
       <c r="D184" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B185" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C185" t="s">
         <v>499</v>
       </c>
       <c r="D185" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B186" t="s">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="C186" t="s">
         <v>499</v>
       </c>
       <c r="D186" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B187" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
       <c r="C187" t="s">
         <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B188" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C188" t="s">
         <v>499</v>
       </c>
       <c r="D188" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B189" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="C189" t="s">
         <v>499</v>
       </c>
       <c r="D189" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>471</v>
+        <v>50</v>
       </c>
       <c r="C190" t="s">
         <v>499</v>
       </c>
       <c r="D190" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B191" t="s">
-        <v>472</v>
+        <v>55</v>
       </c>
       <c r="C191" t="s">
         <v>499</v>
       </c>
       <c r="D191" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="C192" t="s">
         <v>499</v>
       </c>
       <c r="D192" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="C193" t="s">
         <v>499</v>
       </c>
       <c r="D193" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="B194" t="s">
-        <v>362</v>
+        <v>53</v>
       </c>
       <c r="C194" t="s">
         <v>499</v>
       </c>
       <c r="D194" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C195" t="s">
         <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="C196" t="s">
         <v>499</v>
       </c>
       <c r="D196" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C197" t="s">
         <v>499</v>
       </c>
       <c r="D197" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>364</v>
+        <v>477</v>
       </c>
       <c r="C198" t="s">
         <v>499</v>
       </c>
       <c r="D198" t="s">
-        <v>1141</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="B199" t="s">
-        <v>476</v>
+        <v>1885</v>
       </c>
       <c r="C199" t="s">
         <v>499</v>
       </c>
       <c r="D199" t="s">
-        <v>1142</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C200" t="s">
         <v>499</v>
       </c>
       <c r="D200" t="s">
-        <v>1935</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B201" t="s">
-        <v>1885</v>
+        <v>479</v>
       </c>
       <c r="C201" t="s">
         <v>499</v>
       </c>
       <c r="D201" t="s">
-        <v>1994</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B202" t="s">
-        <v>478</v>
+        <v>311</v>
       </c>
       <c r="C202" t="s">
         <v>499</v>
       </c>
       <c r="D202" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B203" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C203" t="s">
         <v>499</v>
       </c>
       <c r="D203" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B204" t="s">
-        <v>311</v>
+        <v>1889</v>
       </c>
       <c r="C204" t="s">
         <v>499</v>
       </c>
       <c r="D204" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B205" t="s">
-        <v>480</v>
+        <v>1164</v>
       </c>
       <c r="C205" t="s">
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B206" t="s">
-        <v>1889</v>
+        <v>496</v>
       </c>
       <c r="C206" t="s">
         <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>1148</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B207" t="s">
-        <v>1164</v>
+        <v>481</v>
       </c>
       <c r="C207" t="s">
         <v>499</v>
       </c>
       <c r="D207" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
-        <v>496</v>
+        <v>1231</v>
       </c>
       <c r="C208" t="s">
         <v>499</v>
       </c>
       <c r="D208" t="s">
-        <v>507</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C209" t="s">
         <v>499</v>
       </c>
       <c r="D209" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>298</v>
+        <v>1465</v>
       </c>
       <c r="B210" t="s">
-        <v>1231</v>
+        <v>1471</v>
       </c>
       <c r="C210" t="s">
         <v>499</v>
       </c>
       <c r="D210" t="s">
-        <v>1152</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>299</v>
+        <v>1466</v>
       </c>
       <c r="B211" t="s">
-        <v>483</v>
+        <v>1472</v>
       </c>
       <c r="C211" t="s">
         <v>499</v>
       </c>
       <c r="D211" t="s">
-        <v>1154</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B212" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C212" t="s">
         <v>499</v>
       </c>
       <c r="D212" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C213" t="s">
-        <v>499</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C214" t="s">
-        <v>499</v>
-      </c>
-      <c r="D214" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -17430,10 +17398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413EFAA-BCE8-4C23-ABF4-28398464EA69}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18066,6 +18034,48 @@
       </c>
       <c r="D45" t="s">
         <v>1919</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -18080,7 +18090,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18493,7 +18503,9 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="76" t="s">
+        <v>313</v>
+      </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
@@ -18518,7 +18530,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="63"/>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>537</v>
       </c>
       <c r="I12" s="63" t="s">
@@ -18567,7 +18579,7 @@
       <c r="G13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="72" t="s">
         <v>80</v>
       </c>
       <c r="I13" s="64" t="s">
@@ -18615,7 +18627,7 @@
         <v>1707</v>
       </c>
       <c r="G14" s="65"/>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="73" t="s">
         <v>1718</v>
       </c>
       <c r="I14" s="65" t="s">
@@ -18650,13 +18662,15 @@
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="62"/>
+      <c r="D15" s="76" t="s">
+        <v>517</v>
+      </c>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
         <v>1943</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="76" t="s">
         <v>1944</v>
       </c>
       <c r="I15" s="62"/>
@@ -18681,8 +18695,8 @@
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="63" t="s">
-        <v>627</v>
+      <c r="D16" s="74" t="s">
+        <v>517</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>557</v>
@@ -18693,7 +18707,7 @@
       <c r="G16" s="63" t="s">
         <v>1657</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="74" t="s">
         <v>1659</v>
       </c>
       <c r="I16" s="63"/>
@@ -18730,7 +18744,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="72" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="64" t="s">
@@ -18742,7 +18756,7 @@
       <c r="G17" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="72" t="s">
         <v>91</v>
       </c>
       <c r="I17" s="64" t="s">
@@ -18780,8 +18794,8 @@
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
-      <c r="D18" s="65" t="s">
-        <v>1997</v>
+      <c r="D18" s="73" t="s">
+        <v>1709</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>1731</v>
@@ -18792,7 +18806,7 @@
       <c r="G18" s="65" t="s">
         <v>1769</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="73" t="s">
         <v>1770</v>
       </c>
       <c r="I18" s="65"/>
@@ -18878,7 +18892,7 @@
         <v>1689</v>
       </c>
       <c r="M20" s="63" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="N20" s="63" t="s">
         <v>595</v>
@@ -18977,7 +18991,7 @@
         <v>1742</v>
       </c>
       <c r="M22" s="65" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1743</v>
@@ -19222,7 +19236,7 @@
         <v>1746</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30" s="65" t="s">
         <v>1713</v>
@@ -19231,14 +19245,14 @@
         <v>1714</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="J30" s="65" t="s">
         <v>1747</v>
       </c>
       <c r="K30" s="65"/>
       <c r="L30" s="73" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="M30" s="65" t="s">
         <v>1748</v>
@@ -19590,7 +19604,7 @@
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="Q38" s="65" t="s">
         <v>1768</v>
@@ -19736,7 +19750,7 @@
         <v>1745</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H42" s="65" t="s">
         <v>1746</v>
@@ -19765,7 +19779,7 @@
       </c>
       <c r="Q42" s="65"/>
       <c r="R42" s="65" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="67"/>
@@ -20069,13 +20083,13 @@
         <v>1780</v>
       </c>
       <c r="F50" s="65" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G50" s="65" t="s">
         <v>1742</v>
       </c>
       <c r="H50" s="65" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I50" s="65"/>
       <c r="J50" s="65" t="s">
@@ -20413,7 +20427,7 @@
         <v>1786</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F62" s="65" t="s">
         <v>1787</v>
@@ -20592,7 +20606,7 @@
       </c>
       <c r="J66" s="65"/>
       <c r="K66" s="65" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="L66" s="65" t="s">
         <v>1799</v>
@@ -21106,7 +21120,7 @@
         <v>1778</v>
       </c>
       <c r="P78" s="65" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="Q78" s="65"/>
       <c r="R78" s="65" t="s">
@@ -21814,7 +21828,7 @@
         <v>1825</v>
       </c>
       <c r="Q98" s="65" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="R98" s="65" t="s">
         <v>1949</v>
@@ -22136,7 +22150,7 @@
       </c>
       <c r="L106" s="65"/>
       <c r="M106" s="65" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="N106" s="65" t="s">
         <v>1965</v>
@@ -22694,7 +22708,7 @@
         <v>1869</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F122" s="65"/>
       <c r="G122" s="65" t="s">
@@ -22723,7 +22737,7 @@
       </c>
       <c r="O122" s="65"/>
       <c r="P122" s="65" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="Q122" s="65" t="s">
         <v>1784</v>
@@ -22864,7 +22878,7 @@
         <v>1745</v>
       </c>
       <c r="F126" s="65" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126" s="65"/>
       <c r="H126" s="65" t="s">
@@ -22894,7 +22908,7 @@
         <v>1744</v>
       </c>
       <c r="R126" s="65" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="S126" s="31"/>
       <c r="V126" s="7"/>
@@ -23052,7 +23066,7 @@
       </c>
       <c r="P130" s="65"/>
       <c r="Q130" s="65" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="R130" s="65" t="s">
         <v>1756</v>
@@ -23266,7 +23280,7 @@
         <v>778</v>
       </c>
       <c r="L136" s="63" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="M136" s="63" t="s">
         <v>906</v>
@@ -23348,7 +23362,7 @@
       </c>
       <c r="F138" s="65"/>
       <c r="G138" s="65" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H138" s="65" t="s">
         <v>1768</v>
@@ -23363,7 +23377,7 @@
         <v>1825</v>
       </c>
       <c r="L138" s="65" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="M138" s="65" t="s">
         <v>1886</v>
@@ -23434,7 +23448,7 @@
       </c>
       <c r="L140" s="63"/>
       <c r="M140" s="63" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="N140" s="63" t="s">
         <v>796</v>
@@ -23533,7 +23547,7 @@
       </c>
       <c r="L142" s="65"/>
       <c r="M142" s="65" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="N142" s="65" t="s">
         <v>1834</v>
@@ -23687,7 +23701,7 @@
       </c>
       <c r="G146" s="65"/>
       <c r="H146" s="65" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I146" s="65"/>
       <c r="J146" s="65" t="s">
@@ -24016,7 +24030,7 @@
         <v>1897</v>
       </c>
       <c r="K158" s="65" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="L158" s="65"/>
       <c r="M158" s="65"/>
@@ -44568,19 +44582,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="149" priority="94">
+    <cfRule type="expression" dxfId="149" priority="93">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="93">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="147" priority="58">
+    <cfRule type="expression" dxfId="147" priority="57">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="57">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
@@ -44592,11 +44606,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="143" priority="54">
+    <cfRule type="expression" dxfId="143" priority="53">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="53">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -44624,35 +44638,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="135" priority="46">
+    <cfRule type="expression" dxfId="135" priority="45">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="45">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="133" priority="44">
+    <cfRule type="expression" dxfId="133" priority="43">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="43">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="131" priority="42">
+    <cfRule type="expression" dxfId="131" priority="41">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="41">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="129" priority="40">
+    <cfRule type="expression" dxfId="129" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -44688,11 +44702,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="119" priority="30">
+    <cfRule type="expression" dxfId="119" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -44712,19 +44726,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="113" priority="24">
+    <cfRule type="expression" dxfId="113" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="111" priority="22">
+    <cfRule type="expression" dxfId="111" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -44752,11 +44766,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="103" priority="14">
+    <cfRule type="expression" dxfId="103" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="13">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
@@ -44768,19 +44782,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="99" priority="10">
+    <cfRule type="expression" dxfId="99" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="9">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="97" priority="8">
+    <cfRule type="expression" dxfId="97" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
@@ -44808,43 +44822,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="89" priority="102">
+    <cfRule type="expression" dxfId="89" priority="101">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="102">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="101">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="87" priority="100">
+    <cfRule type="expression" dxfId="87" priority="99">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="100">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="99">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="85" priority="98">
+    <cfRule type="expression" dxfId="85" priority="97">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="97">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="83" priority="96">
+    <cfRule type="expression" dxfId="83" priority="95">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="96">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="95">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="81" priority="92">
+    <cfRule type="expression" dxfId="81" priority="91">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="91">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
@@ -44912,43 +44926,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="63" priority="74">
+    <cfRule type="expression" dxfId="63" priority="73">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="73">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="61" priority="72">
+    <cfRule type="expression" dxfId="61" priority="71">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="71">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="59" priority="70">
+    <cfRule type="expression" dxfId="59" priority="69">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="69">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="57" priority="68">
+    <cfRule type="expression" dxfId="57" priority="67">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="68">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="67">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="55" priority="66">
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="65">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
@@ -53206,43 +53220,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="41" priority="37">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="37">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="39" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="47">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -53254,19 +53268,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -53278,19 +53292,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -53302,35 +53316,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -53342,11 +53356,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D202684C-5CA1-4EFB-85D0-8B3BD6D260FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89608E0-8D7A-42CC-9877-8C253879E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="2019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="2017">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6986,6 +6986,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dióng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>zoh4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7058,20 +7062,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>漢字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台語音標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校正音標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(14, 7)</t>
   </si>
 </sst>
 </file>
@@ -14394,16 +14385,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2015</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>2016</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>2017</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>2018</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -14414,10 +14405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071A665-FE78-4FA7-83DC-4856CFF9C439}">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213:XFD213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17388,6 +17379,20 @@
       </c>
       <c r="D212" t="s">
         <v>1939</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>87</v>
+      </c>
+      <c r="B213" t="s">
+        <v>350</v>
+      </c>
+      <c r="C213" t="s">
+        <v>499</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1918</v>
       </c>
     </row>
   </sheetData>
@@ -17398,10 +17403,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413EFAA-BCE8-4C23-ABF4-28398464EA69}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18038,16 +18043,16 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1918</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -18061,21 +18066,7 @@
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>313</v>
-      </c>
-      <c r="C48" t="s">
-        <v>499</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1274</v>
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -18090,7 +18081,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18662,9 +18653,7 @@
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="76" t="s">
-        <v>517</v>
-      </c>
+      <c r="D15" s="76"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
@@ -18696,7 +18685,7 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="74" t="s">
-        <v>517</v>
+        <v>627</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>557</v>
@@ -18795,7 +18784,7 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="73" t="s">
-        <v>1709</v>
+        <v>1997</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>1731</v>
@@ -18892,7 +18881,7 @@
         <v>1689</v>
       </c>
       <c r="M20" s="63" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="N20" s="63" t="s">
         <v>595</v>
@@ -18991,7 +18980,7 @@
         <v>1742</v>
       </c>
       <c r="M22" s="65" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1743</v>
@@ -19236,7 +19225,7 @@
         <v>1746</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="65" t="s">
         <v>1713</v>
@@ -19245,14 +19234,14 @@
         <v>1714</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="J30" s="65" t="s">
         <v>1747</v>
       </c>
       <c r="K30" s="65"/>
       <c r="L30" s="73" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="M30" s="65" t="s">
         <v>1748</v>
@@ -19604,7 +19593,7 @@
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="Q38" s="65" t="s">
         <v>1768</v>
@@ -19750,7 +19739,7 @@
         <v>1745</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H42" s="65" t="s">
         <v>1746</v>
@@ -19779,7 +19768,7 @@
       </c>
       <c r="Q42" s="65"/>
       <c r="R42" s="65" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="67"/>
@@ -20083,13 +20072,13 @@
         <v>1780</v>
       </c>
       <c r="F50" s="65" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G50" s="65" t="s">
         <v>1742</v>
       </c>
       <c r="H50" s="65" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I50" s="65"/>
       <c r="J50" s="65" t="s">
@@ -20427,7 +20416,7 @@
         <v>1786</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="65" t="s">
         <v>1787</v>
@@ -20606,7 +20595,7 @@
       </c>
       <c r="J66" s="65"/>
       <c r="K66" s="65" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="L66" s="65" t="s">
         <v>1799</v>
@@ -21120,7 +21109,7 @@
         <v>1778</v>
       </c>
       <c r="P78" s="65" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="Q78" s="65"/>
       <c r="R78" s="65" t="s">
@@ -21828,7 +21817,7 @@
         <v>1825</v>
       </c>
       <c r="Q98" s="65" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="R98" s="65" t="s">
         <v>1949</v>
@@ -22150,7 +22139,7 @@
       </c>
       <c r="L106" s="65"/>
       <c r="M106" s="65" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="N106" s="65" t="s">
         <v>1965</v>
@@ -22708,7 +22697,7 @@
         <v>1869</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F122" s="65"/>
       <c r="G122" s="65" t="s">
@@ -22737,7 +22726,7 @@
       </c>
       <c r="O122" s="65"/>
       <c r="P122" s="65" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="Q122" s="65" t="s">
         <v>1784</v>
@@ -22878,7 +22867,7 @@
         <v>1745</v>
       </c>
       <c r="F126" s="65" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G126" s="65"/>
       <c r="H126" s="65" t="s">
@@ -22908,7 +22897,7 @@
         <v>1744</v>
       </c>
       <c r="R126" s="65" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="S126" s="31"/>
       <c r="V126" s="7"/>
@@ -23066,7 +23055,7 @@
       </c>
       <c r="P130" s="65"/>
       <c r="Q130" s="65" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="R130" s="65" t="s">
         <v>1756</v>
@@ -23280,7 +23269,7 @@
         <v>778</v>
       </c>
       <c r="L136" s="63" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="M136" s="63" t="s">
         <v>906</v>
@@ -23362,7 +23351,7 @@
       </c>
       <c r="F138" s="65"/>
       <c r="G138" s="65" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="H138" s="65" t="s">
         <v>1768</v>
@@ -23377,7 +23366,7 @@
         <v>1825</v>
       </c>
       <c r="L138" s="65" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="M138" s="65" t="s">
         <v>1886</v>
@@ -23448,7 +23437,7 @@
       </c>
       <c r="L140" s="63"/>
       <c r="M140" s="63" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="N140" s="63" t="s">
         <v>796</v>
@@ -23547,7 +23536,7 @@
       </c>
       <c r="L142" s="65"/>
       <c r="M142" s="65" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="N142" s="65" t="s">
         <v>1834</v>
@@ -23701,7 +23690,7 @@
       </c>
       <c r="G146" s="65"/>
       <c r="H146" s="65" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="I146" s="65"/>
       <c r="J146" s="65" t="s">
@@ -24030,7 +24019,7 @@
         <v>1897</v>
       </c>
       <c r="K158" s="65" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="L158" s="65"/>
       <c r="M158" s="65"/>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89608E0-8D7A-42CC-9877-8C253879E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53761F70-4AAD-4819-B0AC-2580337EC7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2475" windowWidth="26550" windowHeight="13005" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,6 @@
     <definedName name="顯示注音輸入">env!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="2017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6057" uniqueCount="2020">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7062,7 +7061,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(14, 7)</t>
+    <t>漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7547,7 +7559,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7748,6 +7760,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="5" applyFill="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -7763,26 +7779,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="8" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="5" applyFill="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="5" applyFill="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="5" applyFill="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="8" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -14385,16 +14394,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2016</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2017</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2018</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -14408,23 +14417,23 @@
   <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:XFD213"/>
+      <selection activeCell="K220" sqref="K220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2016</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2017</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2018</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -17403,9 +17412,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413EFAA-BCE8-4C23-ABF4-28398464EA69}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -17413,16 +17422,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2016</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2017</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2018</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -18053,20 +18062,6 @@
       </c>
       <c r="D46" t="s">
         <v>1274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" t="s">
-        <v>304</v>
-      </c>
-      <c r="C47" t="s">
-        <v>499</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -18081,7 +18076,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18217,7 +18212,7 @@
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="67" t="s">
         <v>1464</v>
       </c>
     </row>
@@ -18247,7 +18242,7 @@
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
       <c r="S4" s="19"/>
-      <c r="V4" s="67"/>
+      <c r="V4" s="68"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="20">
@@ -18285,7 +18280,7 @@
       <c r="Q5" s="64"/>
       <c r="R5" s="64"/>
       <c r="S5" s="21"/>
-      <c r="V5" s="67"/>
+      <c r="V5" s="68"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
@@ -18314,7 +18309,7 @@
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
       <c r="S6" s="25"/>
-      <c r="V6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
@@ -18335,11 +18330,11 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
       <c r="O7" s="62"/>
-      <c r="P7" s="76"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
       <c r="S7" s="29"/>
-      <c r="V7" s="67"/>
+      <c r="V7" s="68"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -18377,7 +18372,7 @@
       <c r="O8" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="63" t="s">
         <v>529</v>
       </c>
       <c r="Q8" s="63" t="s">
@@ -18385,7 +18380,7 @@
       </c>
       <c r="R8" s="63"/>
       <c r="S8" s="19"/>
-      <c r="V8" s="67"/>
+      <c r="V8" s="68"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="20">
@@ -18428,7 +18423,7 @@
       <c r="O9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="72" t="s">
+      <c r="P9" s="64" t="s">
         <v>77</v>
       </c>
       <c r="Q9" s="64" t="s">
@@ -18439,7 +18434,7 @@
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="67"/>
+      <c r="V9" s="68"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
@@ -18477,7 +18472,7 @@
       <c r="O10" s="65" t="s">
         <v>1713</v>
       </c>
-      <c r="P10" s="73" t="s">
+      <c r="P10" s="65" t="s">
         <v>1714</v>
       </c>
       <c r="Q10" s="65" t="s">
@@ -18485,7 +18480,7 @@
       </c>
       <c r="R10" s="65"/>
       <c r="S10" s="31"/>
-      <c r="V10" s="67"/>
+      <c r="V10" s="68"/>
     </row>
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
@@ -18494,7 +18489,7 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="62" t="s">
         <v>313</v>
       </c>
       <c r="I11" s="62"/>
@@ -18507,7 +18502,7 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
-      <c r="V11" s="67"/>
+      <c r="V11" s="68"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -18521,7 +18516,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="63"/>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="63" t="s">
         <v>537</v>
       </c>
       <c r="I12" s="63" t="s">
@@ -18551,7 +18546,7 @@
         <v>553</v>
       </c>
       <c r="S12" s="19"/>
-      <c r="V12" s="67"/>
+      <c r="V12" s="68"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="20">
@@ -18570,7 +18565,7 @@
       <c r="G13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="64" t="s">
         <v>80</v>
       </c>
       <c r="I13" s="64" t="s">
@@ -18604,7 +18599,7 @@
         <v>86</v>
       </c>
       <c r="S13" s="21"/>
-      <c r="V13" s="67"/>
+      <c r="V13" s="68"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
@@ -18618,7 +18613,7 @@
         <v>1707</v>
       </c>
       <c r="G14" s="65"/>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="65" t="s">
         <v>1718</v>
       </c>
       <c r="I14" s="65" t="s">
@@ -18648,29 +18643,29 @@
         <v>1730</v>
       </c>
       <c r="S14" s="31"/>
-      <c r="V14" s="67"/>
+      <c r="V14" s="68"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="73" t="s">
         <v>1943</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="62" t="s">
         <v>1944</v>
       </c>
       <c r="I15" s="62"/>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="62" t="s">
         <v>324</v>
       </c>
       <c r="K15" s="62"/>
-      <c r="L15" s="76" t="s">
+      <c r="L15" s="62" t="s">
         <v>1635</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="62" t="s">
         <v>571</v>
       </c>
       <c r="N15" s="62"/>
@@ -18680,7 +18675,7 @@
       </c>
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
-      <c r="V15" s="67"/>
+      <c r="V15" s="68"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -18693,23 +18688,23 @@
       <c r="F16" s="63" t="s">
         <v>559</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="74" t="s">
         <v>1657</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="63" t="s">
         <v>1659</v>
       </c>
       <c r="I16" s="63"/>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="63" t="s">
         <v>565</v>
       </c>
       <c r="K16" s="63" t="s">
         <v>567</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="63" t="s">
         <v>1661</v>
       </c>
-      <c r="M16" s="74" t="s">
+      <c r="M16" s="63" t="s">
         <v>571</v>
       </c>
       <c r="N16" s="63"/>
@@ -18726,7 +18721,7 @@
         <v>579</v>
       </c>
       <c r="S16" s="19"/>
-      <c r="V16" s="67"/>
+      <c r="V16" s="68"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="20">
@@ -18742,25 +18737,25 @@
       <c r="F17" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="64" t="s">
         <v>91</v>
       </c>
       <c r="I17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="64" t="s">
         <v>92</v>
       </c>
       <c r="K17" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="72" t="s">
+      <c r="L17" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="72" t="s">
+      <c r="M17" s="64" t="s">
         <v>95</v>
       </c>
       <c r="N17" s="64" t="s">
@@ -18779,11 +18774,11 @@
         <v>99</v>
       </c>
       <c r="S17" s="21"/>
-      <c r="V17" s="67"/>
+      <c r="V17" s="68"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="75" t="s">
         <v>1997</v>
       </c>
       <c r="E18" s="65" t="s">
@@ -18792,23 +18787,23 @@
       <c r="F18" s="65" t="s">
         <v>1703</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="75" t="s">
         <v>1769</v>
       </c>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="65" t="s">
         <v>1770</v>
       </c>
       <c r="I18" s="65"/>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="65" t="s">
         <v>1732</v>
       </c>
       <c r="K18" s="65" t="s">
         <v>1733</v>
       </c>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="65" t="s">
         <v>1951</v>
       </c>
-      <c r="M18" s="73" t="s">
+      <c r="M18" s="65" t="s">
         <v>1734</v>
       </c>
       <c r="N18" s="65"/>
@@ -18825,7 +18820,7 @@
         <v>1737</v>
       </c>
       <c r="S18" s="31"/>
-      <c r="V18" s="67"/>
+      <c r="V18" s="68"/>
     </row>
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -18851,7 +18846,7 @@
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
-      <c r="V19" s="67"/>
+      <c r="V19" s="68"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -18897,7 +18892,7 @@
       </c>
       <c r="R20" s="63"/>
       <c r="S20" s="19"/>
-      <c r="V20" s="67"/>
+      <c r="V20" s="68"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="20">
@@ -18950,7 +18945,7 @@
         <v>30</v>
       </c>
       <c r="S21" s="21"/>
-      <c r="V21" s="67"/>
+      <c r="V21" s="68"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
@@ -18996,7 +18991,7 @@
       </c>
       <c r="R22" s="65"/>
       <c r="S22" s="31"/>
-      <c r="V22" s="67"/>
+      <c r="V22" s="68"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -19010,17 +19005,17 @@
       <c r="J23" s="62"/>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
-      <c r="M23" s="75"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="62"/>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
-      <c r="V23" s="67"/>
+      <c r="V23" s="68"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="74"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
       <c r="G24" s="63"/>
@@ -19029,21 +19024,21 @@
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
-      <c r="M24" s="74"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="63"/>
       <c r="O24" s="63"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="63"/>
       <c r="R24" s="63"/>
       <c r="S24" s="19"/>
-      <c r="V24" s="67"/>
+      <c r="V24" s="68"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="20">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="72" t="str">
+      <c r="D25" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19056,18 +19051,18 @@
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
       <c r="L25" s="64"/>
-      <c r="M25" s="72"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
       <c r="P25" s="64"/>
       <c r="Q25" s="64"/>
       <c r="R25" s="64"/>
       <c r="S25" s="21"/>
-      <c r="V25" s="67"/>
+      <c r="V25" s="68"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
-      <c r="D26" s="73"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="65"/>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
@@ -19076,14 +19071,14 @@
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
       <c r="L26" s="65"/>
-      <c r="M26" s="73"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
       <c r="R26" s="65"/>
       <c r="S26" s="31"/>
-      <c r="V26" s="67"/>
+      <c r="V26" s="68"/>
     </row>
     <row r="27" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -19096,8 +19091,8 @@
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
       <c r="K27" s="62"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="62"/>
       <c r="O27" s="62"/>
       <c r="P27" s="62"/>
@@ -19107,11 +19102,11 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="67"/>
+      <c r="V27" s="68"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="63" t="s">
         <v>1689</v>
       </c>
       <c r="E28" s="63" t="s">
@@ -19123,7 +19118,7 @@
       <c r="G28" s="63" t="s">
         <v>527</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="63" t="s">
         <v>529</v>
       </c>
       <c r="I28" s="63" t="s">
@@ -19133,7 +19128,7 @@
         <v>609</v>
       </c>
       <c r="K28" s="63"/>
-      <c r="L28" s="74" t="s">
+      <c r="L28" s="63" t="s">
         <v>611</v>
       </c>
       <c r="M28" s="63" t="s">
@@ -19157,14 +19152,14 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="67"/>
+      <c r="V28" s="68"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="20">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="64" t="s">
         <v>1482</v>
       </c>
       <c r="E29" s="64" t="s">
@@ -19176,7 +19171,7 @@
       <c r="G29" s="64" t="s">
         <v>1474</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="64" t="s">
         <v>1475</v>
       </c>
       <c r="I29" s="64" t="s">
@@ -19188,7 +19183,7 @@
       <c r="K29" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="64" t="s">
         <v>1393</v>
       </c>
       <c r="M29" s="64" t="s">
@@ -19214,11 +19209,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="67"/>
+      <c r="V29" s="68"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="65" t="s">
         <v>1742</v>
       </c>
       <c r="E30" s="65" t="s">
@@ -19230,7 +19225,7 @@
       <c r="G30" s="65" t="s">
         <v>1713</v>
       </c>
-      <c r="H30" s="73" t="s">
+      <c r="H30" s="65" t="s">
         <v>1714</v>
       </c>
       <c r="I30" s="65" t="s">
@@ -19240,7 +19235,7 @@
         <v>1747</v>
       </c>
       <c r="K30" s="65"/>
-      <c r="L30" s="73" t="s">
+      <c r="L30" s="65" t="s">
         <v>2002</v>
       </c>
       <c r="M30" s="65" t="s">
@@ -19264,7 +19259,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="67"/>
+      <c r="V30" s="68"/>
     </row>
     <row r="31" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -19278,7 +19273,7 @@
       </c>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
-      <c r="K31" s="76"/>
+      <c r="K31" s="62"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62" t="s">
         <v>539</v>
@@ -19294,7 +19289,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="67"/>
+      <c r="V31" s="68"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -19308,14 +19303,14 @@
       <c r="G32" s="63" t="s">
         <v>625</v>
       </c>
-      <c r="H32" s="74" t="s">
+      <c r="H32" s="63" t="s">
         <v>1948</v>
       </c>
       <c r="I32" s="63" t="s">
         <v>629</v>
       </c>
       <c r="J32" s="63"/>
-      <c r="K32" s="74" t="s">
+      <c r="K32" s="63" t="s">
         <v>631</v>
       </c>
       <c r="L32" s="63" t="s">
@@ -19342,7 +19337,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="67"/>
+      <c r="V32" s="68"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="20">
@@ -19361,7 +19356,7 @@
       <c r="G33" s="64" t="s">
         <v>1489</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="64" t="s">
         <v>1405</v>
       </c>
       <c r="I33" s="64" t="s">
@@ -19370,7 +19365,7 @@
       <c r="J33" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="64" t="s">
         <v>1491</v>
       </c>
       <c r="L33" s="64" t="s">
@@ -19395,7 +19390,7 @@
         <v>1494</v>
       </c>
       <c r="S33" s="21"/>
-      <c r="V33" s="67"/>
+      <c r="V33" s="68"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
@@ -19409,14 +19404,14 @@
       <c r="G34" s="65" t="s">
         <v>1754</v>
       </c>
-      <c r="H34" s="73" t="s">
+      <c r="H34" s="65" t="s">
         <v>1949</v>
       </c>
       <c r="I34" s="65" t="s">
         <v>1756</v>
       </c>
       <c r="J34" s="65"/>
-      <c r="K34" s="73" t="s">
+      <c r="K34" s="65" t="s">
         <v>1757</v>
       </c>
       <c r="L34" s="65" t="s">
@@ -19439,7 +19434,7 @@
         <v>1734</v>
       </c>
       <c r="S34" s="31"/>
-      <c r="V34" s="67"/>
+      <c r="V34" s="68"/>
     </row>
     <row r="35" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -19461,7 +19456,7 @@
       <c r="P35" s="62"/>
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
-      <c r="V35" s="67"/>
+      <c r="V35" s="68"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -19505,7 +19500,7 @@
         <v>559</v>
       </c>
       <c r="S36" s="19"/>
-      <c r="V36" s="67"/>
+      <c r="V36" s="68"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="20">
@@ -19558,7 +19553,7 @@
         <v>1478</v>
       </c>
       <c r="S37" s="21"/>
-      <c r="V37" s="67"/>
+      <c r="V37" s="68"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
@@ -19602,7 +19597,7 @@
         <v>1703</v>
       </c>
       <c r="S38" s="31"/>
-      <c r="V38" s="67"/>
+      <c r="V38" s="68"/>
     </row>
     <row r="39" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -19626,7 +19621,7 @@
       <c r="P39" s="62"/>
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
-      <c r="V39" s="67"/>
+      <c r="V39" s="68"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -19672,7 +19667,7 @@
         <v>665</v>
       </c>
       <c r="S40" s="19"/>
-      <c r="V40" s="67"/>
+      <c r="V40" s="68"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="20">
@@ -19725,7 +19720,7 @@
         <v>1439</v>
       </c>
       <c r="S41" s="21"/>
-      <c r="V41" s="67"/>
+      <c r="V41" s="68"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
@@ -19754,7 +19749,7 @@
       <c r="L42" s="65" t="s">
         <v>1873</v>
       </c>
-      <c r="M42" s="73" t="s">
+      <c r="M42" s="65" t="s">
         <v>1745</v>
       </c>
       <c r="N42" s="65" t="s">
@@ -19763,7 +19758,7 @@
       <c r="O42" s="65" t="s">
         <v>1773</v>
       </c>
-      <c r="P42" s="73" t="s">
+      <c r="P42" s="65" t="s">
         <v>1744</v>
       </c>
       <c r="Q42" s="65"/>
@@ -19771,7 +19766,7 @@
         <v>2005</v>
       </c>
       <c r="S42" s="31"/>
-      <c r="V42" s="67"/>
+      <c r="V42" s="68"/>
     </row>
     <row r="43" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -19797,7 +19792,7 @@
       <c r="R43" s="62" t="s">
         <v>1943</v>
       </c>
-      <c r="V43" s="67"/>
+      <c r="V43" s="68"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -19826,14 +19821,14 @@
       <c r="L44" s="63" t="s">
         <v>675</v>
       </c>
-      <c r="M44" s="74" t="s">
+      <c r="M44" s="63" t="s">
         <v>1663</v>
       </c>
       <c r="N44" s="63"/>
       <c r="O44" s="63" t="s">
         <v>649</v>
       </c>
-      <c r="P44" s="74" t="s">
+      <c r="P44" s="63" t="s">
         <v>573</v>
       </c>
       <c r="Q44" s="63" t="s">
@@ -19843,7 +19838,7 @@
         <v>541</v>
       </c>
       <c r="S44" s="19"/>
-      <c r="V44" s="67"/>
+      <c r="V44" s="68"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="20">
@@ -19877,7 +19872,7 @@
       <c r="L45" s="64" t="s">
         <v>1508</v>
       </c>
-      <c r="M45" s="72" t="s">
+      <c r="M45" s="64" t="s">
         <v>1509</v>
       </c>
       <c r="N45" s="64" t="s">
@@ -19886,7 +19881,7 @@
       <c r="O45" s="64" t="s">
         <v>1440</v>
       </c>
-      <c r="P45" s="72" t="s">
+      <c r="P45" s="64" t="s">
         <v>1510</v>
       </c>
       <c r="Q45" s="64" t="s">
@@ -19896,7 +19891,7 @@
         <v>1429</v>
       </c>
       <c r="S45" s="21"/>
-      <c r="V45" s="67"/>
+      <c r="V45" s="68"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
@@ -19925,7 +19920,7 @@
       <c r="L46" s="65" t="s">
         <v>1778</v>
       </c>
-      <c r="M46" s="73" t="s">
+      <c r="M46" s="65" t="s">
         <v>1803</v>
       </c>
       <c r="N46" s="65"/>
@@ -19942,7 +19937,7 @@
         <v>1873</v>
       </c>
       <c r="S46" s="31"/>
-      <c r="V46" s="67"/>
+      <c r="V46" s="68"/>
     </row>
     <row r="47" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -19966,7 +19961,7 @@
       <c r="R47" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="V47" s="67"/>
+      <c r="V47" s="68"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -20010,7 +20005,7 @@
         <v>695</v>
       </c>
       <c r="S48" s="19"/>
-      <c r="V48" s="67"/>
+      <c r="V48" s="68"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="20">
@@ -20063,7 +20058,7 @@
         <v>1514</v>
       </c>
       <c r="S49" s="21"/>
-      <c r="V49" s="67"/>
+      <c r="V49" s="68"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
@@ -20107,7 +20102,7 @@
         <v>1952</v>
       </c>
       <c r="S50" s="31"/>
-      <c r="V50" s="67"/>
+      <c r="V50" s="68"/>
     </row>
     <row r="51" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -20127,7 +20122,7 @@
       <c r="P51" s="62"/>
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
-      <c r="V51" s="67"/>
+      <c r="V51" s="68"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -20147,7 +20142,7 @@
       <c r="Q52" s="63"/>
       <c r="R52" s="63"/>
       <c r="S52" s="19"/>
-      <c r="V52" s="67"/>
+      <c r="V52" s="68"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="20">
@@ -20176,7 +20171,7 @@
       <c r="Q53" s="64"/>
       <c r="R53" s="64"/>
       <c r="S53" s="21"/>
-      <c r="V53" s="67"/>
+      <c r="V53" s="68"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
@@ -20196,7 +20191,7 @@
       <c r="Q54" s="65"/>
       <c r="R54" s="65"/>
       <c r="S54" s="31"/>
-      <c r="V54" s="67"/>
+      <c r="V54" s="68"/>
     </row>
     <row r="55" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -20216,7 +20211,7 @@
       <c r="P55" s="62"/>
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
-      <c r="V55" s="67"/>
+      <c r="V55" s="68"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -20236,7 +20231,7 @@
       <c r="Q56" s="63"/>
       <c r="R56" s="63"/>
       <c r="S56" s="19"/>
-      <c r="V56" s="67"/>
+      <c r="V56" s="68"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="20">
@@ -20263,7 +20258,7 @@
       <c r="Q57" s="64"/>
       <c r="R57" s="64"/>
       <c r="S57" s="21"/>
-      <c r="V57" s="67"/>
+      <c r="V57" s="68"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
@@ -20283,7 +20278,7 @@
       <c r="Q58" s="65"/>
       <c r="R58" s="65"/>
       <c r="S58" s="31"/>
-      <c r="V58" s="67"/>
+      <c r="V58" s="68"/>
     </row>
     <row r="59" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -20309,7 +20304,7 @@
       </c>
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
-      <c r="V59" s="67"/>
+      <c r="V59" s="68"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -20355,7 +20350,7 @@
         <v>710</v>
       </c>
       <c r="S60" s="19"/>
-      <c r="V60" s="67"/>
+      <c r="V60" s="68"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="20">
@@ -20408,7 +20403,7 @@
         <v>1522</v>
       </c>
       <c r="S61" s="21"/>
-      <c r="V61" s="67"/>
+      <c r="V61" s="68"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
@@ -20454,7 +20449,7 @@
         <v>1792</v>
       </c>
       <c r="S62" s="31"/>
-      <c r="V62" s="67"/>
+      <c r="V62" s="68"/>
     </row>
     <row r="63" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -20476,7 +20471,7 @@
       <c r="P63" s="62"/>
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
-      <c r="V63" s="67"/>
+      <c r="V63" s="68"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -20520,7 +20515,7 @@
         <v>728</v>
       </c>
       <c r="S64" s="19"/>
-      <c r="V64" s="67"/>
+      <c r="V64" s="68"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="20">
@@ -20573,7 +20568,7 @@
         <v>1531</v>
       </c>
       <c r="S65" s="21"/>
-      <c r="V65" s="67"/>
+      <c r="V65" s="68"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
@@ -20617,7 +20612,7 @@
         <v>1802</v>
       </c>
       <c r="S66" s="31"/>
-      <c r="V66" s="67"/>
+      <c r="V66" s="68"/>
     </row>
     <row r="67" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -20645,7 +20640,7 @@
       <c r="P67" s="62"/>
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
-      <c r="V67" s="67"/>
+      <c r="V67" s="68"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -20689,7 +20684,7 @@
         <v>535</v>
       </c>
       <c r="S68" s="19"/>
-      <c r="V68" s="67"/>
+      <c r="V68" s="68"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="20">
@@ -20742,7 +20737,7 @@
         <v>1540</v>
       </c>
       <c r="S69" s="21"/>
-      <c r="V69" s="67"/>
+      <c r="V69" s="68"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
@@ -20786,7 +20781,7 @@
         <v>1809</v>
       </c>
       <c r="S70" s="31"/>
-      <c r="V70" s="67"/>
+      <c r="V70" s="68"/>
     </row>
     <row r="71" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -20810,7 +20805,7 @@
       <c r="R71" s="62" t="s">
         <v>1644</v>
       </c>
-      <c r="V71" s="67"/>
+      <c r="V71" s="68"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -20854,7 +20849,7 @@
         <v>1673</v>
       </c>
       <c r="S72" s="19"/>
-      <c r="V72" s="67"/>
+      <c r="V72" s="68"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="20">
@@ -20907,7 +20902,7 @@
         <v>1546</v>
       </c>
       <c r="S73" s="21"/>
-      <c r="V73" s="67"/>
+      <c r="V73" s="68"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
@@ -20951,7 +20946,7 @@
         <v>1977</v>
       </c>
       <c r="S74" s="31"/>
-      <c r="V74" s="67"/>
+      <c r="V74" s="68"/>
     </row>
     <row r="75" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -20975,7 +20970,7 @@
       <c r="P75" s="62"/>
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
-      <c r="V75" s="67"/>
+      <c r="V75" s="68"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -21019,7 +21014,7 @@
         <v>776</v>
       </c>
       <c r="S76" s="19"/>
-      <c r="V76" s="67"/>
+      <c r="V76" s="68"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="20">
@@ -21072,7 +21067,7 @@
         <v>1441</v>
       </c>
       <c r="S77" s="21"/>
-      <c r="V77" s="67"/>
+      <c r="V77" s="68"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
@@ -21116,7 +21111,7 @@
         <v>1824</v>
       </c>
       <c r="S78" s="31"/>
-      <c r="V78" s="67"/>
+      <c r="V78" s="68"/>
     </row>
     <row r="79" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -21136,7 +21131,7 @@
       <c r="P79" s="62"/>
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
-      <c r="V79" s="67"/>
+      <c r="V79" s="68"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -21166,7 +21161,7 @@
       <c r="Q80" s="63"/>
       <c r="R80" s="63"/>
       <c r="S80" s="19"/>
-      <c r="V80" s="67"/>
+      <c r="V80" s="68"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="20">
@@ -21205,7 +21200,7 @@
       <c r="Q81" s="64"/>
       <c r="R81" s="64"/>
       <c r="S81" s="21"/>
-      <c r="V81" s="67"/>
+      <c r="V81" s="68"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
@@ -21235,7 +21230,7 @@
       <c r="Q82" s="65"/>
       <c r="R82" s="65"/>
       <c r="S82" s="31"/>
-      <c r="V82" s="68"/>
+      <c r="V82" s="69"/>
     </row>
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -23626,7 +23621,7 @@
       <c r="S144" s="19"/>
       <c r="V144" s="7"/>
     </row>
-    <row r="145" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="145" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B145" s="20">
         <f>B141+1</f>
         <v>36</v>
@@ -23679,7 +23674,7 @@
       <c r="S145" s="21"/>
       <c r="V145" s="7"/>
     </row>
-    <row r="146" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="146" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="22"/>
       <c r="D146" s="65" t="s">
         <v>1965</v>
@@ -23719,7 +23714,7 @@
       <c r="S146" s="31"/>
       <c r="V146" s="7"/>
     </row>
-    <row r="147" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="147" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="34"/>
       <c r="D147" s="62"/>
@@ -23739,7 +23734,7 @@
       <c r="R147" s="62"/>
       <c r="V147" s="36"/>
     </row>
-    <row r="148" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="148" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="17"/>
       <c r="D148" s="63"/>
       <c r="E148" s="63"/>
@@ -23759,7 +23754,7 @@
       <c r="S148" s="19"/>
       <c r="V148" s="7"/>
     </row>
-    <row r="149" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="149" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B149" s="20">
         <f>B145+1</f>
         <v>37</v>
@@ -23786,7 +23781,7 @@
       <c r="S149" s="21"/>
       <c r="V149" s="7"/>
     </row>
-    <row r="150" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="150" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="22"/>
       <c r="D150" s="65"/>
       <c r="E150" s="65"/>
@@ -23806,7 +23801,7 @@
       <c r="S150" s="31"/>
       <c r="V150" s="7"/>
     </row>
-    <row r="151" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="151" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B151" s="12"/>
       <c r="C151" s="34"/>
       <c r="D151" s="62"/>
@@ -23826,7 +23821,7 @@
       <c r="R151" s="62"/>
       <c r="V151" s="36"/>
     </row>
-    <row r="152" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="152" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="17"/>
       <c r="D152" s="63"/>
       <c r="E152" s="63"/>
@@ -23846,7 +23841,7 @@
       <c r="S152" s="19"/>
       <c r="V152" s="7"/>
     </row>
-    <row r="153" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="153" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B153" s="20">
         <f>B149+1</f>
         <v>38</v>
@@ -23873,7 +23868,7 @@
       <c r="S153" s="21"/>
       <c r="V153" s="7"/>
     </row>
-    <row r="154" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="154" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="22"/>
       <c r="D154" s="65"/>
       <c r="E154" s="65"/>
@@ -23893,7 +23888,7 @@
       <c r="S154" s="31"/>
       <c r="V154" s="7"/>
     </row>
-    <row r="155" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="155" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B155" s="12"/>
       <c r="C155" s="34"/>
       <c r="D155" s="62"/>
@@ -23915,7 +23910,7 @@
       <c r="R155" s="62"/>
       <c r="V155" s="36"/>
     </row>
-    <row r="156" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="156" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="17"/>
       <c r="D156" s="63" t="s">
         <v>904</v>
@@ -23951,8 +23946,7 @@
       <c r="S156" s="19"/>
       <c r="V156" s="7"/>
     </row>
-    <row r="157" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A157" s="71"/>
+    <row r="157" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B157" s="20">
         <f>B153+1</f>
         <v>39</v>
@@ -23995,7 +23989,7 @@
       <c r="S157" s="21"/>
       <c r="V157" s="7"/>
     </row>
-    <row r="158" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="158" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="22"/>
       <c r="D158" s="65" t="s">
         <v>1884</v>
@@ -24031,7 +24025,7 @@
       <c r="S158" s="31"/>
       <c r="V158" s="7"/>
     </row>
-    <row r="159" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
+    <row r="159" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B159" s="12"/>
       <c r="C159" s="34"/>
       <c r="D159" s="62"/>
@@ -24051,7 +24045,7 @@
       <c r="R159" s="62"/>
       <c r="V159" s="36"/>
     </row>
-    <row r="160" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
+    <row r="160" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="17"/>
       <c r="D160" s="63"/>
       <c r="E160" s="63"/>
@@ -34215,7 +34209,7 @@
         <v>62</v>
       </c>
       <c r="T3" s="16"/>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="67" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -34263,7 +34257,7 @@
         <v>62</v>
       </c>
       <c r="S4" s="19"/>
-      <c r="V4" s="67"/>
+      <c r="V4" s="68"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="20">
@@ -34315,7 +34309,7 @@
         <v>291</v>
       </c>
       <c r="S5" s="21"/>
-      <c r="V5" s="67"/>
+      <c r="V5" s="68"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
@@ -34362,7 +34356,7 @@
         <v>62</v>
       </c>
       <c r="S6" s="25"/>
-      <c r="V6" s="67"/>
+      <c r="V6" s="68"/>
     </row>
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
@@ -34393,7 +34387,7 @@
       <c r="Q7" s="56"/>
       <c r="R7" s="56"/>
       <c r="S7" s="29"/>
-      <c r="V7" s="67"/>
+      <c r="V7" s="68"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -34437,7 +34431,7 @@
         <v>1227</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="V8" s="67"/>
+      <c r="V8" s="68"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="20">
@@ -34491,7 +34485,7 @@
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="67"/>
+      <c r="V9" s="68"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
@@ -34535,7 +34529,7 @@
         <v>399</v>
       </c>
       <c r="S10" s="31"/>
-      <c r="V10" s="67"/>
+      <c r="V10" s="68"/>
     </row>
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
@@ -34559,7 +34553,7 @@
       <c r="P11" s="56"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="56"/>
-      <c r="V11" s="67"/>
+      <c r="V11" s="68"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -34589,7 +34583,7 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="19"/>
-      <c r="V12" s="67"/>
+      <c r="V12" s="68"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="20">
@@ -34628,7 +34622,7 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="21"/>
-      <c r="V13" s="67"/>
+      <c r="V13" s="68"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
@@ -34658,7 +34652,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="31"/>
-      <c r="V14" s="67"/>
+      <c r="V14" s="68"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -34678,7 +34672,7 @@
       <c r="P15" s="56"/>
       <c r="Q15" s="56"/>
       <c r="R15" s="56"/>
-      <c r="V15" s="67"/>
+      <c r="V15" s="68"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -34698,7 +34692,7 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="19"/>
-      <c r="V16" s="67"/>
+      <c r="V16" s="68"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="20">
@@ -34723,7 +34717,7 @@
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
       <c r="S17" s="21"/>
-      <c r="V17" s="67"/>
+      <c r="V17" s="68"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
@@ -34743,7 +34737,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="31"/>
-      <c r="V18" s="67"/>
+      <c r="V18" s="68"/>
     </row>
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -34785,7 +34779,7 @@
       <c r="R19" s="56" t="s">
         <v>1178</v>
       </c>
-      <c r="V19" s="67"/>
+      <c r="V19" s="68"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -34833,7 +34827,7 @@
         <v>1178</v>
       </c>
       <c r="S20" s="19"/>
-      <c r="V20" s="67"/>
+      <c r="V20" s="68"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="20">
@@ -34886,7 +34880,7 @@
         <v>185</v>
       </c>
       <c r="S21" s="21"/>
-      <c r="V21" s="67"/>
+      <c r="V21" s="68"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
@@ -34934,7 +34928,7 @@
         <v>1323</v>
       </c>
       <c r="S22" s="31"/>
-      <c r="V22" s="67"/>
+      <c r="V22" s="68"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -34954,7 +34948,7 @@
       <c r="P23" s="56"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
-      <c r="V23" s="67"/>
+      <c r="V23" s="68"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
@@ -34974,7 +34968,7 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
-      <c r="V24" s="67"/>
+      <c r="V24" s="68"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="20">
@@ -35001,7 +34995,7 @@
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
       <c r="S25" s="21"/>
-      <c r="V25" s="67"/>
+      <c r="V25" s="68"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
@@ -35021,7 +35015,7 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="31"/>
-      <c r="V26" s="67"/>
+      <c r="V26" s="68"/>
     </row>
     <row r="27" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -35045,7 +35039,7 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="67"/>
+      <c r="V27" s="68"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -35069,7 +35063,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="67"/>
+      <c r="V28" s="68"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="20">
@@ -35098,7 +35092,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="67"/>
+      <c r="V29" s="68"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
@@ -35122,7 +35116,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="67"/>
+      <c r="V30" s="68"/>
     </row>
     <row r="31" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -35162,7 +35156,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="67"/>
+      <c r="V31" s="68"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -35212,7 +35206,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="67"/>
+      <c r="V32" s="68"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="20">
@@ -35265,7 +35259,7 @@
         <v>164</v>
       </c>
       <c r="S33" s="21"/>
-      <c r="V33" s="67"/>
+      <c r="V33" s="68"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
@@ -35311,7 +35305,7 @@
         <v>1320</v>
       </c>
       <c r="S34" s="31"/>
-      <c r="V34" s="67"/>
+      <c r="V34" s="68"/>
     </row>
     <row r="35" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -35337,7 +35331,7 @@
       <c r="P35" s="56"/>
       <c r="Q35" s="56"/>
       <c r="R35" s="56"/>
-      <c r="V35" s="67"/>
+      <c r="V35" s="68"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -35363,7 +35357,7 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="19"/>
-      <c r="V36" s="67"/>
+      <c r="V36" s="68"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="20">
@@ -35400,7 +35394,7 @@
       <c r="Q37" s="41"/>
       <c r="R37" s="41"/>
       <c r="S37" s="21"/>
-      <c r="V37" s="67"/>
+      <c r="V37" s="68"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
@@ -35426,7 +35420,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="31"/>
-      <c r="V38" s="67"/>
+      <c r="V38" s="68"/>
     </row>
     <row r="39" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -35446,7 +35440,7 @@
       <c r="P39" s="56"/>
       <c r="Q39" s="56"/>
       <c r="R39" s="56"/>
-      <c r="V39" s="67"/>
+      <c r="V39" s="68"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -35466,7 +35460,7 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
       <c r="S40" s="19"/>
-      <c r="V40" s="67"/>
+      <c r="V40" s="68"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="20">
@@ -35491,7 +35485,7 @@
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
       <c r="S41" s="21"/>
-      <c r="V41" s="67"/>
+      <c r="V41" s="68"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
@@ -35511,7 +35505,7 @@
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="31"/>
-      <c r="V42" s="67"/>
+      <c r="V42" s="68"/>
     </row>
     <row r="43" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -35539,7 +35533,7 @@
         <v>1302</v>
       </c>
       <c r="R43" s="56"/>
-      <c r="V43" s="67"/>
+      <c r="V43" s="68"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -35585,7 +35579,7 @@
         <v>1293</v>
       </c>
       <c r="S44" s="19"/>
-      <c r="V44" s="67"/>
+      <c r="V44" s="68"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="20">
@@ -35638,7 +35632,7 @@
         <v>1194</v>
       </c>
       <c r="S45" s="21"/>
-      <c r="V45" s="67"/>
+      <c r="V45" s="68"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
@@ -35684,7 +35678,7 @@
         <v>1369</v>
       </c>
       <c r="S46" s="31"/>
-      <c r="V46" s="67"/>
+      <c r="V46" s="68"/>
     </row>
     <row r="47" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -35710,7 +35704,7 @@
       <c r="P47" s="56"/>
       <c r="Q47" s="56"/>
       <c r="R47" s="56"/>
-      <c r="V47" s="67"/>
+      <c r="V47" s="68"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -35736,7 +35730,7 @@
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
       <c r="S48" s="19"/>
-      <c r="V48" s="67"/>
+      <c r="V48" s="68"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="20">
@@ -35769,7 +35763,7 @@
       <c r="Q49" s="41"/>
       <c r="R49" s="41"/>
       <c r="S49" s="21"/>
-      <c r="V49" s="67"/>
+      <c r="V49" s="68"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
@@ -35795,7 +35789,7 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="31"/>
-      <c r="V50" s="67"/>
+      <c r="V50" s="68"/>
     </row>
     <row r="51" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -35815,7 +35809,7 @@
       <c r="P51" s="56"/>
       <c r="Q51" s="56"/>
       <c r="R51" s="56"/>
-      <c r="V51" s="67"/>
+      <c r="V51" s="68"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -35835,7 +35829,7 @@
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
       <c r="S52" s="19"/>
-      <c r="V52" s="67"/>
+      <c r="V52" s="68"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="20">
@@ -35860,7 +35854,7 @@
       <c r="Q53" s="41"/>
       <c r="R53" s="41"/>
       <c r="S53" s="21"/>
-      <c r="V53" s="67"/>
+      <c r="V53" s="68"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
@@ -35880,7 +35874,7 @@
       <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
       <c r="S54" s="31"/>
-      <c r="V54" s="67"/>
+      <c r="V54" s="68"/>
     </row>
     <row r="55" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -35912,7 +35906,7 @@
       </c>
       <c r="Q55" s="56"/>
       <c r="R55" s="56"/>
-      <c r="V55" s="67"/>
+      <c r="V55" s="68"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -35958,7 +35952,7 @@
         <v>57</v>
       </c>
       <c r="S56" s="19"/>
-      <c r="V56" s="67"/>
+      <c r="V56" s="68"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="20">
@@ -36011,7 +36005,7 @@
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
-      <c r="V57" s="67"/>
+      <c r="V57" s="68"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
@@ -36057,7 +36051,7 @@
         <v>1320</v>
       </c>
       <c r="S58" s="31"/>
-      <c r="V58" s="67"/>
+      <c r="V58" s="68"/>
     </row>
     <row r="59" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -36079,7 +36073,7 @@
       <c r="P59" s="56"/>
       <c r="Q59" s="56"/>
       <c r="R59" s="56"/>
-      <c r="V59" s="67"/>
+      <c r="V59" s="68"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -36105,7 +36099,7 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="19"/>
-      <c r="V60" s="67"/>
+      <c r="V60" s="68"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="20">
@@ -36138,7 +36132,7 @@
       <c r="Q61" s="41"/>
       <c r="R61" s="41"/>
       <c r="S61" s="21"/>
-      <c r="V61" s="67"/>
+      <c r="V61" s="68"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
@@ -36164,7 +36158,7 @@
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="31"/>
-      <c r="V62" s="67"/>
+      <c r="V62" s="68"/>
     </row>
     <row r="63" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -36184,7 +36178,7 @@
       <c r="P63" s="56"/>
       <c r="Q63" s="56"/>
       <c r="R63" s="56"/>
-      <c r="V63" s="67"/>
+      <c r="V63" s="68"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -36204,7 +36198,7 @@
       <c r="Q64" s="18"/>
       <c r="R64" s="18"/>
       <c r="S64" s="19"/>
-      <c r="V64" s="67"/>
+      <c r="V64" s="68"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="20">
@@ -36227,7 +36221,7 @@
       <c r="Q65" s="41"/>
       <c r="R65" s="41"/>
       <c r="S65" s="21"/>
-      <c r="V65" s="67"/>
+      <c r="V65" s="68"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
@@ -36247,7 +36241,7 @@
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="31"/>
-      <c r="V66" s="67"/>
+      <c r="V66" s="68"/>
     </row>
     <row r="67" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -36267,7 +36261,7 @@
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
       <c r="R67" s="56"/>
-      <c r="V67" s="67"/>
+      <c r="V67" s="68"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -36287,7 +36281,7 @@
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="19"/>
-      <c r="V68" s="67"/>
+      <c r="V68" s="68"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="20">
@@ -36310,7 +36304,7 @@
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
       <c r="S69" s="21"/>
-      <c r="V69" s="67"/>
+      <c r="V69" s="68"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
@@ -36330,7 +36324,7 @@
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="31"/>
-      <c r="V70" s="67"/>
+      <c r="V70" s="68"/>
     </row>
     <row r="71" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -36350,7 +36344,7 @@
       <c r="P71" s="56"/>
       <c r="Q71" s="56"/>
       <c r="R71" s="56"/>
-      <c r="V71" s="67"/>
+      <c r="V71" s="68"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -36370,7 +36364,7 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
       <c r="S72" s="19"/>
-      <c r="V72" s="67"/>
+      <c r="V72" s="68"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="20">
@@ -36393,7 +36387,7 @@
       <c r="Q73" s="41"/>
       <c r="R73" s="41"/>
       <c r="S73" s="21"/>
-      <c r="V73" s="67"/>
+      <c r="V73" s="68"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
@@ -36413,7 +36407,7 @@
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="31"/>
-      <c r="V74" s="67"/>
+      <c r="V74" s="68"/>
     </row>
     <row r="75" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -36433,7 +36427,7 @@
       <c r="P75" s="56"/>
       <c r="Q75" s="56"/>
       <c r="R75" s="56"/>
-      <c r="V75" s="67"/>
+      <c r="V75" s="68"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -36453,7 +36447,7 @@
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
       <c r="S76" s="19"/>
-      <c r="V76" s="67"/>
+      <c r="V76" s="68"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="20">
@@ -36476,7 +36470,7 @@
       <c r="Q77" s="41"/>
       <c r="R77" s="41"/>
       <c r="S77" s="21"/>
-      <c r="V77" s="67"/>
+      <c r="V77" s="68"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
@@ -36496,7 +36490,7 @@
       <c r="Q78" s="24"/>
       <c r="R78" s="24"/>
       <c r="S78" s="31"/>
-      <c r="V78" s="67"/>
+      <c r="V78" s="68"/>
     </row>
     <row r="79" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -36516,7 +36510,7 @@
       <c r="P79" s="56"/>
       <c r="Q79" s="56"/>
       <c r="R79" s="56"/>
-      <c r="V79" s="67"/>
+      <c r="V79" s="68"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -36536,7 +36530,7 @@
       <c r="Q80" s="18"/>
       <c r="R80" s="18"/>
       <c r="S80" s="19"/>
-      <c r="V80" s="67"/>
+      <c r="V80" s="68"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="20">
@@ -36559,7 +36553,7 @@
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
       <c r="S81" s="21"/>
-      <c r="V81" s="67"/>
+      <c r="V81" s="68"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
@@ -36579,7 +36573,7 @@
       <c r="Q82" s="24"/>
       <c r="R82" s="24"/>
       <c r="S82" s="31"/>
-      <c r="V82" s="68"/>
+      <c r="V82" s="69"/>
     </row>
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -45935,7 +45929,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="67" t="s">
         <v>66</v>
       </c>
     </row>
@@ -45983,7 +45977,7 @@
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
-      <c r="V4" s="69"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="20">
@@ -46035,7 +46029,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="21"/>
-      <c r="V5" s="69"/>
+      <c r="V5" s="70"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
@@ -46082,7 +46076,7 @@
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="25"/>
-      <c r="V6" s="69"/>
+      <c r="V6" s="70"/>
     </row>
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
@@ -46103,7 +46097,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="29"/>
-      <c r="V7" s="69"/>
+      <c r="V7" s="70"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -46147,7 +46141,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="V8" s="69"/>
+      <c r="V8" s="70"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="20">
@@ -46201,7 +46195,7 @@
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="69"/>
+      <c r="V9" s="70"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
@@ -46245,7 +46239,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="31"/>
-      <c r="V10" s="69"/>
+      <c r="V10" s="70"/>
     </row>
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
@@ -46265,7 +46259,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="V11" s="69"/>
+      <c r="V11" s="70"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -46311,7 +46305,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="19"/>
-      <c r="V12" s="69"/>
+      <c r="V12" s="70"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="20">
@@ -46364,7 +46358,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="21"/>
-      <c r="V13" s="69"/>
+      <c r="V13" s="70"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
@@ -46410,7 +46404,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="31"/>
-      <c r="V14" s="69"/>
+      <c r="V14" s="70"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -46430,7 +46424,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="V15" s="69"/>
+      <c r="V15" s="70"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -46476,7 +46470,7 @@
       </c>
       <c r="R16" s="18"/>
       <c r="S16" s="19"/>
-      <c r="V16" s="69"/>
+      <c r="V16" s="70"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="20">
@@ -46529,7 +46523,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="21"/>
-      <c r="V17" s="69"/>
+      <c r="V17" s="70"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
@@ -46575,7 +46569,7 @@
       </c>
       <c r="R18" s="24"/>
       <c r="S18" s="31"/>
-      <c r="V18" s="69"/>
+      <c r="V18" s="70"/>
     </row>
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -46595,7 +46589,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="V19" s="69"/>
+      <c r="V19" s="70"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -46615,7 +46609,7 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
-      <c r="V20" s="69"/>
+      <c r="V20" s="70"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="20">
@@ -46642,7 +46636,7 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
       <c r="S21" s="21"/>
-      <c r="V21" s="69"/>
+      <c r="V21" s="70"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
@@ -46662,7 +46656,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="31"/>
-      <c r="V22" s="70"/>
+      <c r="V22" s="71"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53761F70-4AAD-4819-B0AC-2580337EC7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0723F7C2-A716-43F1-A3D5-334664E73BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2475" windowWidth="26550" windowHeight="13005" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="1695" yWindow="2055" windowWidth="26550" windowHeight="13035" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -7559,7 +7559,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7778,20 +7778,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="5" applyFill="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="8" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -18075,8 +18061,8 @@
   <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18648,10 +18634,10 @@
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="73"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="62" t="s">
         <v>1943</v>
       </c>
       <c r="H15" s="62" t="s">
@@ -18679,7 +18665,7 @@
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="63" t="s">
         <v>627</v>
       </c>
       <c r="E16" s="63" t="s">
@@ -18688,7 +18674,7 @@
       <c r="F16" s="63" t="s">
         <v>559</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="63" t="s">
         <v>1657</v>
       </c>
       <c r="H16" s="63" t="s">
@@ -18728,7 +18714,7 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="64" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="64" t="s">
@@ -18737,7 +18723,7 @@
       <c r="F17" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="64" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="64" t="s">
@@ -18778,7 +18764,7 @@
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="65" t="s">
         <v>1997</v>
       </c>
       <c r="E18" s="65" t="s">
@@ -18787,7 +18773,7 @@
       <c r="F18" s="65" t="s">
         <v>1703</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="65" t="s">
         <v>1769</v>
       </c>
       <c r="H18" s="65" t="s">
@@ -44565,19 +44551,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="149" priority="93">
+    <cfRule type="expression" dxfId="149" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="93">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="94">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="147" priority="57">
+    <cfRule type="expression" dxfId="147" priority="58">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="57">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="58">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
@@ -44589,11 +44575,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="143" priority="53">
+    <cfRule type="expression" dxfId="143" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -44621,35 +44607,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="135" priority="45">
+    <cfRule type="expression" dxfId="135" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="133" priority="43">
+    <cfRule type="expression" dxfId="133" priority="44">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="131" priority="41">
+    <cfRule type="expression" dxfId="131" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="129" priority="39">
+    <cfRule type="expression" dxfId="129" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -44685,11 +44671,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="119" priority="29">
+    <cfRule type="expression" dxfId="119" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -44709,19 +44695,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="113" priority="23">
+    <cfRule type="expression" dxfId="113" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="111" priority="21">
+    <cfRule type="expression" dxfId="111" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -44749,11 +44735,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="103" priority="13">
+    <cfRule type="expression" dxfId="103" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
@@ -44765,19 +44751,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="99" priority="9">
+    <cfRule type="expression" dxfId="99" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="97" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
@@ -44805,43 +44791,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="89" priority="101">
+    <cfRule type="expression" dxfId="89" priority="102">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="101">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="102">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="87" priority="99">
+    <cfRule type="expression" dxfId="87" priority="100">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="99">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="100">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="85" priority="97">
+    <cfRule type="expression" dxfId="85" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="97">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="98">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="83" priority="95">
+    <cfRule type="expression" dxfId="83" priority="96">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="95">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="96">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="81" priority="91">
+    <cfRule type="expression" dxfId="81" priority="92">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="91">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="92">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
@@ -44909,43 +44895,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="63" priority="73">
+    <cfRule type="expression" dxfId="63" priority="74">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="73">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="61" priority="71">
+    <cfRule type="expression" dxfId="61" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="71">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="59" priority="69">
+    <cfRule type="expression" dxfId="59" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="69">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="57" priority="67">
+    <cfRule type="expression" dxfId="57" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="68">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="55" priority="65">
+    <cfRule type="expression" dxfId="55" priority="66">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="65">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="66">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
@@ -53203,43 +53189,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="43" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="41" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="39" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="37" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="35" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -53251,19 +53237,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -53275,19 +53261,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -53299,35 +53285,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -53339,11 +53325,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0723F7C2-A716-43F1-A3D5-334664E73BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E144845-5F02-4C80-ABF6-19CCCBB605B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1695" yWindow="2055" windowWidth="26550" windowHeight="13035" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>

--- a/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調符】《岳陽樓記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB7C5AD-4312-41AD-9713-39B21263A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED77A4EA-D2A8-4E37-BDA1-9B3D6AA4CEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4895" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="1848">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4719,10 +4719,6 @@
     <t>ngoo2</t>
   </si>
   <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lik8</t>
   </si>
   <si>
@@ -4735,17 +4731,9 @@
     <t>kiu7</t>
   </si>
   <si>
-    <t>kiu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siong1</t>
   </si>
   <si>
-    <t>siong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>im1</t>
   </si>
   <si>
@@ -4755,10 +4743,6 @@
     <t>lu2</t>
   </si>
   <si>
-    <t>lu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zue5</t>
   </si>
   <si>
@@ -4786,10 +4770,6 @@
     <t>pa2</t>
   </si>
   <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(37, 9)</t>
   </si>
   <si>
@@ -4805,210 +4785,46 @@
     <t>閩拼調號</t>
   </si>
   <si>
-    <t>gì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kiann2</t>
   </si>
   <si>
-    <t>dīk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>líng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wát</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbín</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thang1</t>
   </si>
   <si>
-    <t>hó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hui3</t>
   </si>
   <si>
-    <t>zīng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gí</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sī</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hù</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbún</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yǐ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zī</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tiek4</t>
   </si>
   <si>
-    <t>hô</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gík</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siāo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zíng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>honnh4</t>
   </si>
   <si>
-    <t>zziók</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hōng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tok8</t>
-  </si>
-  <si>
-    <t>kōng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sīng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siōng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbôo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yǔ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huái</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bak8</t>
   </si>
   <si>
-    <t>zzí</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e7</t>
   </si>
   <si>
-    <t>tiān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iok8</t>
   </si>
   <si>
-    <t>zîng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iann2</t>
   </si>
   <si>
-    <t>ggú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tap4</t>
   </si>
   <si>
-    <t>bbông</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zǐu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sióng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gíu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzín</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzî</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sî</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuè</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loh8</t>
   </si>
   <si>
-    <t>bīt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>au7</t>
   </si>
   <si>
@@ -5018,10 +4834,6 @@
     <t>kau2</t>
   </si>
   <si>
-    <t>ggnǒo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(9, 5)</t>
   </si>
   <si>
@@ -5145,43 +4957,15 @@
     <t>(157, 10)</t>
   </si>
   <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thong11</t>
   </si>
   <si>
     <t>(33, 14); (33, 13)</t>
   </si>
   <si>
-    <t>gîu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hóo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>būt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ia2</t>
   </si>
   <si>
-    <t>ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yǎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(125, 11)</t>
   </si>
   <si>
@@ -5189,58 +4973,6 @@
   </si>
   <si>
     <t>(41, 4)</t>
-  </si>
-  <si>
-    <t>lǔ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sìng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zâi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cǔ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzián</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huê</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzít</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hík</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wí</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gǐ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lóh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>漢字</t>
@@ -5442,9 +5174,6 @@
     <t>屢</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
     <t>晏</t>
   </si>
   <si>
@@ -5520,940 +5249,829 @@
     <t>葛</t>
   </si>
   <si>
-    <t xml:space="preserve">《五柳先生傳》陶淵明
-先生不知何許人也，亦不詳其姓字。宅邊有五柳樹，因以為號焉。
-閑靜少言，不慕榮利。好讀書，不求甚解，毎有會意，便欣然忘食。性嗜酒，家貧不能常得。親舊知其如此，或置酒而招之。造飲輒盡，期在必醉，既醉而退，曾不吝情去留。環堵蕭然，不蔽風日，短褐穿結，簞瓢屢空—晏如也。常著文章自娛，頗示己志。忘懷得失，以此自終。
-贊曰：黔婁之妻有言：「不戚戚於貧賤，不汲汲於富貴。」極其言，茲若人之儔乎？酣觴賦詩，以樂其志。無懷氏之民歟！葛天氏之民歟！
+    <t>ggnǒo</t>
+  </si>
+  <si>
+    <t>liu2</t>
+  </si>
+  <si>
+    <t>to5</t>
+  </si>
+  <si>
+    <t>yān</t>
+  </si>
+  <si>
+    <t>bbín</t>
+  </si>
+  <si>
+    <t>ti1</t>
+  </si>
+  <si>
+    <t>hu2</t>
+  </si>
+  <si>
+    <t>pian1</t>
+  </si>
+  <si>
+    <t>yǔ</t>
+  </si>
+  <si>
+    <t>su7</t>
+  </si>
+  <si>
+    <t>in1</t>
+  </si>
+  <si>
+    <t>yǐ</t>
+  </si>
+  <si>
+    <t>han5</t>
+  </si>
+  <si>
+    <t>siau2</t>
+  </si>
+  <si>
+    <t>gian5</t>
+  </si>
+  <si>
+    <t>ing5</t>
+  </si>
+  <si>
+    <t>li7</t>
+  </si>
+  <si>
+    <t>thok8</t>
+  </si>
+  <si>
+    <t>sū</t>
+  </si>
+  <si>
+    <t>sim7</t>
+  </si>
+  <si>
+    <t>kai2</t>
+  </si>
+  <si>
+    <t>mui2</t>
+  </si>
+  <si>
+    <t>pian7</t>
+  </si>
+  <si>
+    <t>him1</t>
+  </si>
+  <si>
+    <t>zzián</t>
+  </si>
+  <si>
+    <t>bbông</t>
+  </si>
+  <si>
+    <t>sit8</t>
+  </si>
+  <si>
+    <t>sî</t>
+  </si>
+  <si>
+    <t>ka1</t>
+  </si>
+  <si>
+    <t>pin5</t>
+  </si>
+  <si>
+    <t>cin1</t>
+  </si>
+  <si>
+    <t>ju5</t>
+  </si>
+  <si>
+    <t>cǔ</t>
+  </si>
+  <si>
+    <t>ti3</t>
+  </si>
+  <si>
+    <t>ziau1</t>
+  </si>
+  <si>
+    <t>zo7</t>
+  </si>
+  <si>
+    <t>im2</t>
+  </si>
+  <si>
+    <t>tiap4</t>
+  </si>
+  <si>
+    <t>zin7</t>
+  </si>
+  <si>
+    <t>zui3</t>
+  </si>
+  <si>
+    <t>lin7</t>
+  </si>
+  <si>
+    <t>zíng</t>
+  </si>
+  <si>
+    <t>huan5</t>
+  </si>
+  <si>
+    <t>too2</t>
+  </si>
+  <si>
+    <t>pe3</t>
+  </si>
+  <si>
+    <t>zzít</t>
+  </si>
+  <si>
+    <t>hat4</t>
+  </si>
+  <si>
+    <t>cuan1</t>
+  </si>
+  <si>
+    <t>tan1</t>
+  </si>
+  <si>
+    <t>an3</t>
+  </si>
+  <si>
+    <t>ziong1</t>
+  </si>
+  <si>
+    <t>zu7</t>
+  </si>
+  <si>
+    <t>zû</t>
+  </si>
+  <si>
+    <t>pho2</t>
+  </si>
+  <si>
+    <t>sit4</t>
+  </si>
+  <si>
+    <t>zan3</t>
+  </si>
+  <si>
+    <t>khiam5</t>
+  </si>
+  <si>
+    <t>ce1</t>
+  </si>
+  <si>
+    <t>cik4</t>
+  </si>
+  <si>
+    <t>zian7</t>
+  </si>
+  <si>
+    <t>kip4</t>
+  </si>
+  <si>
+    <t>kui3</t>
+  </si>
+  <si>
+    <t>zu1</t>
+  </si>
+  <si>
+    <t>zū</t>
+  </si>
+  <si>
+    <t>tiu5</t>
+  </si>
+  <si>
+    <t>ham1</t>
+  </si>
+  <si>
+    <t>siōng</t>
+  </si>
+  <si>
+    <t>bbú</t>
+  </si>
+  <si>
+    <t>kat4</t>
+  </si>
+  <si>
+    <t>(5, 6); (13, 9)</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 14); (17, 9); (17, 18); (25, 10); (33, 15); (37, 11); (53, 15); (57, 7)</t>
+  </si>
+  <si>
+    <t>(9, 7); (25, 17)</t>
+  </si>
+  <si>
+    <t>(9, 11); (41, 13)</t>
+  </si>
+  <si>
+    <t>(13, 6)</t>
+  </si>
+  <si>
+    <t>(17, 7); (53, 12); (57, 17)</t>
+  </si>
+  <si>
+    <t>(25, 4)</t>
+  </si>
+  <si>
+    <t>(25, 5)</t>
+  </si>
+  <si>
+    <t>(25, 8)</t>
+  </si>
+  <si>
+    <t>(25, 9); (57, 4)</t>
+  </si>
+  <si>
+    <t>(25, 11)</t>
+  </si>
+  <si>
+    <t>(25, 12); (41, 15)</t>
+  </si>
+  <si>
+    <t>(25, 15)</t>
+  </si>
+  <si>
+    <t>(25, 16)</t>
+  </si>
+  <si>
+    <t>(29, 4); (41, 12)</t>
+  </si>
+  <si>
+    <t>(29, 8)</t>
+  </si>
+  <si>
+    <t>(29, 11)</t>
+  </si>
+  <si>
+    <t>(29, 15)</t>
+  </si>
+  <si>
+    <t>(29, 16)</t>
+  </si>
+  <si>
+    <t>(29, 17)</t>
+  </si>
+  <si>
+    <t>(33, 7); (33, 10)</t>
+  </si>
+  <si>
+    <t>(33, 9)</t>
+  </si>
+  <si>
+    <t>(33, 14)</t>
+  </si>
+  <si>
+    <t>(37, 16)</t>
+  </si>
+  <si>
+    <t>(37, 17)</t>
+  </si>
+  <si>
+    <t>(37, 18)</t>
+  </si>
+  <si>
+    <t>(41, 6)</t>
+  </si>
+  <si>
+    <t>(41, 8)</t>
+  </si>
+  <si>
+    <t>(41, 16)</t>
+  </si>
+  <si>
+    <t>(41, 18)</t>
+  </si>
+  <si>
+    <t>(45, 4); (49, 4)</t>
+  </si>
+  <si>
+    <t>(45, 10); (65, 4)</t>
+  </si>
+  <si>
+    <t>(53, 4)</t>
+  </si>
+  <si>
+    <t>(53, 7)</t>
+  </si>
+  <si>
+    <t>(53, 8)</t>
+  </si>
+  <si>
+    <t>(53, 10)</t>
+  </si>
+  <si>
+    <t>(53, 16); (53, 17)</t>
+  </si>
+  <si>
+    <t>(53, 18); (57, 10)</t>
+  </si>
+  <si>
+    <t>(57, 5)</t>
+  </si>
+  <si>
+    <t>(57, 8); (57, 9)</t>
+  </si>
+  <si>
+    <t>(57, 11)</t>
+  </si>
+  <si>
+    <t>(57, 12)</t>
+  </si>
+  <si>
+    <t>(61, 4)</t>
+  </si>
+  <si>
+    <t>(61, 8)</t>
+  </si>
+  <si>
+    <t>(61, 9)</t>
+  </si>
+  <si>
+    <t>(61, 12)</t>
+  </si>
+  <si>
+    <t>(65, 8); (65, 15)</t>
+  </si>
+  <si>
+    <t>(5, 7); (9, 4)</t>
+  </si>
+  <si>
+    <t>(9, 10); (61, 6)</t>
+  </si>
+  <si>
+    <t>(9, 16); (25, 18); (57, 16); (61, 18)</t>
+  </si>
+  <si>
+    <t>(13, 13); (45, 17); (61, 16)</t>
+  </si>
+  <si>
+    <t>(21, 16); (45, 12)</t>
+  </si>
+  <si>
+    <t>(25, 6); (29, 9)</t>
+  </si>
+  <si>
+    <t>(25, 13); (45, 14)</t>
+  </si>
+  <si>
+    <t>(29, 7)</t>
+  </si>
+  <si>
+    <t>(29, 10); (33, 11)</t>
+  </si>
+  <si>
+    <t>(29, 12); (53, 9); (61, 7); (65, 9); (65, 16)</t>
+  </si>
+  <si>
+    <t>(33, 6)</t>
+  </si>
+  <si>
+    <t>(33, 12)</t>
+  </si>
+  <si>
+    <t>(37, 13)</t>
+  </si>
+  <si>
+    <t>(41, 9)</t>
+  </si>
+  <si>
+    <t>(41, 17)</t>
+  </si>
+  <si>
+    <t>(45, 9)</t>
+  </si>
+  <si>
+    <t>(45, 13); (65, 7)</t>
+  </si>
+  <si>
+    <t>(53, 5)</t>
+  </si>
+  <si>
+    <t>(61, 5)</t>
+  </si>
+  <si>
+    <t>(61, 13)</t>
+  </si>
+  <si>
+    <t>(61, 17)</t>
+  </si>
+  <si>
+    <t>(65, 10); (65, 17)</t>
+  </si>
+  <si>
+    <t>(65, 11); (65, 18)</t>
+  </si>
+  <si>
+    <t>thik8</t>
+  </si>
+  <si>
+    <t>liu5</t>
+  </si>
+  <si>
+    <t>tuan2</t>
+  </si>
+  <si>
+    <t>kiat4</t>
+  </si>
+  <si>
+    <t>phiau5</t>
+  </si>
+  <si>
+    <t>tu3</t>
+  </si>
+  <si>
+    <t>lo5</t>
+  </si>
+  <si>
+    <t>hóo</t>
+  </si>
+  <si>
+    <t>tuan7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>代</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>端</t>
+  </si>
+  <si>
+    <t>弦</t>
+  </si>
+  <si>
+    <t>柱</t>
+  </si>
+  <si>
+    <t>思</t>
+  </si>
+  <si>
+    <t>華</t>
+  </si>
+  <si>
+    <t>莊</t>
+  </si>
+  <si>
+    <t>曉</t>
+  </si>
+  <si>
+    <t>夢</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>蝴</t>
+  </si>
+  <si>
+    <t>蝶</t>
+  </si>
+  <si>
+    <t>望</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>託</t>
+  </si>
+  <si>
+    <t>杜</t>
+  </si>
+  <si>
+    <t>鵑</t>
+  </si>
+  <si>
+    <t>滄</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>珠</t>
+  </si>
+  <si>
+    <t>淚</t>
+  </si>
+  <si>
+    <t>藍</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>暖</t>
+  </si>
+  <si>
+    <t>玉</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>待</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>憶</t>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>惘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《錦瑟》 唐代：李商隱
+錦瑟無端五十弦，一弦一柱思華年。
+莊生曉夢迷蝴蝶，望帝春心託杜鵑。
+滄海月明珠有淚，藍田日暖玉生煙。
+此情可待成追憶？只是當時已惘然。
 </t>
   </si>
   <si>
-    <t>liu2</t>
-  </si>
-  <si>
-    <t>to5</t>
-  </si>
-  <si>
-    <t>ti1</t>
-  </si>
-  <si>
-    <t>hu2</t>
-  </si>
-  <si>
-    <t>pian1</t>
-  </si>
-  <si>
-    <t>su7</t>
-  </si>
-  <si>
-    <t>in1</t>
-  </si>
-  <si>
-    <t>han5</t>
-  </si>
-  <si>
-    <t>siau2</t>
-  </si>
-  <si>
-    <t>gian5</t>
-  </si>
-  <si>
-    <t>ing5</t>
-  </si>
-  <si>
-    <t>li7</t>
-  </si>
-  <si>
-    <t>thok8</t>
-  </si>
-  <si>
-    <t>sim7</t>
-  </si>
-  <si>
-    <t>kai2</t>
-  </si>
-  <si>
-    <t>mui2</t>
-  </si>
-  <si>
-    <t>pian7</t>
-  </si>
-  <si>
-    <t>him1</t>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
-    <t>ka1</t>
-  </si>
-  <si>
-    <t>pin5</t>
-  </si>
-  <si>
-    <t>cin1</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ti3</t>
-  </si>
-  <si>
-    <t>ziau1</t>
-  </si>
-  <si>
-    <t>zo7</t>
-  </si>
-  <si>
-    <t>im2</t>
-  </si>
-  <si>
-    <t>tiap4</t>
-  </si>
-  <si>
-    <t>zin7</t>
-  </si>
-  <si>
-    <t>zui3</t>
-  </si>
-  <si>
-    <t>lin7</t>
-  </si>
-  <si>
-    <t>huan5</t>
-  </si>
-  <si>
-    <t>too2</t>
-  </si>
-  <si>
-    <t>pe3</t>
-  </si>
-  <si>
-    <t>hat4</t>
-  </si>
-  <si>
-    <t>cuan1</t>
-  </si>
-  <si>
-    <t>tan1</t>
-  </si>
-  <si>
-    <t>an3</t>
-  </si>
-  <si>
-    <t>ziong1</t>
-  </si>
-  <si>
-    <t>zu7</t>
-  </si>
-  <si>
-    <t>pho2</t>
-  </si>
-  <si>
-    <t>sit4</t>
-  </si>
-  <si>
-    <t>zan3</t>
-  </si>
-  <si>
-    <t>khiam5</t>
-  </si>
-  <si>
-    <t>ce1</t>
-  </si>
-  <si>
-    <t>cik4</t>
-  </si>
-  <si>
-    <t>zian7</t>
-  </si>
-  <si>
-    <t>kip4</t>
-  </si>
-  <si>
-    <t>kui3</t>
-  </si>
-  <si>
-    <t>zu1</t>
-  </si>
-  <si>
-    <t>tiu5</t>
-  </si>
-  <si>
-    <t>ham1</t>
-  </si>
-  <si>
-    <t>wú</t>
-  </si>
-  <si>
-    <t>kat4</t>
-  </si>
-  <si>
-    <t>(5, 6); (13, 9)</t>
-  </si>
-  <si>
-    <t>(5, 8); (9, 5)</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 14); (17, 9); (17, 18); (25, 10); (33, 15); (37, 11); (53, 15); (57, 7)</t>
-  </si>
-  <si>
-    <t>(9, 7); (25, 17)</t>
-  </si>
-  <si>
-    <t>(9, 11); (41, 13)</t>
-  </si>
-  <si>
-    <t>(13, 6)</t>
-  </si>
-  <si>
-    <t>(17, 7); (53, 12); (57, 17)</t>
-  </si>
-  <si>
-    <t>(25, 4)</t>
-  </si>
-  <si>
-    <t>(25, 5)</t>
-  </si>
-  <si>
-    <t>(25, 8)</t>
-  </si>
-  <si>
-    <t>(25, 9); (57, 4)</t>
-  </si>
-  <si>
-    <t>(25, 11)</t>
-  </si>
-  <si>
-    <t>(25, 12); (41, 15)</t>
-  </si>
-  <si>
-    <t>(25, 15)</t>
-  </si>
-  <si>
-    <t>(25, 16)</t>
-  </si>
-  <si>
-    <t>(29, 4); (41, 12)</t>
-  </si>
-  <si>
-    <t>(29, 8)</t>
-  </si>
-  <si>
-    <t>(29, 11)</t>
-  </si>
-  <si>
-    <t>(29, 15)</t>
-  </si>
-  <si>
-    <t>(29, 16)</t>
-  </si>
-  <si>
-    <t>(29, 17)</t>
-  </si>
-  <si>
-    <t>(33, 7); (33, 10)</t>
-  </si>
-  <si>
-    <t>(33, 9)</t>
-  </si>
-  <si>
-    <t>(33, 14)</t>
-  </si>
-  <si>
-    <t>(37, 16)</t>
-  </si>
-  <si>
-    <t>(37, 17)</t>
-  </si>
-  <si>
-    <t>(37, 18)</t>
-  </si>
-  <si>
-    <t>(41, 6)</t>
-  </si>
-  <si>
-    <t>(41, 8)</t>
-  </si>
-  <si>
-    <t>(41, 16)</t>
-  </si>
-  <si>
-    <t>(41, 18)</t>
-  </si>
-  <si>
-    <t>(45, 4); (49, 4)</t>
-  </si>
-  <si>
-    <t>(45, 10); (65, 4)</t>
-  </si>
-  <si>
-    <t>(53, 4)</t>
-  </si>
-  <si>
-    <t>(53, 7)</t>
-  </si>
-  <si>
-    <t>(53, 8)</t>
-  </si>
-  <si>
-    <t>(53, 10)</t>
-  </si>
-  <si>
-    <t>(53, 16); (53, 17)</t>
-  </si>
-  <si>
-    <t>(53, 18); (57, 10)</t>
-  </si>
-  <si>
-    <t>(57, 5)</t>
-  </si>
-  <si>
-    <t>(57, 8); (57, 9)</t>
-  </si>
-  <si>
-    <t>(57, 11)</t>
-  </si>
-  <si>
-    <t>(57, 12)</t>
-  </si>
-  <si>
-    <t>(61, 4)</t>
-  </si>
-  <si>
-    <t>(61, 8)</t>
-  </si>
-  <si>
-    <t>(61, 9)</t>
-  </si>
-  <si>
-    <t>(61, 12)</t>
-  </si>
-  <si>
-    <t>(65, 8); (65, 15)</t>
-  </si>
-  <si>
-    <t>liu2</t>
+    <t>ggǐm</t>
+  </si>
+  <si>
+    <t>sīk</t>
+  </si>
+  <si>
+    <t>dóng</t>
+  </si>
+  <si>
+    <t>dâi</t>
+  </si>
+  <si>
+    <t>lǐ</t>
+  </si>
+  <si>
+    <t>wǔn</t>
+  </si>
+  <si>
+    <t>tuan1</t>
+  </si>
+  <si>
+    <t>duān</t>
+  </si>
+  <si>
+    <t>síp</t>
+  </si>
+  <si>
+    <t>hián</t>
+  </si>
+  <si>
+    <t>yīt</t>
+  </si>
+  <si>
+    <t>hua5</t>
+  </si>
+  <si>
+    <t>huá</t>
+  </si>
+  <si>
+    <t>lián</t>
+  </si>
+  <si>
+    <t>zng1</t>
+  </si>
+  <si>
+    <t>zn̄g</t>
+  </si>
+  <si>
+    <t>hiau2</t>
+  </si>
+  <si>
+    <t>hiǎo</t>
+  </si>
+  <si>
+    <t>bang7</t>
+  </si>
+  <si>
+    <t>bbâng</t>
+  </si>
+  <si>
+    <t>be5</t>
+  </si>
+  <si>
+    <t>bbé</t>
+  </si>
+  <si>
+    <t>tiap8</t>
+  </si>
+  <si>
+    <t>diáp</t>
+  </si>
+  <si>
+    <t>te3</t>
+  </si>
+  <si>
+    <t>dè</t>
+  </si>
+  <si>
+    <t>cūn</t>
+  </si>
+  <si>
+    <t>sīm</t>
+  </si>
+  <si>
+    <t>thok4</t>
+  </si>
+  <si>
+    <t>tōk</t>
+  </si>
+  <si>
+    <t>too7</t>
+  </si>
+  <si>
+    <t>dôo</t>
+  </si>
+  <si>
+    <t>guān</t>
+  </si>
+  <si>
+    <t>cng1</t>
+  </si>
+  <si>
+    <t>cn̄g</t>
+  </si>
+  <si>
+    <t>hai2</t>
+  </si>
+  <si>
+    <t>hǎi</t>
+  </si>
+  <si>
+    <t>gguát</t>
+  </si>
+  <si>
+    <t>lui7</t>
+  </si>
+  <si>
+    <t>lûi</t>
+  </si>
+  <si>
+    <t>lám</t>
+  </si>
+  <si>
+    <t>can5</t>
+  </si>
+  <si>
+    <t>cán</t>
+  </si>
+  <si>
+    <t>luan2</t>
+  </si>
+  <si>
+    <t>luǎn</t>
+  </si>
+  <si>
+    <t>giok8</t>
+  </si>
+  <si>
+    <t>ggiók</t>
+  </si>
+  <si>
+    <t>kho2</t>
+  </si>
+  <si>
+    <t>kǒ</t>
+  </si>
+  <si>
+    <t>thai7</t>
+  </si>
+  <si>
+    <t>tâi</t>
+  </si>
+  <si>
+    <t>síng</t>
+  </si>
+  <si>
+    <t>tui1</t>
+  </si>
+  <si>
+    <t>dūi</t>
+  </si>
+  <si>
+    <t>ik4</t>
+  </si>
+  <si>
+    <t>yīk</t>
+  </si>
+  <si>
+    <t>zǐ</t>
+  </si>
+  <si>
+    <t>sí</t>
+  </si>
+  <si>
+    <t>bong2</t>
+  </si>
+  <si>
+    <t>bbǒng</t>
+  </si>
+  <si>
+    <t>(5, 5); (13, 8); (9, 8)</t>
+  </si>
+  <si>
+    <t>(5, 13); (25, 7)</t>
+  </si>
+  <si>
+    <t>(13, 7); (21, 9); (53, 11); (25, 9)</t>
+  </si>
+  <si>
+    <t>(21, 15); (37, 9); (33, 18)</t>
+  </si>
+  <si>
+    <t>(29, 5); (45, 18); (33, 4)</t>
+  </si>
+  <si>
+    <t>(33, 17); (33, 5)</t>
+  </si>
+  <si>
+    <t>(37, 14); (25, 14)</t>
+  </si>
+  <si>
+    <t>(65, 6); (9, 6)</t>
+  </si>
+  <si>
+    <t>(5, 5); (9, 4)</t>
+  </si>
+  <si>
+    <t>(5, 6); (9, 5)</t>
+  </si>
+  <si>
+    <t>(9, 7)</t>
+  </si>
+  <si>
+    <t>(9, 10); (9, 13)</t>
+  </si>
+  <si>
+    <t>(9, 12); (9, 14)</t>
+  </si>
+  <si>
+    <t>(17, 7)</t>
+  </si>
+  <si>
+    <t>(17, 8)</t>
+  </si>
+  <si>
+    <t>(17, 9)</t>
+  </si>
+  <si>
+    <t>(25, 6)</t>
+  </si>
+  <si>
+    <t>(25, 10)</t>
+  </si>
+  <si>
+    <t>(25, 12)</t>
+  </si>
+  <si>
+    <t>(25, 13)</t>
+  </si>
+  <si>
+    <t>(25, 18)</t>
+  </si>
+  <si>
+    <t>Tshong</t>
+  </si>
+  <si>
+    <t>cong1</t>
+  </si>
+  <si>
+    <t>Tiân</t>
+  </si>
+  <si>
+    <t>tian5</t>
+  </si>
+  <si>
+    <t>(5, 8); (9, 5); (17, 5); (25, 17)</t>
+  </si>
+  <si>
+    <t>tong3</t>
+  </si>
+  <si>
+    <t>tong3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lǐu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dó</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dī</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hǔ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sû</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yīn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>han5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hán</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siǎo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ggián</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yíng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lî</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hǒ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tók</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sîm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gǎi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbnǔi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biân</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>him1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hīm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sít</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gā</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bín</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cīn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzú</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dì</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziāo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zô</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>im2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yǐm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diāp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zîn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zùi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lîn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kǔ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huán</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dǒo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bè</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hāt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gāt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dān</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>àn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziōng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zû</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pǒ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sīt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zàn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiám</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ce1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cē</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cīk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziân</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gīp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gùi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zū</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>díu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ham1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hām</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5, 5); (13, 8)</t>
-  </si>
-  <si>
-    <t>(5, 7); (9, 4)</t>
-  </si>
-  <si>
-    <t>(9, 10); (61, 6)</t>
-  </si>
-  <si>
-    <t>(9, 16); (25, 18); (57, 16); (61, 18)</t>
-  </si>
-  <si>
-    <t>(13, 7); (21, 9); (53, 11)</t>
-  </si>
-  <si>
-    <t>(13, 13); (45, 17); (61, 16)</t>
-  </si>
-  <si>
-    <t>(21, 15); (37, 9)</t>
-  </si>
-  <si>
-    <t>(21, 16); (45, 12)</t>
-  </si>
-  <si>
-    <t>(25, 6); (29, 9)</t>
-  </si>
-  <si>
-    <t>(25, 13); (45, 14)</t>
-  </si>
-  <si>
-    <t>(29, 5); (45, 18)</t>
-  </si>
-  <si>
-    <t>(29, 7)</t>
-  </si>
-  <si>
-    <t>(29, 10); (33, 11)</t>
-  </si>
-  <si>
-    <t>(29, 12); (53, 9); (61, 7); (65, 9); (65, 16)</t>
-  </si>
-  <si>
-    <t>(33, 6)</t>
-  </si>
-  <si>
-    <t>(33, 12)</t>
-  </si>
-  <si>
-    <t>(37, 13)</t>
-  </si>
-  <si>
-    <t>(37, 14)</t>
-  </si>
-  <si>
-    <t>(41, 9)</t>
-  </si>
-  <si>
-    <t>(41, 17)</t>
-  </si>
-  <si>
-    <t>(45, 9)</t>
-  </si>
-  <si>
-    <t>(45, 13); (65, 7)</t>
-  </si>
-  <si>
-    <t>(53, 5)</t>
-  </si>
-  <si>
-    <t>(61, 5)</t>
-  </si>
-  <si>
-    <t>(61, 13)</t>
-  </si>
-  <si>
-    <t>(61, 17)</t>
-  </si>
-  <si>
-    <t>(65, 10); (65, 17)</t>
-  </si>
-  <si>
-    <t>(65, 11); (65, 18)</t>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thik8</t>
-  </si>
-  <si>
-    <t>thik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tík</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>líu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuan2</t>
-  </si>
-  <si>
-    <t>tuan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duǎn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiat4</t>
-  </si>
-  <si>
-    <t>kiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giāt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phiau5</t>
-  </si>
-  <si>
-    <t>phiau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>piáo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tu3</t>
-  </si>
-  <si>
-    <t>tu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dù</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo5</t>
-  </si>
-  <si>
-    <t>lo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ló</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yík</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuan7</t>
-  </si>
-  <si>
-    <t>tuan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duân</t>
+    <t>dòng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6461,7 +6079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6803,6 +6421,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6933,7 +6558,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7177,6 +6802,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9420,7 +9048,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -9468,7 +9096,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -9492,7 +9120,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -13779,16 +13407,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1552</v>
+        <v>1485</v>
       </c>
       <c r="B1" t="s">
-        <v>1553</v>
+        <v>1486</v>
       </c>
       <c r="C1" t="s">
-        <v>1554</v>
+        <v>1487</v>
       </c>
       <c r="D1" t="s">
-        <v>1555</v>
+        <v>1488</v>
       </c>
     </row>
   </sheetData>
@@ -13799,9 +13427,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E5D3B7-4F2B-4AE7-BF3D-A9CC9F608259}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
@@ -13810,16 +13438,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1552</v>
+        <v>1485</v>
       </c>
       <c r="B1" t="s">
-        <v>1553</v>
+        <v>1486</v>
       </c>
       <c r="C1" t="s">
-        <v>1554</v>
+        <v>1487</v>
       </c>
       <c r="D1" t="s">
-        <v>1555</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13833,21 +13461,21 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1857</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1557</v>
+        <v>1490</v>
       </c>
       <c r="B3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
         <v>1644</v>
-      </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13861,15 +13489,15 @@
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1858</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1560</v>
+        <v>1493</v>
       </c>
       <c r="B5" t="s">
-        <v>1645</v>
+        <v>1577</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
@@ -13880,7 +13508,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1561</v>
+        <v>1494</v>
       </c>
       <c r="B6" t="s">
         <v>443</v>
@@ -13903,7 +13531,7 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>926</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13917,21 +13545,21 @@
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1700</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1562</v>
+        <v>1495</v>
       </c>
       <c r="B9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
         <v>1646</v>
-      </c>
-      <c r="C9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13950,10 +13578,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1563</v>
+        <v>1496</v>
       </c>
       <c r="B11" t="s">
-        <v>1647</v>
+        <v>1581</v>
       </c>
       <c r="C11" t="s">
         <v>499</v>
@@ -13973,7 +13601,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1859</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13981,13 +13609,13 @@
         <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>1532</v>
+        <v>1481</v>
       </c>
       <c r="C13" t="s">
-        <v>1532</v>
+        <v>1481</v>
       </c>
       <c r="D13" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -14006,7 +13634,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1564</v>
+        <v>1497</v>
       </c>
       <c r="B15" t="s">
         <v>465</v>
@@ -14029,12 +13657,12 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1860</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1565</v>
+        <v>1498</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -14043,12 +13671,12 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1498</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1566</v>
+        <v>1499</v>
       </c>
       <c r="B18" t="s">
         <v>468</v>
@@ -14062,10 +13690,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1567</v>
+        <v>1500</v>
       </c>
       <c r="B19" t="s">
-        <v>1886</v>
+        <v>1714</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
@@ -14076,16 +13704,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1568</v>
+        <v>1501</v>
       </c>
       <c r="B20" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
         <v>1648</v>
-      </c>
-      <c r="C20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -14099,15 +13727,15 @@
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>1861</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1569</v>
+        <v>1502</v>
       </c>
       <c r="B22" t="s">
-        <v>1649</v>
+        <v>1584</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
@@ -14118,10 +13746,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1570</v>
+        <v>1503</v>
       </c>
       <c r="B23" t="s">
-        <v>1650</v>
+        <v>1585</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
@@ -14141,7 +13769,7 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1862</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -14155,7 +13783,7 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1503</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14174,7 +13802,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1571</v>
+        <v>1504</v>
       </c>
       <c r="B27" t="s">
         <v>443</v>
@@ -14188,16 +13816,16 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1572</v>
+        <v>1505</v>
       </c>
       <c r="B28" t="s">
-        <v>1651</v>
+        <v>1587</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1504</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -14216,10 +13844,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1573</v>
+        <v>1506</v>
       </c>
       <c r="B30" t="s">
-        <v>1652</v>
+        <v>1588</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
@@ -14230,21 +13858,21 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1574</v>
+        <v>1507</v>
       </c>
       <c r="B31" t="s">
-        <v>1653</v>
+        <v>1589</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1704</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1575</v>
+        <v>1508</v>
       </c>
       <c r="B32" t="s">
         <v>405</v>
@@ -14253,15 +13881,15 @@
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1505</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1576</v>
+        <v>1509</v>
       </c>
       <c r="B33" t="s">
-        <v>1654</v>
+        <v>1590</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
@@ -14272,21 +13900,21 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1577</v>
+        <v>1510</v>
       </c>
       <c r="B34" t="s">
-        <v>1655</v>
+        <v>1591</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1487</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1578</v>
+        <v>1511</v>
       </c>
       <c r="B35" t="s">
         <v>1343</v>
@@ -14300,21 +13928,21 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1579</v>
+        <v>1512</v>
       </c>
       <c r="B36" t="s">
-        <v>1656</v>
+        <v>1592</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1507</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1580</v>
+        <v>1513</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -14342,10 +13970,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1581</v>
+        <v>1514</v>
       </c>
       <c r="B39" t="s">
-        <v>1657</v>
+        <v>1594</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
@@ -14356,10 +13984,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1582</v>
+        <v>1515</v>
       </c>
       <c r="B40" t="s">
-        <v>1658</v>
+        <v>1595</v>
       </c>
       <c r="C40" t="s">
         <v>499</v>
@@ -14370,10 +13998,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1583</v>
+        <v>1516</v>
       </c>
       <c r="B41" t="s">
-        <v>1659</v>
+        <v>1596</v>
       </c>
       <c r="C41" t="s">
         <v>499</v>
@@ -14398,7 +14026,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1584</v>
+        <v>1517</v>
       </c>
       <c r="B43" t="s">
         <v>1330</v>
@@ -14407,15 +14035,15 @@
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1512</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1585</v>
+        <v>1518</v>
       </c>
       <c r="B44" t="s">
-        <v>1660</v>
+        <v>1597</v>
       </c>
       <c r="C44" t="s">
         <v>499</v>
@@ -14426,16 +14054,16 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>1586</v>
+        <v>1519</v>
       </c>
       <c r="B45" t="s">
-        <v>1661</v>
+        <v>1598</v>
       </c>
       <c r="C45" t="s">
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>1514</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -14449,7 +14077,7 @@
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1863</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -14463,15 +14091,15 @@
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>1864</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1587</v>
+        <v>1520</v>
       </c>
       <c r="B48" t="s">
-        <v>1662</v>
+        <v>1601</v>
       </c>
       <c r="C48" t="s">
         <v>499</v>
@@ -14482,7 +14110,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>1588</v>
+        <v>1521</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -14491,12 +14119,12 @@
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>1705</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1589</v>
+        <v>1522</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
@@ -14505,7 +14133,7 @@
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1706</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -14519,40 +14147,40 @@
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1865</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1590</v>
+        <v>1523</v>
       </c>
       <c r="B52" t="s">
-        <v>1663</v>
+        <v>1603</v>
       </c>
       <c r="C52" t="s">
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>1707</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>1591</v>
+        <v>1524</v>
       </c>
       <c r="B53" t="s">
-        <v>1664</v>
+        <v>1604</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>1708</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1592</v>
+        <v>1525</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -14561,12 +14189,12 @@
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>1709</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>1593</v>
+        <v>1526</v>
       </c>
       <c r="B55" t="s">
         <v>465</v>
@@ -14575,7 +14203,7 @@
         <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>1710</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -14589,21 +14217,21 @@
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>1866</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1594</v>
+        <v>1527</v>
       </c>
       <c r="B57" t="s">
-        <v>1665</v>
+        <v>1605</v>
       </c>
       <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>1711</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -14611,27 +14239,27 @@
         <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>1712</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1595</v>
+        <v>1528</v>
       </c>
       <c r="B59" t="s">
-        <v>1666</v>
+        <v>1606</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>1713</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -14645,7 +14273,7 @@
         <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>1867</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -14659,21 +14287,21 @@
         <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>1868</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>1596</v>
+        <v>1529</v>
       </c>
       <c r="B62" t="s">
-        <v>1667</v>
+        <v>1608</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>1714</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -14687,21 +14315,21 @@
         <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>1869</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>1597</v>
+        <v>1530</v>
       </c>
       <c r="B64" t="s">
-        <v>1668</v>
+        <v>1609</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
       </c>
       <c r="D64" t="s">
-        <v>1715</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -14715,15 +14343,15 @@
         <v>499</v>
       </c>
       <c r="D65" t="s">
-        <v>1870</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>1598</v>
+        <v>1531</v>
       </c>
       <c r="B66" t="s">
-        <v>1669</v>
+        <v>1610</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
@@ -14734,49 +14362,49 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>1599</v>
+        <v>1532</v>
       </c>
       <c r="B67" t="s">
-        <v>1670</v>
+        <v>1611</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
       </c>
       <c r="D67" t="s">
-        <v>1716</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>1600</v>
+        <v>1533</v>
       </c>
       <c r="B68" t="s">
-        <v>1671</v>
+        <v>1612</v>
       </c>
       <c r="C68" t="s">
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>1717</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>1601</v>
+        <v>1534</v>
       </c>
       <c r="B69" t="s">
-        <v>1672</v>
+        <v>1613</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>1718</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1602</v>
+        <v>1535</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -14813,26 +14441,26 @@
         <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>1871</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>1603</v>
+        <v>1536</v>
       </c>
       <c r="B73" t="s">
-        <v>1673</v>
+        <v>1614</v>
       </c>
       <c r="C73" t="s">
         <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>1719</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>1604</v>
+        <v>1537</v>
       </c>
       <c r="B74" t="s">
         <v>337</v>
@@ -14841,7 +14469,7 @@
         <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>1720</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -14855,12 +14483,12 @@
         <v>499</v>
       </c>
       <c r="D75" t="s">
-        <v>1872</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>1605</v>
+        <v>1538</v>
       </c>
       <c r="B76" t="s">
         <v>324</v>
@@ -14869,15 +14497,15 @@
         <v>499</v>
       </c>
       <c r="D76" t="s">
-        <v>1721</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>1606</v>
+        <v>1539</v>
       </c>
       <c r="B77" t="s">
-        <v>1674</v>
+        <v>1615</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
@@ -14897,7 +14525,7 @@
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1284</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -14916,10 +14544,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>1607</v>
+        <v>1540</v>
       </c>
       <c r="B80" t="s">
-        <v>1889</v>
+        <v>1715</v>
       </c>
       <c r="C80" t="s">
         <v>499</v>
@@ -14930,10 +14558,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>1608</v>
+        <v>1541</v>
       </c>
       <c r="B81" t="s">
-        <v>1675</v>
+        <v>1617</v>
       </c>
       <c r="C81" t="s">
         <v>499</v>
@@ -14944,10 +14572,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>1609</v>
+        <v>1542</v>
       </c>
       <c r="B82" t="s">
-        <v>1676</v>
+        <v>1618</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
@@ -14972,10 +14600,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>1610</v>
+        <v>1543</v>
       </c>
       <c r="B84" t="s">
-        <v>1677</v>
+        <v>1619</v>
       </c>
       <c r="C84" t="s">
         <v>499</v>
@@ -14995,7 +14623,7 @@
         <v>499</v>
       </c>
       <c r="D85" t="s">
-        <v>1873</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -15009,35 +14637,35 @@
         <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>1874</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>1611</v>
+        <v>1544</v>
       </c>
       <c r="B87" t="s">
-        <v>1892</v>
+        <v>1716</v>
       </c>
       <c r="C87" t="s">
         <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>1722</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>1612</v>
+        <v>1545</v>
       </c>
       <c r="B88" t="s">
-        <v>1678</v>
+        <v>1621</v>
       </c>
       <c r="C88" t="s">
         <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>1723</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -15045,49 +14673,49 @@
         <v>1235</v>
       </c>
       <c r="B89" t="s">
-        <v>1679</v>
+        <v>1622</v>
       </c>
       <c r="C89" t="s">
         <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>1724</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>1613</v>
+        <v>1546</v>
       </c>
       <c r="B90" t="s">
-        <v>1895</v>
+        <v>1717</v>
       </c>
       <c r="C90" t="s">
         <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>1538</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>1614</v>
+        <v>1547</v>
       </c>
       <c r="B91" t="s">
-        <v>1680</v>
+        <v>1623</v>
       </c>
       <c r="C91" t="s">
         <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>1725</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>1615</v>
+        <v>1548</v>
       </c>
       <c r="B92" t="s">
-        <v>1898</v>
+        <v>1718</v>
       </c>
       <c r="C92" t="s">
         <v>499</v>
@@ -15098,16 +14726,16 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1616</v>
+        <v>1549</v>
       </c>
       <c r="B93" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C93" t="s">
         <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>1726</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -15121,15 +14749,15 @@
         <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>1875</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>1618</v>
+        <v>1550</v>
       </c>
       <c r="B95" t="s">
-        <v>1681</v>
+        <v>1624</v>
       </c>
       <c r="C95" t="s">
         <v>499</v>
@@ -15140,16 +14768,16 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>1619</v>
+        <v>1551</v>
       </c>
       <c r="B96" t="s">
-        <v>1901</v>
+        <v>1719</v>
       </c>
       <c r="C96" t="s">
         <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>1727</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -15163,40 +14791,40 @@
         <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>1876</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>1620</v>
+        <v>1552</v>
       </c>
       <c r="B98" t="s">
-        <v>1682</v>
+        <v>1625</v>
       </c>
       <c r="C98" t="s">
         <v>499</v>
       </c>
       <c r="D98" t="s">
-        <v>1728</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>1621</v>
+        <v>1553</v>
       </c>
       <c r="B99" t="s">
-        <v>1683</v>
+        <v>1626</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
       </c>
       <c r="D99" t="s">
-        <v>1729</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>1622</v>
+        <v>1554</v>
       </c>
       <c r="B100" t="s">
         <v>448</v>
@@ -15210,10 +14838,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>1623</v>
+        <v>1555</v>
       </c>
       <c r="B101" t="s">
-        <v>1684</v>
+        <v>1628</v>
       </c>
       <c r="C101" t="s">
         <v>499</v>
@@ -15224,7 +14852,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>1624</v>
+        <v>1556</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
@@ -15247,12 +14875,12 @@
         <v>499</v>
       </c>
       <c r="D103" t="s">
-        <v>1877</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>1625</v>
+        <v>1557</v>
       </c>
       <c r="B104" t="s">
         <v>49</v>
@@ -15261,7 +14889,7 @@
         <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>1730</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -15275,15 +14903,15 @@
         <v>499</v>
       </c>
       <c r="D105" t="s">
-        <v>1878</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>1626</v>
+        <v>1558</v>
       </c>
       <c r="B106" t="s">
-        <v>1685</v>
+        <v>1629</v>
       </c>
       <c r="C106" t="s">
         <v>499</v>
@@ -15294,10 +14922,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>1627</v>
+        <v>1559</v>
       </c>
       <c r="B107" t="s">
-        <v>1682</v>
+        <v>1625</v>
       </c>
       <c r="C107" t="s">
         <v>499</v>
@@ -15308,16 +14936,16 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>1628</v>
+        <v>1560</v>
       </c>
       <c r="B108" t="s">
-        <v>1686</v>
+        <v>1630</v>
       </c>
       <c r="C108" t="s">
         <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>1731</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -15331,63 +14959,63 @@
         <v>499</v>
       </c>
       <c r="D109" t="s">
-        <v>1879</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>1629</v>
+        <v>1561</v>
       </c>
       <c r="B110" t="s">
-        <v>1687</v>
+        <v>1631</v>
       </c>
       <c r="C110" t="s">
         <v>499</v>
       </c>
       <c r="D110" t="s">
-        <v>1732</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>1630</v>
+        <v>1562</v>
       </c>
       <c r="B111" t="s">
-        <v>1904</v>
+        <v>1720</v>
       </c>
       <c r="C111" t="s">
         <v>499</v>
       </c>
       <c r="D111" t="s">
-        <v>1733</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>1631</v>
+        <v>1563</v>
       </c>
       <c r="B112" t="s">
-        <v>1688</v>
+        <v>1632</v>
       </c>
       <c r="C112" t="s">
         <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>1734</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>1632</v>
+        <v>1564</v>
       </c>
       <c r="B113" t="s">
-        <v>1689</v>
+        <v>1633</v>
       </c>
       <c r="C113" t="s">
         <v>499</v>
       </c>
       <c r="D113" t="s">
-        <v>1735</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -15395,46 +15023,46 @@
         <v>102</v>
       </c>
       <c r="B114" t="s">
-        <v>1421</v>
+        <v>1164</v>
       </c>
       <c r="C114" t="s">
-        <v>1885</v>
+        <v>499</v>
       </c>
       <c r="D114" t="s">
-        <v>1736</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>1633</v>
+        <v>1565</v>
       </c>
       <c r="B115" t="s">
-        <v>1690</v>
+        <v>1634</v>
       </c>
       <c r="C115" t="s">
         <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>1737</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>1634</v>
+        <v>1566</v>
       </c>
       <c r="B116" t="s">
-        <v>1691</v>
+        <v>1635</v>
       </c>
       <c r="C116" t="s">
         <v>499</v>
       </c>
       <c r="D116" t="s">
-        <v>1738</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>1635</v>
+        <v>1567</v>
       </c>
       <c r="B117" t="s">
         <v>332</v>
@@ -15443,21 +15071,21 @@
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>1739</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B118" t="s">
         <v>1636</v>
       </c>
-      <c r="B118" t="s">
-        <v>1692</v>
-      </c>
       <c r="C118" t="s">
         <v>499</v>
       </c>
       <c r="D118" t="s">
-        <v>1740</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -15476,16 +15104,16 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B120" t="s">
         <v>1637</v>
       </c>
-      <c r="B120" t="s">
-        <v>1693</v>
-      </c>
       <c r="C120" t="s">
         <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>1741</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -15499,21 +15127,21 @@
         <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>1880</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>1638</v>
+        <v>1570</v>
       </c>
       <c r="B122" t="s">
-        <v>1694</v>
+        <v>1639</v>
       </c>
       <c r="C122" t="s">
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>1742</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -15527,15 +15155,15 @@
         <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>1743</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>1639</v>
+        <v>1571</v>
       </c>
       <c r="B124" t="s">
-        <v>1695</v>
+        <v>1640</v>
       </c>
       <c r="C124" t="s">
         <v>499</v>
@@ -15546,16 +15174,16 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>1640</v>
+        <v>1572</v>
       </c>
       <c r="B125" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C125" t="s">
         <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>1744</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -15569,7 +15197,7 @@
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>1881</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -15591,13 +15219,13 @@
         <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>1478</v>
+        <v>1434</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
       </c>
       <c r="D128" t="s">
-        <v>1882</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -15611,12 +15239,12 @@
         <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>1030</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>1641</v>
+        <v>1573</v>
       </c>
       <c r="B130" t="s">
         <v>53</v>
@@ -15625,7 +15253,7 @@
         <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>1745</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -15639,7 +15267,7 @@
         <v>499</v>
       </c>
       <c r="D131" t="s">
-        <v>1883</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -15653,15 +15281,15 @@
         <v>499</v>
       </c>
       <c r="D132" t="s">
-        <v>1884</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>1642</v>
+        <v>1574</v>
       </c>
       <c r="B133" t="s">
-        <v>1697</v>
+        <v>1643</v>
       </c>
       <c r="C133" t="s">
         <v>499</v>
@@ -15682,6 +15310,650 @@
       </c>
       <c r="D134" t="s">
         <v>1037</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C135" t="s">
+        <v>499</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" t="s">
+        <v>472</v>
+      </c>
+      <c r="C137" t="s">
+        <v>499</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" t="s">
+        <v>499</v>
+      </c>
+      <c r="D138" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B139" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" t="s">
+        <v>499</v>
+      </c>
+      <c r="D139" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C140" t="s">
+        <v>499</v>
+      </c>
+      <c r="D140" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" t="s">
+        <v>396</v>
+      </c>
+      <c r="C141" t="s">
+        <v>499</v>
+      </c>
+      <c r="D141" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C142" t="s">
+        <v>499</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C143" t="s">
+        <v>499</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B144" t="s">
+        <v>329</v>
+      </c>
+      <c r="C144" t="s">
+        <v>499</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s">
+        <v>345</v>
+      </c>
+      <c r="C145" t="s">
+        <v>499</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C146" t="s">
+        <v>499</v>
+      </c>
+      <c r="D146" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" t="s">
+        <v>499</v>
+      </c>
+      <c r="D147" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C148" t="s">
+        <v>499</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" t="s">
+        <v>499</v>
+      </c>
+      <c r="D149" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C150" t="s">
+        <v>499</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C151" t="s">
+        <v>499</v>
+      </c>
+      <c r="D151" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C152" t="s">
+        <v>499</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C153" t="s">
+        <v>499</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B154" t="s">
+        <v>382</v>
+      </c>
+      <c r="C154" t="s">
+        <v>499</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C155" t="s">
+        <v>499</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B156" t="s">
+        <v>458</v>
+      </c>
+      <c r="C156" t="s">
+        <v>499</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C157" t="s">
+        <v>499</v>
+      </c>
+      <c r="D157" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+      <c r="B158" t="s">
+        <v>303</v>
+      </c>
+      <c r="C158" t="s">
+        <v>499</v>
+      </c>
+      <c r="D158" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>253</v>
+      </c>
+      <c r="B159" t="s">
+        <v>452</v>
+      </c>
+      <c r="C159" t="s">
+        <v>499</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C160" t="s">
+        <v>499</v>
+      </c>
+      <c r="D160" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C161" t="s">
+        <v>499</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B162" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" t="s">
+        <v>499</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C163" t="s">
+        <v>499</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C164" t="s">
+        <v>499</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C166" t="s">
+        <v>499</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B167" t="s">
+        <v>371</v>
+      </c>
+      <c r="C167" t="s">
+        <v>499</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C169" t="s">
+        <v>499</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>237</v>
+      </c>
+      <c r="B170" t="s">
+        <v>443</v>
+      </c>
+      <c r="C170" t="s">
+        <v>499</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C171" t="s">
+        <v>499</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C172" t="s">
+        <v>499</v>
+      </c>
+      <c r="D172" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C173" t="s">
+        <v>499</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C174" t="s">
+        <v>499</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C175" t="s">
+        <v>499</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B176" t="s">
+        <v>440</v>
+      </c>
+      <c r="C176" t="s">
+        <v>499</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" t="s">
+        <v>499</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>285</v>
+      </c>
+      <c r="B178" t="s">
+        <v>477</v>
+      </c>
+      <c r="C178" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B179" t="s">
+        <v>336</v>
+      </c>
+      <c r="C179" t="s">
+        <v>499</v>
+      </c>
+      <c r="D179" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C180" t="s">
+        <v>499</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
@@ -15692,7 +15964,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438FBF56-2395-4FD2-8BF8-AB5BAA65F495}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15700,16 +15972,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1552</v>
+        <v>1485</v>
       </c>
       <c r="B1" t="s">
-        <v>1553</v>
+        <v>1486</v>
       </c>
       <c r="C1" t="s">
-        <v>1554</v>
+        <v>1487</v>
       </c>
       <c r="D1" t="s">
-        <v>1555</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15723,21 +15995,63 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1699</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1558</v>
+        <v>1491</v>
       </c>
       <c r="B3" t="s">
-        <v>1908</v>
+        <v>1722</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
         <v>1270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -15750,9 +16064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -15763,7 +16077,7 @@
     <col min="4" max="18" width="28.5" style="39" customWidth="1"/>
     <col min="19" max="19" width="4.625" style="6" customWidth="1"/>
     <col min="20" max="20" width="3.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="7.75" style="5" customWidth="1"/>
+    <col min="21" max="21" width="23.5" style="5" customWidth="1"/>
     <col min="22" max="22" width="89.625" style="7" customWidth="1"/>
     <col min="23" max="23" width="12.75" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="5"/>
@@ -15862,7 +16176,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -15872,56 +16186,50 @@
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
       <c r="G3" s="72"/>
-      <c r="H3" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>1908</v>
-      </c>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
       <c r="L3" s="72"/>
       <c r="M3" s="72"/>
       <c r="N3" s="72"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
       <c r="T3" s="16"/>
       <c r="V3" s="66" t="s">
-        <v>1643</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="73"/>
       <c r="E4" s="73" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>910</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>722</v>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="73" t="s">
-        <v>1909</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73" t="s">
-        <v>1748</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="73"/>
       <c r="L4" s="73" t="s">
-        <v>826</v>
+        <v>399</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>892</v>
-      </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="63"/>
+        <v>1404</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="O4" s="73"/>
       <c r="P4" s="63"/>
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
@@ -15933,41 +16241,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>1556</v>
+        <v>1489</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>1393</v>
+        <v>226</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>1557</v>
+        <v>1248</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>291</v>
+        <v>1492</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>1159</v>
+        <v>1723</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>1558</v>
+        <v>97</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>1559</v>
+        <v>1724</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>1560</v>
+        <v>289</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>1561</v>
+        <v>1725</v>
       </c>
       <c r="M5" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="71" t="str">
+        <v>183</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="71" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O5" s="64"/>
       <c r="P5" s="64"/>
       <c r="Q5" s="64"/>
       <c r="R5" s="64"/>
@@ -15979,32 +16289,30 @@
       <c r="C6" s="23"/>
       <c r="D6" s="73"/>
       <c r="E6" s="73" t="s">
-        <v>1484</v>
+        <v>1759</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>1455</v>
-      </c>
+        <v>1760</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="73" t="s">
-        <v>1910</v>
-      </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73" t="s">
-        <v>1749</v>
-      </c>
+        <v>1761</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K6" s="73"/>
       <c r="L6" s="73" t="s">
-        <v>1540</v>
+        <v>1763</v>
       </c>
       <c r="M6" s="73" t="s">
-        <v>1432</v>
-      </c>
-      <c r="N6" s="73"/>
-      <c r="O6" s="63"/>
+        <v>1641</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>1764</v>
+      </c>
+      <c r="O6" s="73"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
@@ -16015,9 +16323,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="72"/>
-      <c r="E7" s="72" t="s">
-        <v>1526</v>
-      </c>
+      <c r="E7" s="72"/>
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
       <c r="H7" s="72"/>
@@ -16037,47 +16343,47 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="73" t="s">
-        <v>910</v>
+        <v>1395</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>722</v>
+        <v>1167</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>704</v>
+        <v>354</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>1750</v>
+        <v>1765</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>543</v>
+        <v>1399</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>1752</v>
+        <v>1398</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>541</v>
-      </c>
-      <c r="K8" s="73" t="s">
-        <v>1533</v>
-      </c>
-      <c r="L8" s="73"/>
+        <v>329</v>
+      </c>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73" t="s">
+        <v>345</v>
+      </c>
       <c r="M8" s="73" t="s">
-        <v>900</v>
+        <v>329</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="O8" s="73" t="s">
-        <v>872</v>
+        <v>1626</v>
       </c>
       <c r="P8" s="73" t="s">
-        <v>567</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="73" t="s">
-        <v>607</v>
+        <v>1770</v>
       </c>
       <c r="R8" s="73" t="s">
-        <v>878</v>
+        <v>302</v>
       </c>
       <c r="S8" s="77"/>
       <c r="V8" s="67"/>
@@ -16088,49 +16394,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>1159</v>
+        <v>1248</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>1562</v>
+        <v>1726</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>252</v>
+        <v>1393</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>1563</v>
+        <v>1392</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>37</v>
+        <v>1727</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>283</v>
+        <v>1727</v>
       </c>
       <c r="N9" s="71" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="O9" s="71" t="s">
-        <v>1564</v>
+        <v>1728</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>93</v>
+        <v>1729</v>
       </c>
       <c r="Q9" s="71" t="s">
-        <v>1565</v>
+        <v>1730</v>
       </c>
       <c r="R9" s="71" t="s">
-        <v>1566</v>
+        <v>70</v>
       </c>
       <c r="S9" s="75"/>
       <c r="T9" s="16"/>
@@ -16139,47 +16445,47 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="74" t="s">
-        <v>1480</v>
+        <v>1759</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>1455</v>
+        <v>1760</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>1531</v>
+        <v>1642</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>1751</v>
+        <v>1766</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>1434</v>
+        <v>1575</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>1753</v>
+        <v>1767</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>1474</v>
-      </c>
-      <c r="K10" s="74" t="s">
-        <v>1534</v>
-      </c>
-      <c r="L10" s="74"/>
+        <v>1768</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74" t="s">
+        <v>1769</v>
+      </c>
       <c r="M10" s="74" t="s">
-        <v>1907</v>
+        <v>1768</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>1531</v>
+        <v>1769</v>
       </c>
       <c r="O10" s="74" t="s">
-        <v>1472</v>
+        <v>1627</v>
       </c>
       <c r="P10" s="74" t="s">
-        <v>1437</v>
+        <v>1593</v>
       </c>
       <c r="Q10" s="74" t="s">
-        <v>1541</v>
+        <v>1771</v>
       </c>
       <c r="R10" s="74" t="s">
-        <v>1475</v>
+        <v>1772</v>
       </c>
       <c r="S10" s="78"/>
       <c r="V10" s="67"/>
@@ -16207,40 +16513,18 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="73"/>
-      <c r="E12" s="73" t="s">
-        <v>1887</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>756</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>1400</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>1746</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>1756</v>
-      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="73"/>
-      <c r="L12" s="73" t="s">
-        <v>1758</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>597</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>880</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>631</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>826</v>
-      </c>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
       <c r="Q12" s="73"/>
       <c r="R12" s="73"/>
       <c r="S12" s="19"/>
@@ -16254,90 +16538,42 @@
       <c r="D13" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I13" s="71" t="s">
-        <v>1557</v>
-      </c>
-      <c r="J13" s="71" t="s">
-        <v>1569</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="71" t="s">
-        <v>1570</v>
-      </c>
-      <c r="M13" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="O13" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13" s="71" t="s">
-        <v>1571</v>
-      </c>
-      <c r="Q13" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="71" t="str">
+      <c r="E13" s="71" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
       <c r="S13" s="21"/>
       <c r="V13" s="67"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="74"/>
-      <c r="E14" s="74" t="s">
-        <v>1888</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>1755</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>1458</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>1484</v>
-      </c>
-      <c r="I14" s="74" t="s">
-        <v>1747</v>
-      </c>
-      <c r="J14" s="74" t="s">
-        <v>1757</v>
-      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="74"/>
-      <c r="L14" s="74" t="s">
-        <v>1759</v>
-      </c>
-      <c r="M14" s="74" t="s">
-        <v>1442</v>
-      </c>
-      <c r="N14" s="74" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O14" s="74" t="s">
-        <v>1445</v>
-      </c>
-      <c r="P14" s="74" t="s">
-        <v>1540</v>
-      </c>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
       <c r="Q14" s="74"/>
       <c r="R14" s="74"/>
       <c r="S14" s="31"/>
@@ -16347,7 +16583,9 @@
       <c r="B15" s="12"/>
       <c r="C15" s="34"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="72" t="s">
+        <v>62</v>
+      </c>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
       <c r="H15" s="72"/>
@@ -16367,43 +16605,47 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="73" t="s">
-        <v>1760</v>
+        <v>1773</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>832</v>
+        <v>722</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>1762</v>
+        <v>1775</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H16" s="73"/>
+        <v>1777</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>1779</v>
+      </c>
       <c r="I16" s="73" t="s">
-        <v>704</v>
+        <v>382</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>742</v>
-      </c>
-      <c r="K16" s="73" t="s">
-        <v>1766</v>
-      </c>
+        <v>1781</v>
+      </c>
+      <c r="K16" s="73"/>
       <c r="L16" s="73" t="s">
-        <v>1768</v>
-      </c>
-      <c r="M16" s="73"/>
+        <v>458</v>
+      </c>
+      <c r="M16" s="73" t="s">
+        <v>1783</v>
+      </c>
       <c r="N16" s="73" t="s">
-        <v>1770</v>
+        <v>303</v>
       </c>
       <c r="O16" s="73" t="s">
-        <v>1772</v>
+        <v>452</v>
       </c>
       <c r="P16" s="73" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q16" s="73"/>
+        <v>1787</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>1789</v>
+      </c>
       <c r="R16" s="73" t="s">
-        <v>704</v>
+        <v>339</v>
       </c>
       <c r="S16" s="77"/>
       <c r="V16" s="67"/>
@@ -16414,49 +16656,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>1572</v>
+        <v>1731</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>243</v>
+        <v>1159</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>1573</v>
+        <v>1732</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>1574</v>
+        <v>1733</v>
       </c>
       <c r="H17" s="71" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K17" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="71" t="s">
-        <v>1575</v>
-      </c>
-      <c r="K17" s="71" t="s">
-        <v>1576</v>
-      </c>
       <c r="L17" s="71" t="s">
-        <v>1577</v>
+        <v>1737</v>
       </c>
       <c r="M17" s="71" t="s">
-        <v>30</v>
+        <v>1738</v>
       </c>
       <c r="N17" s="71" t="s">
-        <v>1578</v>
+        <v>71</v>
       </c>
       <c r="O17" s="71" t="s">
-        <v>1579</v>
+        <v>253</v>
       </c>
       <c r="P17" s="71" t="s">
-        <v>1580</v>
+        <v>1739</v>
       </c>
       <c r="Q17" s="71" t="s">
-        <v>23</v>
+        <v>1740</v>
       </c>
       <c r="R17" s="71" t="s">
-        <v>168</v>
+        <v>1741</v>
       </c>
       <c r="S17" s="75"/>
       <c r="V17" s="67"/>
@@ -16464,43 +16706,47 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="74" t="s">
-        <v>1761</v>
+        <v>1774</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>1466</v>
+        <v>1428</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>1763</v>
+        <v>1776</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H18" s="74"/>
+        <v>1778</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>1780</v>
+      </c>
       <c r="I18" s="74" t="s">
-        <v>1531</v>
+        <v>1721</v>
       </c>
       <c r="J18" s="74" t="s">
-        <v>1457</v>
-      </c>
-      <c r="K18" s="74" t="s">
-        <v>1767</v>
-      </c>
+        <v>1782</v>
+      </c>
+      <c r="K18" s="74"/>
       <c r="L18" s="74" t="s">
-        <v>1769</v>
-      </c>
-      <c r="M18" s="74"/>
+        <v>1600</v>
+      </c>
+      <c r="M18" s="74" t="s">
+        <v>1784</v>
+      </c>
       <c r="N18" s="74" t="s">
-        <v>1771</v>
+        <v>1785</v>
       </c>
       <c r="O18" s="74" t="s">
-        <v>1773</v>
+        <v>1786</v>
       </c>
       <c r="P18" s="74" t="s">
-        <v>1535</v>
-      </c>
-      <c r="Q18" s="74"/>
+        <v>1788</v>
+      </c>
+      <c r="Q18" s="74" t="s">
+        <v>1790</v>
+      </c>
       <c r="R18" s="74" t="s">
-        <v>1531</v>
+        <v>1791</v>
       </c>
       <c r="S18" s="78"/>
       <c r="V18" s="67"/>
@@ -16528,44 +16774,20 @@
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="73" t="s">
-        <v>874</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>1776</v>
-      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="73"/>
-      <c r="H20" s="73" t="s">
-        <v>1778</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>756</v>
-      </c>
-      <c r="J20" s="73" t="s">
-        <v>685</v>
-      </c>
-      <c r="K20" s="73" t="s">
-        <v>1780</v>
-      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="73"/>
-      <c r="M20" s="73" t="s">
-        <v>1782</v>
-      </c>
-      <c r="N20" s="73" t="s">
-        <v>1784</v>
-      </c>
-      <c r="O20" s="73" t="s">
-        <v>665</v>
-      </c>
-      <c r="P20" s="73" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q20" s="73" t="s">
-        <v>1786</v>
-      </c>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
       <c r="S20" s="77"/>
       <c r="V20" s="67"/>
@@ -16576,93 +16798,45 @@
         <v>5</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>1582</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I21" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="K21" s="71" t="s">
-        <v>1584</v>
-      </c>
-      <c r="L21" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="71" t="s">
-        <v>1585</v>
-      </c>
-      <c r="N21" s="71" t="s">
-        <v>1586</v>
-      </c>
-      <c r="O21" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="P21" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q21" s="71" t="s">
-        <v>1587</v>
-      </c>
-      <c r="R21" s="71" t="s">
         <v>30</v>
       </c>
+      <c r="E21" s="71" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
       <c r="S21" s="75"/>
       <c r="V21" s="67"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
-      <c r="D22" s="74" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F22" s="74" t="s">
-        <v>1777</v>
-      </c>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="74"/>
-      <c r="H22" s="74" t="s">
-        <v>1779</v>
-      </c>
-      <c r="I22" s="74" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J22" s="74" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K22" s="74" t="s">
-        <v>1781</v>
-      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="74"/>
-      <c r="M22" s="74" t="s">
-        <v>1783</v>
-      </c>
-      <c r="N22" s="74" t="s">
-        <v>1785</v>
-      </c>
-      <c r="O22" s="74" t="s">
-        <v>1544</v>
-      </c>
-      <c r="P22" s="74" t="s">
-        <v>1470</v>
-      </c>
-      <c r="Q22" s="74" t="s">
-        <v>1787</v>
-      </c>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
       <c r="R22" s="74"/>
       <c r="S22" s="78"/>
       <c r="V22" s="67"/>
@@ -16670,7 +16844,9 @@
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="72"/>
+      <c r="D23" s="72" t="s">
+        <v>1840</v>
+      </c>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
@@ -16679,11 +16855,15 @@
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
+      <c r="M23" s="72" t="s">
+        <v>1842</v>
+      </c>
       <c r="N23" s="72"/>
       <c r="O23" s="72"/>
       <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
+      <c r="Q23" s="72" t="s">
+        <v>62</v>
+      </c>
       <c r="R23" s="72"/>
       <c r="S23" s="79"/>
       <c r="V23" s="67"/>
@@ -16691,45 +16871,47 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="73" t="s">
-        <v>607</v>
+        <v>1792</v>
       </c>
       <c r="E24" s="73" t="s">
-        <v>896</v>
+        <v>1794</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>862</v>
-      </c>
-      <c r="G24" s="73"/>
+        <v>1394</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>55</v>
+      </c>
       <c r="H24" s="73" t="s">
-        <v>1788</v>
+        <v>1637</v>
       </c>
       <c r="I24" s="73" t="s">
-        <v>1790</v>
+        <v>411</v>
       </c>
       <c r="J24" s="73" t="s">
-        <v>704</v>
-      </c>
-      <c r="K24" s="73" t="s">
-        <v>529</v>
-      </c>
+        <v>1797</v>
+      </c>
+      <c r="K24" s="73"/>
       <c r="L24" s="73" t="s">
-        <v>872</v>
+        <v>371</v>
       </c>
       <c r="M24" s="73" t="s">
-        <v>523</v>
-      </c>
-      <c r="N24" s="73"/>
+        <v>1800</v>
+      </c>
+      <c r="N24" s="73" t="s">
+        <v>395</v>
+      </c>
       <c r="O24" s="73" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="P24" s="73" t="s">
-        <v>1405</v>
+        <v>1804</v>
       </c>
       <c r="Q24" s="73" t="s">
-        <v>1750</v>
+        <v>722</v>
       </c>
       <c r="R24" s="73" t="s">
-        <v>567</v>
+        <v>443</v>
       </c>
       <c r="S24" s="77"/>
       <c r="V24" s="67"/>
@@ -16740,49 +16922,49 @@
         <v>6</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>1588</v>
+        <v>1742</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>1589</v>
+        <v>1743</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="G25" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="71" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I25" s="71" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J25" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="71" t="s">
-        <v>1592</v>
-      </c>
       <c r="L25" s="71" t="s">
-        <v>1593</v>
+        <v>1746</v>
       </c>
       <c r="M25" s="71" t="s">
-        <v>158</v>
+        <v>1747</v>
       </c>
       <c r="N25" s="71" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O25" s="71" t="s">
-        <v>1594</v>
+        <v>1748</v>
       </c>
       <c r="P25" s="71" t="s">
-        <v>94</v>
+        <v>1749</v>
       </c>
       <c r="Q25" s="71" t="s">
-        <v>1562</v>
+        <v>1159</v>
       </c>
       <c r="R25" s="71" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="S25" s="75"/>
       <c r="V25" s="67"/>
@@ -16790,45 +16972,47 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="74" t="s">
-        <v>1541</v>
+        <v>1793</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>1476</v>
+        <v>1795</v>
       </c>
       <c r="F26" s="74" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G26" s="74"/>
+        <v>1796</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>1579</v>
+      </c>
       <c r="H26" s="74" t="s">
-        <v>1789</v>
+        <v>1638</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>1791</v>
+        <v>1583</v>
       </c>
       <c r="J26" s="74" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K26" s="74" t="s">
-        <v>1430</v>
-      </c>
+        <v>1798</v>
+      </c>
+      <c r="K26" s="74"/>
       <c r="L26" s="74" t="s">
-        <v>1472</v>
+        <v>1799</v>
       </c>
       <c r="M26" s="74" t="s">
-        <v>1429</v>
-      </c>
-      <c r="N26" s="74"/>
+        <v>1801</v>
+      </c>
+      <c r="N26" s="74" t="s">
+        <v>1620</v>
+      </c>
       <c r="O26" s="74" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="P26" s="74" t="s">
-        <v>1529</v>
+        <v>1805</v>
       </c>
       <c r="Q26" s="74" t="s">
-        <v>1751</v>
+        <v>1428</v>
       </c>
       <c r="R26" s="74" t="s">
-        <v>1437</v>
+        <v>1578</v>
       </c>
       <c r="S26" s="78"/>
       <c r="V26" s="67"/>
@@ -16854,55 +17038,31 @@
       <c r="S27" s="79"/>
       <c r="U27" s="35" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v/>
+        <v>́</v>
       </c>
       <c r="V27" s="67"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="73" t="s">
-        <v>1794</v>
-      </c>
-      <c r="E28" s="73" t="s">
-        <v>651</v>
-      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="73"/>
-      <c r="G28" s="73" t="s">
-        <v>824</v>
-      </c>
-      <c r="H28" s="73" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I28" s="73" t="s">
-        <v>862</v>
-      </c>
-      <c r="J28" s="73" t="s">
-        <v>778</v>
-      </c>
-      <c r="K28" s="73" t="s">
-        <v>1798</v>
-      </c>
-      <c r="L28" s="73" t="s">
-        <v>601</v>
-      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
       <c r="M28" s="73"/>
-      <c r="N28" s="73" t="s">
-        <v>1800</v>
-      </c>
-      <c r="O28" s="73" t="s">
-        <v>1802</v>
-      </c>
-      <c r="P28" s="73" t="s">
-        <v>1804</v>
-      </c>
-      <c r="Q28" s="73" t="s">
-        <v>1806</v>
-      </c>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
       <c r="R28" s="73"/>
       <c r="S28" s="77"/>
       <c r="U28" s="35" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>́</v>
       </c>
       <c r="V28" s="67"/>
     </row>
@@ -16912,102 +17072,54 @@
         <v>7</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E29" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="71" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I29" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="J29" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="71" t="s">
-        <v>1597</v>
-      </c>
-      <c r="L29" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="M29" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="71" t="s">
-        <v>1598</v>
-      </c>
-      <c r="O29" s="71" t="s">
-        <v>1599</v>
-      </c>
-      <c r="P29" s="71" t="s">
-        <v>1600</v>
-      </c>
-      <c r="Q29" s="71" t="s">
-        <v>1601</v>
-      </c>
-      <c r="R29" s="71" t="s">
-        <v>23</v>
-      </c>
+      <c r="E29" s="71" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
       <c r="S29" s="75"/>
       <c r="U29" s="35" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>́</v>
       </c>
       <c r="V29" s="67"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
-      <c r="D30" s="74" t="s">
-        <v>1795</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>1543</v>
-      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="74"/>
-      <c r="G30" s="74" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H30" s="74" t="s">
-        <v>1797</v>
-      </c>
-      <c r="I30" s="74" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J30" s="74" t="s">
-        <v>1461</v>
-      </c>
-      <c r="K30" s="74" t="s">
-        <v>1799</v>
-      </c>
-      <c r="L30" s="74" t="s">
-        <v>1443</v>
-      </c>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
       <c r="M30" s="74"/>
-      <c r="N30" s="74" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O30" s="74" t="s">
-        <v>1803</v>
-      </c>
-      <c r="P30" s="74" t="s">
-        <v>1805</v>
-      </c>
-      <c r="Q30" s="74" t="s">
-        <v>1807</v>
-      </c>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
       <c r="R30" s="74"/>
       <c r="S30" s="78"/>
       <c r="U30" s="35" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>́</v>
       </c>
       <c r="V30" s="67"/>
     </row>
@@ -17024,7 +17136,9 @@
       <c r="K31" s="72"/>
       <c r="L31" s="72"/>
       <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
+      <c r="N31" s="72" t="s">
+        <v>1845</v>
+      </c>
       <c r="O31" s="72"/>
       <c r="P31" s="72"/>
       <c r="Q31" s="72"/>
@@ -17032,57 +17146,59 @@
       <c r="S31" s="79"/>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>́</v>
       </c>
       <c r="V31" s="67"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="73" t="s">
-        <v>567</v>
+        <v>362</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>611</v>
+        <v>380</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>908</v>
+        <v>1806</v>
       </c>
       <c r="G32" s="73" t="s">
         <v>1808</v>
       </c>
-      <c r="H32" s="73"/>
+      <c r="H32" s="73" t="s">
+        <v>1354</v>
+      </c>
       <c r="I32" s="73" t="s">
-        <v>599</v>
+        <v>1811</v>
       </c>
       <c r="J32" s="73" t="s">
-        <v>1808</v>
-      </c>
-      <c r="K32" s="73" t="s">
-        <v>778</v>
-      </c>
+        <v>1813</v>
+      </c>
+      <c r="K32" s="73"/>
       <c r="L32" s="73" t="s">
-        <v>902</v>
-      </c>
-      <c r="M32" s="73"/>
+        <v>440</v>
+      </c>
+      <c r="M32" s="73" t="s">
+        <v>53</v>
+      </c>
       <c r="N32" s="73" t="s">
-        <v>565</v>
+        <v>1846</v>
       </c>
       <c r="O32" s="73" t="s">
-        <v>704</v>
+        <v>477</v>
       </c>
       <c r="P32" s="73" t="s">
-        <v>1810</v>
+        <v>336</v>
       </c>
       <c r="Q32" s="73" t="s">
-        <v>691</v>
+        <v>1817</v>
       </c>
       <c r="R32" s="73" t="s">
-        <v>758</v>
+        <v>368</v>
       </c>
       <c r="S32" s="77"/>
       <c r="U32" s="35" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>́</v>
       </c>
       <c r="V32" s="67"/>
     </row>
@@ -17092,49 +17208,49 @@
         <v>8</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>1602</v>
+        <v>136</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="F33" s="71" t="s">
-        <v>287</v>
+        <v>1750</v>
       </c>
       <c r="G33" s="71" t="s">
-        <v>1603</v>
+        <v>1751</v>
       </c>
       <c r="H33" s="71" t="s">
-        <v>23</v>
+        <v>1752</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>1604</v>
+        <v>1753</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>1603</v>
+        <v>1754</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="L33" s="71" t="s">
-        <v>284</v>
+        <v>1755</v>
       </c>
       <c r="M33" s="71" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N33" s="71" t="s">
-        <v>1605</v>
+        <v>1756</v>
       </c>
       <c r="O33" s="71" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="P33" s="71" t="s">
-        <v>1606</v>
+        <v>1208</v>
       </c>
       <c r="Q33" s="71" t="s">
-        <v>157</v>
+        <v>1757</v>
       </c>
       <c r="R33" s="71" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="S33" s="75"/>
       <c r="V33" s="67"/>
@@ -17142,45 +17258,47 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="74" t="s">
-        <v>1437</v>
+        <v>1607</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>1542</v>
+        <v>1616</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>1479</v>
+        <v>1807</v>
       </c>
       <c r="G34" s="74" t="s">
         <v>1809</v>
       </c>
-      <c r="H34" s="74"/>
+      <c r="H34" s="74" t="s">
+        <v>1810</v>
+      </c>
       <c r="I34" s="74" t="s">
-        <v>1427</v>
+        <v>1812</v>
       </c>
       <c r="J34" s="74" t="s">
-        <v>1809</v>
-      </c>
-      <c r="K34" s="74" t="s">
-        <v>1461</v>
-      </c>
+        <v>1814</v>
+      </c>
+      <c r="K34" s="74"/>
       <c r="L34" s="74" t="s">
-        <v>1477</v>
-      </c>
-      <c r="M34" s="74"/>
+        <v>1815</v>
+      </c>
+      <c r="M34" s="74" t="s">
+        <v>1602</v>
+      </c>
       <c r="N34" s="74" t="s">
-        <v>1436</v>
+        <v>1847</v>
       </c>
       <c r="O34" s="74" t="s">
-        <v>1531</v>
+        <v>1816</v>
       </c>
       <c r="P34" s="74" t="s">
-        <v>1811</v>
+        <v>1586</v>
       </c>
       <c r="Q34" s="74" t="s">
-        <v>1449</v>
+        <v>1818</v>
       </c>
       <c r="R34" s="74" t="s">
-        <v>1812</v>
+        <v>1599</v>
       </c>
       <c r="S34" s="78"/>
       <c r="V34" s="67"/>
@@ -17208,45 +17326,21 @@
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="73" t="s">
-        <v>1890</v>
-      </c>
+      <c r="D36" s="73"/>
       <c r="E36" s="73"/>
-      <c r="F36" s="73" t="s">
-        <v>1813</v>
-      </c>
-      <c r="G36" s="73" t="s">
-        <v>1815</v>
-      </c>
-      <c r="H36" s="73" t="s">
-        <v>675</v>
-      </c>
-      <c r="I36" s="73" t="s">
-        <v>665</v>
-      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="73" t="s">
-        <v>704</v>
-      </c>
-      <c r="L36" s="73" t="s">
-        <v>1817</v>
-      </c>
-      <c r="M36" s="73" t="s">
-        <v>708</v>
-      </c>
-      <c r="N36" s="73" t="s">
-        <v>720</v>
-      </c>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
       <c r="O36" s="73"/>
-      <c r="P36" s="73" t="s">
-        <v>1893</v>
-      </c>
-      <c r="Q36" s="73" t="s">
-        <v>1819</v>
-      </c>
-      <c r="R36" s="73" t="s">
-        <v>1821</v>
-      </c>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
       <c r="S36" s="77"/>
       <c r="V36" s="67"/>
     </row>
@@ -17256,94 +17350,46 @@
         <v>9</v>
       </c>
       <c r="D37" s="71" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E37" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="71" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H37" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="I37" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="L37" s="71" t="s">
-        <v>1610</v>
-      </c>
-      <c r="M37" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="N37" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" s="71" t="s">
-        <v>1611</v>
-      </c>
-      <c r="Q37" s="71" t="s">
-        <v>1612</v>
-      </c>
-      <c r="R37" s="71" t="s">
-        <v>1235</v>
-      </c>
+      <c r="E37" s="71" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
       <c r="S37" s="75"/>
       <c r="V37" s="67"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
-      <c r="D38" s="74" t="s">
-        <v>1891</v>
-      </c>
+      <c r="D38" s="74"/>
       <c r="E38" s="74"/>
-      <c r="F38" s="74" t="s">
-        <v>1814</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>1816</v>
-      </c>
-      <c r="H38" s="74" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I38" s="74" t="s">
-        <v>1544</v>
-      </c>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="74"/>
-      <c r="K38" s="74" t="s">
-        <v>1531</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>1818</v>
-      </c>
-      <c r="M38" s="74" t="s">
-        <v>1452</v>
-      </c>
-      <c r="N38" s="74" t="s">
-        <v>1546</v>
-      </c>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
       <c r="O38" s="74"/>
-      <c r="P38" s="74" t="s">
-        <v>1894</v>
-      </c>
-      <c r="Q38" s="74" t="s">
-        <v>1820</v>
-      </c>
-      <c r="R38" s="74" t="s">
-        <v>1822</v>
-      </c>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
       <c r="S38" s="78"/>
       <c r="V38" s="67"/>
     </row>
@@ -17370,45 +17416,21 @@
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="73" t="s">
-        <v>1896</v>
-      </c>
+      <c r="D40" s="73"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="73" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G40" s="73" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H40" s="73" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I40" s="73" t="s">
-        <v>718</v>
-      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
       <c r="J40" s="73"/>
-      <c r="K40" s="73" t="s">
-        <v>1826</v>
-      </c>
-      <c r="L40" s="73" t="s">
-        <v>1794</v>
-      </c>
-      <c r="M40" s="73" t="s">
-        <v>1533</v>
-      </c>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
       <c r="N40" s="73"/>
-      <c r="O40" s="73" t="s">
-        <v>872</v>
-      </c>
-      <c r="P40" s="73" t="s">
-        <v>1902</v>
-      </c>
-      <c r="Q40" s="73" t="s">
-        <v>595</v>
-      </c>
-      <c r="R40" s="73" t="s">
-        <v>1828</v>
-      </c>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
       <c r="S40" s="77"/>
       <c r="V40" s="67"/>
     </row>
@@ -17418,94 +17440,42 @@
         <v>10</v>
       </c>
       <c r="D41" s="71" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E41" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>1614</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>1615</v>
-      </c>
-      <c r="H41" s="71" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I41" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" s="71" t="s">
-        <v>1617</v>
-      </c>
-      <c r="K41" s="71" t="s">
-        <v>1618</v>
-      </c>
-      <c r="L41" s="71" t="s">
-        <v>1595</v>
-      </c>
-      <c r="M41" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="N41" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" s="71" t="s">
-        <v>1593</v>
-      </c>
-      <c r="P41" s="71" t="s">
-        <v>1619</v>
-      </c>
-      <c r="Q41" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="71" t="s">
-        <v>1620</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
       <c r="S41" s="75"/>
       <c r="V41" s="67"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
-      <c r="D42" s="74" t="s">
-        <v>1897</v>
-      </c>
+      <c r="D42" s="74"/>
       <c r="E42" s="74"/>
-      <c r="F42" s="74" t="s">
-        <v>1825</v>
-      </c>
-      <c r="G42" s="74" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H42" s="74" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I42" s="74" t="s">
-        <v>1454</v>
-      </c>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="74"/>
-      <c r="K42" s="74" t="s">
-        <v>1827</v>
-      </c>
-      <c r="L42" s="74" t="s">
-        <v>1795</v>
-      </c>
-      <c r="M42" s="74" t="s">
-        <v>1534</v>
-      </c>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="74"/>
-      <c r="O42" s="74" t="s">
-        <v>1472</v>
-      </c>
-      <c r="P42" s="74" t="s">
-        <v>1903</v>
-      </c>
-      <c r="Q42" s="74" t="s">
-        <v>1441</v>
-      </c>
-      <c r="R42" s="74" t="s">
-        <v>1829</v>
-      </c>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
       <c r="S42" s="78"/>
       <c r="V42" s="67"/>
     </row>
@@ -17532,45 +17502,21 @@
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="73" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E44" s="73" t="s">
-        <v>836</v>
-      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="73"/>
-      <c r="G44" s="73" t="s">
-        <v>1832</v>
-      </c>
-      <c r="H44" s="73" t="s">
-        <v>896</v>
-      </c>
-      <c r="I44" s="73" t="s">
-        <v>884</v>
-      </c>
-      <c r="J44" s="73" t="s">
-        <v>784</v>
-      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
       <c r="K44" s="73"/>
-      <c r="L44" s="73" t="s">
-        <v>858</v>
-      </c>
-      <c r="M44" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="N44" s="73" t="s">
-        <v>523</v>
-      </c>
-      <c r="O44" s="73" t="s">
-        <v>1834</v>
-      </c>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
       <c r="P44" s="73"/>
-      <c r="Q44" s="73" t="s">
-        <v>597</v>
-      </c>
-      <c r="R44" s="73" t="s">
-        <v>651</v>
-      </c>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
       <c r="S44" s="77"/>
       <c r="V44" s="67"/>
     </row>
@@ -17579,95 +17525,41 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="71" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E45" s="71" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F45" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="71" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H45" s="71" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="J45" s="71" t="s">
-        <v>1625</v>
-      </c>
-      <c r="K45" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="M45" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="N45" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="O45" s="71" t="s">
-        <v>1626</v>
-      </c>
-      <c r="P45" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q45" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="R45" s="71" t="s">
-        <v>136</v>
-      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
       <c r="S45" s="75"/>
       <c r="V45" s="67"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
-      <c r="D46" s="74" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E46" s="74" t="s">
-        <v>1468</v>
-      </c>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="74"/>
-      <c r="G46" s="74" t="s">
-        <v>1833</v>
-      </c>
-      <c r="H46" s="74" t="s">
-        <v>1476</v>
-      </c>
-      <c r="I46" s="74" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J46" s="74" t="s">
-        <v>1462</v>
-      </c>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
       <c r="K46" s="74"/>
-      <c r="L46" s="74" t="s">
-        <v>1470</v>
-      </c>
-      <c r="M46" s="74" t="s">
-        <v>1459</v>
-      </c>
-      <c r="N46" s="74" t="s">
-        <v>1429</v>
-      </c>
-      <c r="O46" s="74" t="s">
-        <v>1835</v>
-      </c>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
       <c r="P46" s="74"/>
-      <c r="Q46" s="74" t="s">
-        <v>1442</v>
-      </c>
-      <c r="R46" s="74" t="s">
-        <v>1543</v>
-      </c>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
       <c r="S46" s="78"/>
       <c r="V46" s="67"/>
     </row>
@@ -17693,12 +17585,8 @@
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="73" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E48" s="73" t="s">
-        <v>1828</v>
-      </c>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="73"/>
       <c r="G48" s="73"/>
       <c r="H48" s="63"/>
@@ -17720,20 +17608,10 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="71" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E49" s="71" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F49" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="71" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="64"/>
       <c r="I49" s="64"/>
       <c r="J49" s="64"/>
@@ -17750,12 +17628,8 @@
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
-      <c r="D50" s="74" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E50" s="74" t="s">
-        <v>1829</v>
-      </c>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="74"/>
       <c r="G50" s="74"/>
       <c r="H50" s="65"/>
@@ -17795,45 +17669,21 @@
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="73" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E52" s="73" t="s">
-        <v>533</v>
-      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="73"/>
-      <c r="G52" s="73" t="s">
-        <v>1838</v>
-      </c>
-      <c r="H52" s="73" t="s">
-        <v>1905</v>
-      </c>
-      <c r="I52" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="J52" s="73" t="s">
-        <v>1840</v>
-      </c>
-      <c r="K52" s="73" t="s">
-        <v>756</v>
-      </c>
-      <c r="L52" s="73" t="s">
-        <v>1764</v>
-      </c>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
       <c r="M52" s="73"/>
       <c r="N52" s="73"/>
-      <c r="O52" s="73" t="s">
-        <v>704</v>
-      </c>
-      <c r="P52" s="73" t="s">
-        <v>1842</v>
-      </c>
-      <c r="Q52" s="73" t="s">
-        <v>1842</v>
-      </c>
-      <c r="R52" s="73" t="s">
-        <v>1421</v>
-      </c>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
       <c r="S52" s="77"/>
       <c r="V52" s="67"/>
     </row>
@@ -17842,95 +17692,41 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="71" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E53" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="F53" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="G53" s="71" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H53" s="71" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I53" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="J53" s="71" t="s">
-        <v>1631</v>
-      </c>
-      <c r="K53" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53" s="71" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M53" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="N53" s="71" t="s">
-        <v>290</v>
-      </c>
-      <c r="O53" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="P53" s="71" t="s">
-        <v>1632</v>
-      </c>
-      <c r="Q53" s="71" t="s">
-        <v>1632</v>
-      </c>
-      <c r="R53" s="71" t="s">
-        <v>102</v>
-      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
       <c r="S53" s="75"/>
       <c r="V53" s="67"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
-      <c r="D54" s="74" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E54" s="74" t="s">
-        <v>1431</v>
-      </c>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="74"/>
-      <c r="G54" s="74" t="s">
-        <v>1839</v>
-      </c>
-      <c r="H54" s="74" t="s">
-        <v>1906</v>
-      </c>
-      <c r="I54" s="74" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J54" s="74" t="s">
-        <v>1841</v>
-      </c>
-      <c r="K54" s="74" t="s">
-        <v>1458</v>
-      </c>
-      <c r="L54" s="74" t="s">
-        <v>1765</v>
-      </c>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
       <c r="M54" s="74"/>
       <c r="N54" s="74"/>
-      <c r="O54" s="74" t="s">
-        <v>1531</v>
-      </c>
-      <c r="P54" s="74" t="s">
-        <v>1843</v>
-      </c>
-      <c r="Q54" s="74" t="s">
-        <v>1843</v>
-      </c>
-      <c r="R54" s="74" t="s">
-        <v>1696</v>
-      </c>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
       <c r="S54" s="78"/>
       <c r="V54" s="67"/>
     </row>
@@ -17957,42 +17753,20 @@
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="73" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E56" s="73" t="s">
-        <v>1844</v>
-      </c>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="73"/>
-      <c r="G56" s="73" t="s">
-        <v>704</v>
-      </c>
-      <c r="H56" s="73" t="s">
-        <v>1846</v>
-      </c>
-      <c r="I56" s="73" t="s">
-        <v>1846</v>
-      </c>
-      <c r="J56" s="73" t="s">
-        <v>1421</v>
-      </c>
-      <c r="K56" s="73" t="s">
-        <v>583</v>
-      </c>
-      <c r="L56" s="73" t="s">
-        <v>1848</v>
-      </c>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
       <c r="M56" s="73"/>
       <c r="N56" s="73"/>
-      <c r="O56" s="73" t="s">
-        <v>673</v>
-      </c>
-      <c r="P56" s="73" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q56" s="73" t="s">
-        <v>1764</v>
-      </c>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
       <c r="R56" s="73"/>
       <c r="S56" s="77"/>
       <c r="V56" s="67"/>
@@ -18002,92 +17776,40 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="71" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E57" s="71" t="s">
-        <v>1633</v>
-      </c>
-      <c r="F57" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="H57" s="71" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I57" s="71" t="s">
-        <v>1634</v>
-      </c>
-      <c r="J57" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>1635</v>
-      </c>
-      <c r="L57" s="71" t="s">
-        <v>1636</v>
-      </c>
-      <c r="M57" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="N57" s="71" t="s">
-        <v>293</v>
-      </c>
-      <c r="O57" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="P57" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q57" s="71" t="s">
-        <v>1574</v>
-      </c>
-      <c r="R57" s="71" t="s">
-        <v>23</v>
-      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
       <c r="S57" s="75"/>
       <c r="V57" s="67"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
-      <c r="D58" s="74" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E58" s="74" t="s">
-        <v>1845</v>
-      </c>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="74"/>
-      <c r="G58" s="74" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H58" s="74" t="s">
-        <v>1847</v>
-      </c>
-      <c r="I58" s="74" t="s">
-        <v>1847</v>
-      </c>
-      <c r="J58" s="74" t="s">
-        <v>1696</v>
-      </c>
-      <c r="K58" s="74" t="s">
-        <v>1439</v>
-      </c>
-      <c r="L58" s="74" t="s">
-        <v>1849</v>
-      </c>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
       <c r="M58" s="74"/>
       <c r="N58" s="74"/>
-      <c r="O58" s="74" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P58" s="74" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Q58" s="74" t="s">
-        <v>1765</v>
-      </c>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
       <c r="R58" s="74"/>
       <c r="S58" s="78"/>
       <c r="V58" s="67"/>
@@ -18115,47 +17837,21 @@
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="73" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E60" s="73" t="s">
-        <v>697</v>
-      </c>
-      <c r="F60" s="73" t="s">
-        <v>541</v>
-      </c>
-      <c r="G60" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="H60" s="73" t="s">
-        <v>1852</v>
-      </c>
-      <c r="I60" s="73" t="s">
-        <v>695</v>
-      </c>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="73"/>
-      <c r="K60" s="73" t="s">
-        <v>1854</v>
-      </c>
-      <c r="L60" s="73" t="s">
-        <v>1407</v>
-      </c>
-      <c r="M60" s="73" t="s">
-        <v>583</v>
-      </c>
-      <c r="N60" s="73" t="s">
-        <v>581</v>
-      </c>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
       <c r="O60" s="73"/>
-      <c r="P60" s="73" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q60" s="73" t="s">
-        <v>1550</v>
-      </c>
-      <c r="R60" s="73" t="s">
-        <v>567</v>
-      </c>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
       <c r="S60" s="77"/>
       <c r="V60" s="67"/>
     </row>
@@ -18164,97 +17860,41 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="71" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E61" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="71" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I61" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="J61" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="K61" s="71" t="s">
-        <v>1639</v>
-      </c>
-      <c r="L61" s="71" t="s">
-        <v>1640</v>
-      </c>
-      <c r="M61" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="N61" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="O61" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="P61" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q61" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="R61" s="71" t="s">
-        <v>93</v>
-      </c>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
       <c r="S61" s="75"/>
       <c r="V61" s="67"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
-      <c r="D62" s="74" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E62" s="74" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F62" s="74" t="s">
-        <v>1474</v>
-      </c>
-      <c r="G62" s="74" t="s">
-        <v>1443</v>
-      </c>
-      <c r="H62" s="74" t="s">
-        <v>1853</v>
-      </c>
-      <c r="I62" s="74" t="s">
-        <v>1530</v>
-      </c>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
       <c r="J62" s="74"/>
-      <c r="K62" s="74" t="s">
-        <v>1855</v>
-      </c>
-      <c r="L62" s="74" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M62" s="74" t="s">
-        <v>1439</v>
-      </c>
-      <c r="N62" s="74" t="s">
-        <v>1438</v>
-      </c>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
       <c r="O62" s="74"/>
-      <c r="P62" s="74" t="s">
-        <v>1442</v>
-      </c>
-      <c r="Q62" s="74" t="s">
-        <v>1551</v>
-      </c>
-      <c r="R62" s="74" t="s">
-        <v>1437</v>
-      </c>
+      <c r="P62" s="74"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="74"/>
       <c r="S62" s="78"/>
       <c r="V62" s="67"/>
     </row>
@@ -18281,47 +17921,21 @@
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="73" t="s">
-        <v>784</v>
-      </c>
+      <c r="D64" s="73"/>
       <c r="E64" s="73"/>
-      <c r="F64" s="73" t="s">
-        <v>635</v>
-      </c>
-      <c r="G64" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="H64" s="73" t="s">
-        <v>896</v>
-      </c>
-      <c r="I64" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="J64" s="73" t="s">
-        <v>892</v>
-      </c>
-      <c r="K64" s="73" t="s">
-        <v>1421</v>
-      </c>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
       <c r="L64" s="73"/>
-      <c r="M64" s="73" t="s">
-        <v>1856</v>
-      </c>
-      <c r="N64" s="73" t="s">
-        <v>796</v>
-      </c>
-      <c r="O64" s="73" t="s">
-        <v>896</v>
-      </c>
-      <c r="P64" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q64" s="73" t="s">
-        <v>892</v>
-      </c>
-      <c r="R64" s="73" t="s">
-        <v>1421</v>
-      </c>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
       <c r="S64" s="77"/>
       <c r="V64" s="67"/>
     </row>
@@ -18330,97 +17944,41 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="71" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E65" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="H65" s="71" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I65" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="J65" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="K65" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="L65" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="M65" s="71" t="s">
-        <v>1642</v>
-      </c>
-      <c r="N65" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="O65" s="71" t="s">
-        <v>1641</v>
-      </c>
-      <c r="P65" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q65" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="R65" s="71" t="s">
-        <v>294</v>
-      </c>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
       <c r="S65" s="75"/>
       <c r="V65" s="67"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
-      <c r="D66" s="74" t="s">
-        <v>1462</v>
-      </c>
+      <c r="D66" s="74"/>
       <c r="E66" s="74"/>
-      <c r="F66" s="74" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G66" s="74" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H66" s="74" t="s">
-        <v>1476</v>
-      </c>
-      <c r="I66" s="74" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J66" s="74" t="s">
-        <v>1432</v>
-      </c>
-      <c r="K66" s="74" t="s">
-        <v>1440</v>
-      </c>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
       <c r="L66" s="74"/>
-      <c r="M66" s="74" t="s">
-        <v>1823</v>
-      </c>
-      <c r="N66" s="74" t="s">
-        <v>1464</v>
-      </c>
-      <c r="O66" s="74" t="s">
-        <v>1476</v>
-      </c>
-      <c r="P66" s="74" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Q66" s="74" t="s">
-        <v>1432</v>
-      </c>
-      <c r="R66" s="74" t="s">
-        <v>1440</v>
-      </c>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="74"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="74"/>
       <c r="S66" s="78"/>
       <c r="V66" s="67"/>
     </row>
@@ -18469,14 +18027,8 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" s="71" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
@@ -18558,9 +18110,7 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="71" t="s">
-        <v>38</v>
-      </c>
+      <c r="D73" s="71"/>
       <c r="E73" s="64"/>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
@@ -26793,7 +26343,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1488</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -26801,13 +26351,13 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>1489</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -26815,13 +26365,13 @@
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1490</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -26835,7 +26385,7 @@
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1491</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -26857,13 +26407,13 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1485</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -26891,7 +26441,7 @@
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1492</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -26905,7 +26455,7 @@
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>1493</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -26919,7 +26469,7 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1494</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -26927,13 +26477,13 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1495</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -26947,7 +26497,7 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1486</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -26989,7 +26539,7 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1496</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -27003,7 +26553,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1497</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -27017,7 +26567,7 @@
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1498</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -27045,7 +26595,7 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1499</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -27067,13 +26617,13 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1500</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -27081,13 +26631,13 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C23" t="s">
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1501</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -27101,7 +26651,7 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1537</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -27115,7 +26665,7 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1502</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -27137,13 +26687,13 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1503</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -27199,7 +26749,7 @@
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1504</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -27227,7 +26777,7 @@
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1505</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -27241,7 +26791,7 @@
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1506</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -27249,13 +26799,13 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1487</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -27283,7 +26833,7 @@
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1507</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -27311,7 +26861,7 @@
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1508</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -27325,7 +26875,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1509</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -27367,7 +26917,7 @@
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1510</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -27381,7 +26931,7 @@
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>1511</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -27395,7 +26945,7 @@
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>1512</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -27409,7 +26959,7 @@
         <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>1513</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -27437,7 +26987,7 @@
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>1514</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -27451,7 +27001,7 @@
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>1515</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -27465,7 +27015,7 @@
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1516</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -27655,7 +27205,7 @@
         <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>1444</v>
+        <v>1425</v>
       </c>
       <c r="C64" t="s">
         <v>499</v>
@@ -27697,7 +27247,7 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
@@ -27717,7 +27267,7 @@
         <v>499</v>
       </c>
       <c r="D68" t="s">
-        <v>1528</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -27725,7 +27275,7 @@
         <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>1527</v>
+        <v>1479</v>
       </c>
       <c r="C69" t="s">
         <v>499</v>
@@ -27837,13 +27387,13 @@
         <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C77" t="s">
         <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -27857,7 +27407,7 @@
         <v>499</v>
       </c>
       <c r="D78" t="s">
-        <v>1517</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -28131,7 +27681,7 @@
         <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C98" t="s">
         <v>499</v>
@@ -28285,7 +27835,7 @@
         <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>1450</v>
+        <v>1426</v>
       </c>
       <c r="C109" t="s">
         <v>499</v>
@@ -28375,7 +27925,7 @@
         <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>1518</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -28403,7 +27953,7 @@
         <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>1536</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -28411,7 +27961,7 @@
         <v>169</v>
       </c>
       <c r="B118" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
@@ -28467,7 +28017,7 @@
         <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>1453</v>
+        <v>1427</v>
       </c>
       <c r="C122" t="s">
         <v>499</v>
@@ -28529,7 +28079,7 @@
         <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>1519</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -28621,7 +28171,7 @@
         <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C133" t="s">
         <v>499</v>
@@ -28635,7 +28185,7 @@
         <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C134" t="s">
         <v>499</v>
@@ -28705,7 +28255,7 @@
         <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C139" t="s">
         <v>499</v>
@@ -28859,7 +28409,7 @@
         <v>199</v>
       </c>
       <c r="B150" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C150" t="s">
         <v>499</v>
@@ -28901,7 +28451,7 @@
         <v>202</v>
       </c>
       <c r="B153" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C153" t="s">
         <v>499</v>
@@ -28985,7 +28535,7 @@
         <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>1460</v>
+        <v>1429</v>
       </c>
       <c r="C159" t="s">
         <v>499</v>
@@ -29139,7 +28689,7 @@
         <v>217</v>
       </c>
       <c r="B170" t="s">
-        <v>1463</v>
+        <v>1430</v>
       </c>
       <c r="C170" t="s">
         <v>499</v>
@@ -29223,7 +28773,7 @@
         <v>223</v>
       </c>
       <c r="B176" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C176" t="s">
         <v>499</v>
@@ -29279,7 +28829,7 @@
         <v>227</v>
       </c>
       <c r="B180" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C180" t="s">
         <v>499</v>
@@ -29391,7 +28941,7 @@
         <v>235</v>
       </c>
       <c r="B188" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C188" t="s">
         <v>499</v>
@@ -29475,7 +29025,7 @@
         <v>241</v>
       </c>
       <c r="B194" t="s">
-        <v>1465</v>
+        <v>1431</v>
       </c>
       <c r="C194" t="s">
         <v>499</v>
@@ -29517,7 +29067,7 @@
         <v>244</v>
       </c>
       <c r="B197" t="s">
-        <v>1467</v>
+        <v>1432</v>
       </c>
       <c r="C197" t="s">
         <v>499</v>
@@ -29545,7 +29095,7 @@
         <v>245</v>
       </c>
       <c r="B199" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C199" t="s">
         <v>499</v>
@@ -29615,7 +29165,7 @@
         <v>250</v>
       </c>
       <c r="B204" t="s">
-        <v>1469</v>
+        <v>1433</v>
       </c>
       <c r="C204" t="s">
         <v>499</v>
@@ -29629,13 +29179,13 @@
         <v>251</v>
       </c>
       <c r="B205" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C205" t="s">
         <v>499</v>
       </c>
       <c r="D205" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -29643,13 +29193,13 @@
         <v>251</v>
       </c>
       <c r="B206" t="s">
-        <v>1478</v>
+        <v>1434</v>
       </c>
       <c r="C206" t="s">
         <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>1520</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -29783,7 +29333,7 @@
         <v>261</v>
       </c>
       <c r="B216" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C216" t="s">
         <v>499</v>
@@ -29839,7 +29389,7 @@
         <v>265</v>
       </c>
       <c r="B220" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C220" t="s">
         <v>499</v>
@@ -30139,7 +29689,7 @@
         <v>499</v>
       </c>
       <c r="D241" t="s">
-        <v>1521</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -30203,7 +29753,7 @@
         <v>292</v>
       </c>
       <c r="B246" t="s">
-        <v>1481</v>
+        <v>1435</v>
       </c>
       <c r="C246" t="s">
         <v>499</v>
@@ -30287,7 +29837,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>1482</v>
+        <v>1436</v>
       </c>
       <c r="C252" t="s">
         <v>499</v>
@@ -30321,7 +29871,7 @@
         <v>499</v>
       </c>
       <c r="D254" t="s">
-        <v>1522</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -30329,13 +29879,13 @@
         <v>1381</v>
       </c>
       <c r="B255" t="s">
-        <v>1483</v>
+        <v>1437</v>
       </c>
       <c r="C255" t="s">
         <v>499</v>
       </c>
       <c r="D255" t="s">
-        <v>1523</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -30349,7 +29899,7 @@
         <v>499</v>
       </c>
       <c r="D256" t="s">
-        <v>1524</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -30363,7 +29913,7 @@
         <v>499</v>
       </c>
       <c r="D257" t="s">
-        <v>1525</v>
+        <v>1478</v>
       </c>
     </row>
   </sheetData>
